--- a/Tools/MathWordProblemsConsoleApp/App_Data/MathWordProblems.xlsx
+++ b/Tools/MathWordProblemsConsoleApp/App_Data/MathWordProblems.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Problems" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -54,7 +54,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -65,7 +65,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -76,7 +76,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -87,7 +87,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -98,7 +98,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -109,7 +109,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -120,7 +120,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -131,7 +131,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -142,7 +142,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -153,7 +153,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -164,7 +164,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -175,7 +175,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -186,7 +186,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -207,7 +207,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -218,7 +218,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -229,7 +229,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -240,7 +240,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -251,7 +251,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -262,7 +262,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -273,7 +273,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -284,7 +284,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -301,7 +301,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -312,7 +312,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -323,7 +323,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -334,7 +334,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -345,7 +345,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -356,7 +356,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -367,7 +367,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -378,7 +378,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -395,7 +395,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -406,7 +406,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -423,7 +423,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -434,7 +434,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -445,7 +445,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -456,7 +456,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -467,7 +467,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -478,7 +478,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -489,7 +489,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -500,7 +500,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -517,7 +517,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -528,7 +528,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -539,7 +539,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -550,7 +550,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -561,7 +561,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -572,7 +572,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -583,7 +583,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -594,7 +594,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -605,7 +605,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -616,7 +616,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -633,7 +633,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -644,7 +644,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -661,7 +661,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -672,7 +672,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -683,7 +683,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -694,7 +694,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -705,7 +705,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -716,7 +716,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -733,7 +733,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -744,7 +744,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -755,7 +755,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -766,7 +766,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -783,7 +783,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -794,7 +794,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -805,7 +805,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -816,7 +816,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -827,7 +827,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -838,7 +838,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -849,7 +849,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -860,7 +860,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -874,7 +874,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -885,7 +885,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -896,7 +896,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -907,7 +907,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -921,7 +921,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -932,7 +932,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -943,7 +943,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -954,7 +954,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -965,7 +965,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -976,7 +976,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -987,7 +987,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -998,7 +998,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1009,7 +1009,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1020,7 +1020,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1031,7 +1031,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1042,7 +1042,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1059,7 +1059,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1070,7 +1070,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1081,7 +1081,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1092,7 +1092,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1109,7 +1109,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1120,7 +1120,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1131,7 +1131,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1142,7 +1142,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1153,7 +1153,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1170,7 +1170,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1181,7 +1181,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1192,7 +1192,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1203,7 +1203,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1214,7 +1214,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1225,7 +1225,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1236,7 +1236,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1253,7 +1253,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1264,7 +1264,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1275,7 +1275,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1286,7 +1286,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1297,7 +1297,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1308,7 +1308,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1319,7 +1319,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1330,7 +1330,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1341,7 +1341,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1352,7 +1352,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1369,7 +1369,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1380,7 +1380,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1391,7 +1391,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1402,7 +1402,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1413,7 +1413,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1424,7 +1424,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1435,7 +1435,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1446,7 +1446,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1467,7 +1467,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1478,7 +1478,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1489,7 +1489,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1500,7 +1500,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1517,7 +1517,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1528,7 +1528,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1539,7 +1539,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1550,7 +1550,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1561,7 +1561,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1572,7 +1572,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1583,7 +1583,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1600,7 +1600,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1611,7 +1611,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1622,7 +1622,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1633,7 +1633,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1644,7 +1644,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1655,7 +1655,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1666,7 +1666,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1677,7 +1677,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1688,7 +1688,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1699,7 +1699,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1710,7 +1710,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1721,7 +1721,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1732,7 +1732,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1743,7 +1743,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1754,7 +1754,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1765,7 +1765,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1776,7 +1776,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1787,7 +1787,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1798,7 +1798,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1809,7 +1809,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1826,7 +1826,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1837,7 +1837,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1848,7 +1848,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1865,7 +1865,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1876,7 +1876,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1887,7 +1887,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1904,7 +1904,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1915,7 +1915,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1926,7 +1926,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1937,7 +1937,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1958,7 +1958,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1969,7 +1969,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1980,7 +1980,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1991,7 +1991,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2002,7 +2002,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2013,7 +2013,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2034,7 +2034,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2045,7 +2045,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2056,7 +2056,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2067,7 +2067,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2078,7 +2078,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2089,7 +2089,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2100,7 +2100,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2111,7 +2111,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2122,7 +2122,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2133,7 +2133,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2144,7 +2144,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2155,7 +2155,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2172,7 +2172,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2183,7 +2183,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2194,7 +2194,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2205,7 +2205,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2216,7 +2216,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2227,7 +2227,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2238,7 +2238,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2255,7 +2255,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2266,7 +2266,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2277,7 +2277,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2288,7 +2288,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2305,7 +2305,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2316,7 +2316,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2327,7 +2327,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2338,7 +2338,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2379,7 +2379,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2390,7 +2390,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2401,7 +2401,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2412,7 +2412,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2423,7 +2423,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2434,7 +2434,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2445,7 +2445,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2456,7 +2456,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2467,7 +2467,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2478,7 +2478,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2489,7 +2489,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2500,7 +2500,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2511,7 +2511,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2522,7 +2522,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2547,7 +2547,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2558,7 +2558,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2569,7 +2569,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2580,7 +2580,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2591,7 +2591,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2602,7 +2602,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2613,7 +2613,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2624,7 +2624,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2635,7 +2635,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2646,7 +2646,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2657,7 +2657,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2668,7 +2668,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2679,7 +2679,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2690,7 +2690,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2707,7 +2707,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2718,7 +2718,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2729,7 +2729,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2740,7 +2740,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2757,7 +2757,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2768,7 +2768,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2779,7 +2779,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2790,7 +2790,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2801,7 +2801,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2812,7 +2812,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2823,7 +2823,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2834,7 +2834,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2845,7 +2845,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2856,7 +2856,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2867,7 +2867,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2878,7 +2878,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2889,7 +2889,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2900,7 +2900,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2911,7 +2911,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2922,7 +2922,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2939,7 +2939,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2950,7 +2950,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2961,7 +2961,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2972,7 +2972,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2983,7 +2983,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2994,7 +2994,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3005,7 +3005,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3022,7 +3022,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3033,7 +3033,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3044,7 +3044,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3055,7 +3055,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3066,7 +3066,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3077,7 +3077,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3088,7 +3088,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3105,7 +3105,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3116,7 +3116,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3133,7 +3133,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3144,7 +3144,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3155,7 +3155,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3166,7 +3166,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3177,7 +3177,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3188,7 +3188,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3205,7 +3205,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3216,7 +3216,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3227,7 +3227,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3238,7 +3238,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3249,7 +3249,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3260,7 +3260,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3271,7 +3271,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3282,7 +3282,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3293,7 +3293,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3304,7 +3304,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3315,7 +3315,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3326,7 +3326,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3343,7 +3343,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3354,7 +3354,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3371,7 +3371,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3382,7 +3382,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3393,7 +3393,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3404,7 +3404,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3415,7 +3415,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3426,7 +3426,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3437,7 +3437,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3448,7 +3448,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3459,7 +3459,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3470,7 +3470,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3481,7 +3481,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3492,7 +3492,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3503,7 +3503,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3514,7 +3514,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3531,7 +3531,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3542,7 +3542,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3553,7 +3553,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3564,7 +3564,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3575,7 +3575,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3586,7 +3586,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3597,7 +3597,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3608,7 +3608,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3619,7 +3619,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3630,7 +3630,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3641,7 +3641,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3652,7 +3652,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3663,7 +3663,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3674,7 +3674,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3691,7 +3691,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3702,7 +3702,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3713,7 +3713,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3724,7 +3724,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3735,7 +3735,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3746,7 +3746,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3757,7 +3757,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3774,7 +3774,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3785,7 +3785,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3796,7 +3796,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3807,7 +3807,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3818,7 +3818,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3829,7 +3829,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3840,7 +3840,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3857,7 +3857,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3868,7 +3868,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3879,7 +3879,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3896,7 +3896,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3907,7 +3907,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3918,7 +3918,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3929,7 +3929,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3940,7 +3940,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3951,7 +3951,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3962,7 +3962,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3973,7 +3973,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3984,7 +3984,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3995,7 +3995,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4012,7 +4012,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4023,7 +4023,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4034,7 +4034,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4045,7 +4045,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4056,7 +4056,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4067,7 +4067,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4078,7 +4078,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4089,7 +4089,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4100,7 +4100,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4111,7 +4111,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4128,7 +4128,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4139,7 +4139,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4150,7 +4150,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4161,7 +4161,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4172,7 +4172,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4183,7 +4183,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4194,7 +4194,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4205,7 +4205,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4222,7 +4222,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4233,7 +4233,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4244,7 +4244,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4255,7 +4255,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4266,7 +4266,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4277,7 +4277,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4288,7 +4288,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4299,7 +4299,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4316,7 +4316,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4327,7 +4327,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4338,7 +4338,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4349,7 +4349,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4360,7 +4360,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4371,7 +4371,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4382,7 +4382,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4393,7 +4393,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4404,7 +4404,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4415,7 +4415,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4426,7 +4426,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4437,7 +4437,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4448,7 +4448,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4459,7 +4459,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4470,7 +4470,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4481,7 +4481,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4498,7 +4498,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4509,7 +4509,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4520,7 +4520,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4531,7 +4531,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4542,7 +4542,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4553,7 +4553,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4564,7 +4564,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4575,7 +4575,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4586,7 +4586,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4597,7 +4597,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4608,7 +4608,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4619,7 +4619,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4630,7 +4630,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4641,7 +4641,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4658,7 +4658,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4669,7 +4669,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4680,7 +4680,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4691,7 +4691,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4702,7 +4702,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4713,7 +4713,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4724,7 +4724,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4735,7 +4735,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4752,7 +4752,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4763,7 +4763,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4774,7 +4774,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4785,7 +4785,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4796,7 +4796,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4807,7 +4807,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4818,7 +4818,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4829,7 +4829,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4840,7 +4840,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4851,7 +4851,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4862,7 +4862,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4873,7 +4873,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4884,7 +4884,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4901,7 +4901,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4912,7 +4912,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4923,7 +4923,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4934,7 +4934,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4945,7 +4945,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4956,7 +4956,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4973,7 +4973,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4984,7 +4984,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4995,7 +4995,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5006,7 +5006,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5023,7 +5023,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5034,7 +5034,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5045,7 +5045,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5056,7 +5056,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5073,7 +5073,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -5084,7 +5084,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5095,7 +5095,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5106,7 +5106,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5123,7 +5123,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5134,7 +5134,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5145,7 +5145,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5156,7 +5156,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5167,7 +5167,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5178,7 +5178,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5189,7 +5189,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5200,7 +5200,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5211,7 +5211,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5222,7 +5222,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5233,7 +5233,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5244,7 +5244,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5261,7 +5261,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5272,7 +5272,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5283,7 +5283,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5294,7 +5294,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5305,7 +5305,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5316,7 +5316,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5327,7 +5327,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5338,7 +5338,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5349,7 +5349,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5360,7 +5360,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5371,7 +5371,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5382,7 +5382,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5399,7 +5399,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5410,7 +5410,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5421,7 +5421,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5432,7 +5432,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5443,7 +5443,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5454,7 +5454,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5465,7 +5465,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5482,7 +5482,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5493,7 +5493,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5504,7 +5504,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5515,7 +5515,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5532,7 +5532,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5543,7 +5543,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5554,7 +5554,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5565,7 +5565,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5586,7 +5586,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5597,7 +5597,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5614,7 +5614,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5625,7 +5625,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5642,7 +5642,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5653,7 +5653,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5664,7 +5664,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5675,7 +5675,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5686,7 +5686,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5697,7 +5697,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5708,7 +5708,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5719,7 +5719,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5730,7 +5730,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5741,7 +5741,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5752,7 +5752,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5763,7 +5763,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5774,7 +5774,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5785,7 +5785,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5802,7 +5802,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5813,7 +5813,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5824,7 +5824,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5835,7 +5835,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5852,7 +5852,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5863,7 +5863,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5874,7 +5874,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5885,7 +5885,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5896,7 +5896,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5907,7 +5907,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5918,7 +5918,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5929,7 +5929,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5940,7 +5940,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -5951,7 +5951,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -5969,14 +5969,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -5985,7 +5985,7 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -5994,7 +5994,7 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -6002,7 +6002,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -6010,7 +6010,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -6018,7 +6018,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -6026,7 +6026,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -6096,7 +6096,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -6104,7 +6104,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6390,7 +6390,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -6847,17 +6849,17 @@
     <row r="30" spans="2:5">
       <c r="B30" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>S0028</v>
+        <v>P0028</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>S0028</v>
+        <v>P0028</v>
       </c>
     </row>
     <row r="31" spans="2:5">

--- a/Tools/MathWordProblemsConsoleApp/App_Data/MathWordProblems.xlsx
+++ b/Tools/MathWordProblemsConsoleApp/App_Data/MathWordProblems.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="99">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -43,7 +43,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -54,7 +54,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -65,7 +65,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -76,7 +76,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -87,7 +87,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -98,7 +98,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -109,7 +109,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -120,7 +120,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -131,7 +131,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -142,7 +142,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -153,7 +153,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -164,7 +164,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -175,7 +175,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -186,7 +186,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -207,7 +207,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -218,7 +218,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -229,7 +229,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -240,7 +240,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -251,7 +251,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -262,7 +262,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -273,7 +273,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -284,7 +284,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -301,7 +301,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -312,7 +312,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -323,7 +323,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -334,7 +334,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -345,7 +345,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -356,7 +356,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -367,7 +367,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -378,7 +378,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -395,7 +395,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -406,7 +406,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -423,7 +423,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -434,7 +434,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -445,7 +445,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -456,7 +456,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -467,7 +467,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -478,7 +478,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -489,7 +489,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -500,7 +500,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -517,7 +517,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -528,7 +528,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -539,7 +539,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -550,7 +550,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -561,7 +561,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -572,7 +572,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -583,7 +583,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -594,7 +594,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -605,7 +605,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -616,7 +616,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -633,7 +633,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -644,7 +644,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -661,7 +661,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -672,7 +672,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -683,7 +683,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -694,7 +694,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -705,7 +705,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -716,7 +716,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -733,7 +733,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -744,7 +744,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -755,7 +755,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -766,7 +766,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -783,7 +783,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -794,7 +794,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -805,7 +805,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -816,7 +816,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -827,7 +827,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -838,7 +838,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -849,7 +849,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -860,7 +860,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -874,7 +874,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -885,7 +885,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -896,7 +896,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -907,7 +907,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -921,7 +921,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -932,7 +932,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -943,7 +943,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -954,7 +954,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -965,7 +965,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -976,7 +976,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -987,7 +987,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -998,7 +998,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1009,7 +1009,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1020,7 +1020,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1031,7 +1031,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1042,7 +1042,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1059,7 +1059,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1070,7 +1070,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1081,7 +1081,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1092,7 +1092,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1109,7 +1109,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1120,7 +1120,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1131,7 +1131,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1142,7 +1142,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1153,7 +1153,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1170,7 +1170,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1181,7 +1181,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1192,7 +1192,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1203,7 +1203,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1214,7 +1214,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1225,7 +1225,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1236,7 +1236,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1253,7 +1253,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1264,7 +1264,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1275,7 +1275,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1286,7 +1286,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1297,7 +1297,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1308,7 +1308,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1319,7 +1319,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1330,7 +1330,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1341,7 +1341,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1352,7 +1352,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1369,7 +1369,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1380,7 +1380,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1391,7 +1391,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1402,7 +1402,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1413,7 +1413,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1424,7 +1424,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1435,7 +1435,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1446,7 +1446,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1467,7 +1467,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1478,7 +1478,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1489,7 +1489,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1500,7 +1500,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1517,7 +1517,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1528,7 +1528,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1539,7 +1539,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1550,7 +1550,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1561,7 +1561,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1572,7 +1572,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1583,7 +1583,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1600,7 +1600,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1611,7 +1611,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1622,7 +1622,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1633,7 +1633,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1644,7 +1644,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1655,7 +1655,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1666,7 +1666,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1677,7 +1677,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1688,7 +1688,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1699,7 +1699,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1710,7 +1710,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1721,7 +1721,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1732,7 +1732,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1743,7 +1743,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1754,7 +1754,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1765,7 +1765,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1776,7 +1776,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1787,7 +1787,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1798,7 +1798,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1809,7 +1809,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1826,7 +1826,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1837,7 +1837,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1848,7 +1848,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1865,7 +1865,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1876,7 +1876,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1887,7 +1887,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1904,7 +1904,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1915,7 +1915,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1926,7 +1926,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1937,7 +1937,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1958,7 +1958,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1969,7 +1969,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1980,7 +1980,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1991,7 +1991,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2002,7 +2002,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2013,7 +2013,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2034,7 +2034,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2045,7 +2045,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2056,7 +2056,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2067,7 +2067,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2078,7 +2078,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2089,7 +2089,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2100,7 +2100,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2111,7 +2111,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2122,7 +2122,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2133,7 +2133,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2144,7 +2144,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2155,7 +2155,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2172,7 +2172,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2183,7 +2183,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2194,7 +2194,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2205,7 +2205,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2216,7 +2216,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2227,7 +2227,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2238,7 +2238,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2255,7 +2255,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2266,7 +2266,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2277,7 +2277,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2288,7 +2288,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2305,7 +2305,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2316,7 +2316,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2327,7 +2327,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2338,7 +2338,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2379,7 +2379,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2390,7 +2390,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2401,7 +2401,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2412,7 +2412,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2423,7 +2423,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2434,7 +2434,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2445,7 +2445,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2456,7 +2456,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2467,7 +2467,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2478,7 +2478,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2489,7 +2489,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2500,7 +2500,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2511,7 +2511,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2522,7 +2522,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2547,7 +2547,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2558,7 +2558,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2569,7 +2569,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2580,7 +2580,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2591,7 +2591,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2602,7 +2602,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2613,7 +2613,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2624,7 +2624,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2635,7 +2635,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2646,7 +2646,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2657,7 +2657,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2668,7 +2668,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2679,7 +2679,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2690,7 +2690,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2707,7 +2707,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2718,7 +2718,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2729,7 +2729,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2740,7 +2740,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2757,7 +2757,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2768,7 +2768,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2779,7 +2779,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2790,7 +2790,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2801,7 +2801,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2812,7 +2812,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2823,7 +2823,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2834,7 +2834,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2845,7 +2845,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2856,7 +2856,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2867,7 +2867,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2878,7 +2878,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2889,7 +2889,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2900,7 +2900,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2911,7 +2911,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2922,7 +2922,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2939,7 +2939,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2950,7 +2950,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2961,7 +2961,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2972,7 +2972,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2983,7 +2983,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2994,7 +2994,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3005,7 +3005,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3022,7 +3022,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3033,7 +3033,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3044,7 +3044,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3055,7 +3055,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3066,7 +3066,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3077,7 +3077,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3088,7 +3088,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3105,7 +3105,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3116,7 +3116,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3133,7 +3133,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3144,7 +3144,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3155,7 +3155,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3166,7 +3166,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3177,7 +3177,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -3188,7 +3188,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3205,7 +3205,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3216,7 +3216,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3227,7 +3227,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3238,7 +3238,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3249,7 +3249,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3260,7 +3260,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3271,7 +3271,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3282,7 +3282,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3293,7 +3293,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3304,7 +3304,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3315,7 +3315,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3326,7 +3326,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3343,7 +3343,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3354,7 +3354,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3371,7 +3371,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3382,7 +3382,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3393,7 +3393,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3404,7 +3404,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3415,7 +3415,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3426,7 +3426,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3437,7 +3437,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3448,7 +3448,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3459,7 +3459,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3470,7 +3470,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3481,7 +3481,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3492,7 +3492,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3503,7 +3503,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3514,7 +3514,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3531,7 +3531,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3542,7 +3542,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3553,7 +3553,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3564,7 +3564,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3575,7 +3575,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3586,7 +3586,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3597,7 +3597,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3608,7 +3608,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3619,7 +3619,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3630,7 +3630,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3641,7 +3641,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3652,7 +3652,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3663,7 +3663,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3674,7 +3674,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3691,7 +3691,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3702,7 +3702,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3713,7 +3713,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3724,7 +3724,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3735,7 +3735,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3746,7 +3746,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3757,7 +3757,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3774,7 +3774,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3785,7 +3785,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3796,7 +3796,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3807,7 +3807,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3818,7 +3818,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3829,7 +3829,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3840,7 +3840,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3857,7 +3857,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3868,7 +3868,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3879,7 +3879,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3896,7 +3896,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3907,7 +3907,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3918,7 +3918,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3929,7 +3929,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3940,7 +3940,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3951,7 +3951,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3962,7 +3962,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3973,7 +3973,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -3984,7 +3984,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3995,7 +3995,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4012,7 +4012,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4023,7 +4023,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4034,7 +4034,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4045,7 +4045,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4056,7 +4056,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4067,7 +4067,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4078,7 +4078,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4089,7 +4089,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4100,7 +4100,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4111,7 +4111,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4128,7 +4128,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4139,7 +4139,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4150,7 +4150,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4161,18 +4161,18 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：y只   小</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：y只   母</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4183,7 +4183,1742 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>比小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鸡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>少多少只?</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>大客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>辆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  中巴：45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>辆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>轿车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>辆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>轿车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>比大客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多多少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>辆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>大客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>辆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  中巴：x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>辆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>轿车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>辆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   中巴比大客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多多少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>辆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>拿x元去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>买车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>票，找</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>给</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我y元。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>买车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>票花了多少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>钱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>飞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上有x架</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>飞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>机，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>飞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>走了y架，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>飞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>机多少架?</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>同学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>们</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>要做x个灯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>笼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,已做好y个，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>还</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">要做多少个? </t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>小苹种x盆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>红</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>花，又种了同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>样</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多的黄花，两种花共多少盆?</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>学校原有x瓶胶水，又</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>买</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回y瓶，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在有多少瓶?</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>强</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>家有x个苹果，吃了y个，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>还</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有多少个?</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>汽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>车总</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>站有x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>辆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>汽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，开走了y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>辆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>还</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有几</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>辆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>小朋友做剪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>纸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，用了x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>张红纸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，又用了同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>样</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多的黄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>纸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>们</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用了多少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>张纸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>马场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上有x匹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>马</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，又来了y匹，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>马场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上有多少匹?</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>商店有x把扇，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>卖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>去y把，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在有多少把?</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>学校有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>兰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>花和菊花共x盆，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>兰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>花有y盆，菊花有几盆?</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小青两次画了x个，第一次画了y个，第二次画了多少个?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>红</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">家有苹果和梨子共x个，苹果有y个，梨子有多少个? </t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>家有x棵白菜，吃了y棵，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>还</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有几棵?</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>车场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开走x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>辆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>汽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>还</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>剩y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>辆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>车场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>原来有多少汽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>学校体育室有x个足球，又</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>买</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来y个，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在有多少个?</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>学雷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>锋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上午修了x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>张</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>椅，下午修了y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>张</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，一天修了多少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>张</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>椅?</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>母鸡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：y只  小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鸡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：x只   小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鸡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4194,7 +5929,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4205,7 +5940,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -4216,736 +5951,68 @@
   </si>
   <si>
     <r>
-      <t>母</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>鸡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：x只  小</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>鸡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：y只   母</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>鸡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>比小</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>鸡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>少多少只?</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>大客</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>辆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  中巴：45</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>辆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  小</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>轿车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>辆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   小</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>轿车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>比大客</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>多多少</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>辆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>大客</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>辆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  中巴：x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>辆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  小</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>轿车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：40</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>辆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   中巴比大客</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>多多少</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>辆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>拿x元去</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>买车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>票，找</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>给</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>我y元。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>买车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>票花了多少</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>钱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
+      <t>树</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上有x只</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鸟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>飞</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>场</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上有x架</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>飞</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>机，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>飞</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>走了y架，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>现</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>在机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>场</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>飞</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>机多少架?</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>同学</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>们</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>要做x个灯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>笼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,已做好y个，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>走了y只</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4956,1008 +6023,231 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">要做多少个? </t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>小苹种x盆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>红</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>花，又种了同</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>样</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>多的黄花，两种花共多少盆?</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>学校原有x瓶胶水，又</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>买</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>回y瓶，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>现</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>在有多少瓶?</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>小</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>强</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>家有x个苹果，吃了y个，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>还</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>有多少个?</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>汽</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>车总</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>站有x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>辆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>汽</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，开走了y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>辆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>还</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>有几</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>辆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>小朋友做剪</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>纸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，用了x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>张红纸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，又用了同</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>样</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>多的黄</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>纸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，他</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>们</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>用了多少</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>张纸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>马场</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上有x匹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>马</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，又来了y匹，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>现</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>马场</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上有多少匹?</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>商店有x把扇，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>卖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>去y把，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>现</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>在有多少把?</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>学校有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>兰</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>花和菊花共x盆，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>兰</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>花有y盆，菊花有几盆?</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小青两次画了x个，第一次画了y个，第二次画了多少个?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>小</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>红</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">家有苹果和梨子共x个，苹果有y个，梨子有多少个? </t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>家有x棵白菜，吃了y棵，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>还</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>有几棵?</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>从</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>车场</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>开走x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>辆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>汽</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>还</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>剩y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>辆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>车场</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>原来有多少汽</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>学校体育室有x个足球，又</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>买</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>来y个，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>现</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>在有多少个?</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>学雷</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>锋</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>小</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>组</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上午修了x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>张</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>椅，下午修了y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>张</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，一天修了多少</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>张</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>椅?</t>
-    </r>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>剩下多少只</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鸟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>？</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小明第一天写了x个字，第二天写了y个字，两天一共写了多少个字？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盘子里共有x个苹果，小红吃了y个，还剩多少个？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>小云做了x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>朵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>花，又拿来y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>朵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，现在有多少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>朵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>花？</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小军两次用了x支铅笔，第一次用了y支，第二次用了几支？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学校有x个球，借走了y个,还剩几个？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>欢欢做了x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>朵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大红花，贝贝做了y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>朵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大红花，两人一共做了多少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>朵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>？</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>妈妈买了x个犁，吃了一些，还剩y个，吃了多少个？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同学们种花和树，一共种了x棵，种了y棵树，种了多少棵花？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小明昨天写了x个大字，今天写的和昨天一样多，两天一共写了多少个大字？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>李爷爷养黑兔和白兔x只。白兔有y只，黑兔有多少只？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>树上第一次飞走x只鸟，第二次飞走y只鸟，两次飞走多少只鸟？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桌子上有菠萝x个，吃了y个还剩多少个？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>河里先游走x只鹅，又游走y只，两次游走多少只？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明明两天看了x页书，第一天看了y页，第二天看了多少页？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>停车场两次开走了x辆车，第一次开走了6y辆，第二次开走了多少辆？</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5969,14 +6259,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -5985,7 +6275,7 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -5994,7 +6284,7 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -6002,7 +6292,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -6010,7 +6300,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -6018,7 +6308,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -6026,13 +6316,13 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6042,6 +6332,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6075,7 +6371,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6094,9 +6390,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -6104,7 +6403,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6388,10 +6687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:E79"/>
+  <dimension ref="A2:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -7150,7 +7449,7 @@
         <v>P0046</v>
       </c>
     </row>
-    <row r="49" spans="2:5">
+    <row r="49" spans="1:5">
       <c r="B49" s="4" t="str">
         <f t="shared" si="0"/>
         <v>P0047</v>
@@ -7166,7 +7465,7 @@
         <v>P0047</v>
       </c>
     </row>
-    <row r="50" spans="2:5">
+    <row r="50" spans="1:5">
       <c r="B50" s="4" t="str">
         <f t="shared" si="0"/>
         <v>P0048</v>
@@ -7182,7 +7481,7 @@
         <v>P0048</v>
       </c>
     </row>
-    <row r="51" spans="2:5">
+    <row r="51" spans="1:5">
       <c r="B51" s="4" t="str">
         <f t="shared" si="0"/>
         <v>S0049</v>
@@ -7198,7 +7497,7 @@
         <v>S0049</v>
       </c>
     </row>
-    <row r="52" spans="2:5">
+    <row r="52" spans="1:5">
       <c r="B52" s="4" t="str">
         <f t="shared" si="0"/>
         <v>S0050</v>
@@ -7214,7 +7513,7 @@
         <v>S0050</v>
       </c>
     </row>
-    <row r="53" spans="2:5">
+    <row r="53" spans="1:5">
       <c r="B53" s="4" t="str">
         <f t="shared" si="0"/>
         <v>S0051</v>
@@ -7230,7 +7529,7 @@
         <v>S0051</v>
       </c>
     </row>
-    <row r="54" spans="2:5">
+    <row r="54" spans="1:5">
       <c r="B54" s="4" t="str">
         <f t="shared" si="0"/>
         <v>S0052</v>
@@ -7246,7 +7545,7 @@
         <v>S0052</v>
       </c>
     </row>
-    <row r="55" spans="2:5">
+    <row r="55" spans="1:5">
       <c r="B55" s="4" t="str">
         <f t="shared" si="0"/>
         <v>S0053</v>
@@ -7262,7 +7561,7 @@
         <v>S0053</v>
       </c>
     </row>
-    <row r="56" spans="2:5">
+    <row r="56" spans="1:5">
       <c r="B56" s="4" t="str">
         <f t="shared" si="0"/>
         <v>S0054</v>
@@ -7278,7 +7577,7 @@
         <v>S0054</v>
       </c>
     </row>
-    <row r="57" spans="2:5">
+    <row r="57" spans="1:5">
       <c r="B57" s="4" t="str">
         <f t="shared" si="0"/>
         <v>S0055</v>
@@ -7294,7 +7593,7 @@
         <v>S0055</v>
       </c>
     </row>
-    <row r="58" spans="2:5">
+    <row r="58" spans="1:5">
       <c r="B58" s="4" t="str">
         <f t="shared" si="0"/>
         <v>S0056</v>
@@ -7310,13 +7609,14 @@
         <v>S0056</v>
       </c>
     </row>
-    <row r="59" spans="2:5">
+    <row r="59" spans="1:5">
+      <c r="A59" s="6"/>
       <c r="B59" s="4" t="str">
         <f t="shared" si="0"/>
         <v>S0057</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>3</v>
@@ -7326,13 +7626,13 @@
         <v>S0057</v>
       </c>
     </row>
-    <row r="60" spans="2:5">
+    <row r="60" spans="1:5">
       <c r="B60" s="4" t="str">
         <f t="shared" si="0"/>
         <v>S0058</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>3</v>
@@ -7342,13 +7642,13 @@
         <v>S0058</v>
       </c>
     </row>
-    <row r="61" spans="2:5">
+    <row r="61" spans="1:5">
       <c r="B61" s="4" t="str">
         <f t="shared" si="0"/>
         <v>S0059</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>3</v>
@@ -7358,13 +7658,13 @@
         <v>S0059</v>
       </c>
     </row>
-    <row r="62" spans="2:5">
+    <row r="62" spans="1:5">
       <c r="B62" s="4" t="str">
         <f t="shared" si="0"/>
         <v>S0060</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>3</v>
@@ -7374,13 +7674,13 @@
         <v>S0060</v>
       </c>
     </row>
-    <row r="63" spans="2:5">
+    <row r="63" spans="1:5">
       <c r="B63" s="4" t="str">
         <f t="shared" si="0"/>
         <v>S0061</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>3</v>
@@ -7390,13 +7690,13 @@
         <v>S0061</v>
       </c>
     </row>
-    <row r="64" spans="2:5">
+    <row r="64" spans="1:5">
       <c r="B64" s="4" t="str">
         <f t="shared" si="0"/>
         <v>S0062</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>3</v>
@@ -7406,13 +7706,13 @@
         <v>S0062</v>
       </c>
     </row>
-    <row r="65" spans="2:5">
+    <row r="65" spans="1:5">
       <c r="B65" s="4" t="str">
         <f t="shared" si="0"/>
         <v>S0063</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>3</v>
@@ -7422,13 +7722,13 @@
         <v>S0063</v>
       </c>
     </row>
-    <row r="66" spans="2:5">
+    <row r="66" spans="1:5">
       <c r="B66" s="4" t="str">
         <f t="shared" si="0"/>
         <v>P0064</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>23</v>
@@ -7438,13 +7738,13 @@
         <v>P0064</v>
       </c>
     </row>
-    <row r="67" spans="2:5">
+    <row r="67" spans="1:5">
       <c r="B67" s="4" t="str">
         <f t="shared" si="0"/>
         <v>P0065</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>32</v>
@@ -7454,29 +7754,29 @@
         <v>P0065</v>
       </c>
     </row>
-    <row r="68" spans="2:5">
+    <row r="68" spans="1:5">
       <c r="B68" s="4" t="str">
-        <f t="shared" ref="B68:B79" si="2">E68</f>
+        <f t="shared" ref="B68:B87" si="2">E68</f>
         <v>S0066</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E68" s="3" t="str">
-        <f t="shared" ref="E68:E79" si="3">IF(RIGHT(LEFT(D68,2),1) = "+", "P" &amp; REPT(0,4-LEN(ROW()-2)), "S" &amp; REPT(0,4-LEN(ROW()-2))) &amp; ROW()-2</f>
+        <f t="shared" ref="E68:E95" si="3">IF(RIGHT(LEFT(D68,2),1) = "+", "P" &amp; REPT(0,4-LEN(ROW()-2)), "S" &amp; REPT(0,4-LEN(ROW()-2))) &amp; ROW()-2</f>
         <v>S0066</v>
       </c>
     </row>
-    <row r="69" spans="2:5">
+    <row r="69" spans="1:5">
       <c r="B69" s="4" t="str">
         <f t="shared" si="2"/>
         <v>S0067</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>3</v>
@@ -7486,13 +7786,13 @@
         <v>S0067</v>
       </c>
     </row>
-    <row r="70" spans="2:5">
+    <row r="70" spans="1:5">
       <c r="B70" s="4" t="str">
         <f t="shared" si="2"/>
         <v>P0068</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>23</v>
@@ -7502,13 +7802,13 @@
         <v>P0068</v>
       </c>
     </row>
-    <row r="71" spans="2:5">
+    <row r="71" spans="1:5">
       <c r="B71" s="4" t="str">
         <f t="shared" si="2"/>
         <v>P0069</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>32</v>
@@ -7518,13 +7818,13 @@
         <v>P0069</v>
       </c>
     </row>
-    <row r="72" spans="2:5">
+    <row r="72" spans="1:5">
       <c r="B72" s="4" t="str">
         <f t="shared" si="2"/>
         <v>S0070</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>3</v>
@@ -7534,13 +7834,13 @@
         <v>S0070</v>
       </c>
     </row>
-    <row r="73" spans="2:5">
+    <row r="73" spans="1:5">
       <c r="B73" s="4" t="str">
         <f t="shared" si="2"/>
         <v>S0071</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>3</v>
@@ -7550,13 +7850,13 @@
         <v>S0071</v>
       </c>
     </row>
-    <row r="74" spans="2:5">
+    <row r="74" spans="1:5">
       <c r="B74" s="4" t="str">
         <f t="shared" si="2"/>
         <v>S0072</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>3</v>
@@ -7566,13 +7866,13 @@
         <v>S0072</v>
       </c>
     </row>
-    <row r="75" spans="2:5">
+    <row r="75" spans="1:5">
       <c r="B75" s="4" t="str">
         <f t="shared" si="2"/>
         <v>S0073</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>3</v>
@@ -7582,13 +7882,13 @@
         <v>S0073</v>
       </c>
     </row>
-    <row r="76" spans="2:5">
+    <row r="76" spans="1:5">
       <c r="B76" s="4" t="str">
         <f t="shared" si="2"/>
         <v>S0074</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>3</v>
@@ -7598,13 +7898,13 @@
         <v>S0074</v>
       </c>
     </row>
-    <row r="77" spans="2:5">
+    <row r="77" spans="1:5">
       <c r="B77" s="4" t="str">
         <f t="shared" si="2"/>
         <v>P0075</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>32</v>
@@ -7614,13 +7914,13 @@
         <v>P0075</v>
       </c>
     </row>
-    <row r="78" spans="2:5">
+    <row r="78" spans="1:5">
       <c r="B78" s="4" t="str">
         <f t="shared" si="2"/>
         <v>P0076</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>32</v>
@@ -7630,13 +7930,13 @@
         <v>P0076</v>
       </c>
     </row>
-    <row r="79" spans="2:5">
+    <row r="79" spans="1:5">
       <c r="B79" s="4" t="str">
         <f t="shared" si="2"/>
         <v>P0077</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>32</v>
@@ -7644,6 +7944,278 @@
       <c r="E79" s="3" t="str">
         <f t="shared" si="3"/>
         <v>P0077</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="6"/>
+      <c r="B80" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>S0078</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>S0078</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="6"/>
+      <c r="B81" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>P0079</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>P0079</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="6"/>
+      <c r="B82" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>S0080</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>S0080</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="6"/>
+      <c r="B83" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>P0081</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E83" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>P0081</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="6"/>
+      <c r="B84" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>S0082</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>S0082</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="6"/>
+      <c r="B85" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>S0083</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>S0083</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="6"/>
+      <c r="B86" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>P0084</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E86" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>P0084</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="6"/>
+      <c r="B87" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>S0085</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E87" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>S0085</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="6"/>
+      <c r="B88" s="4" t="str">
+        <f t="shared" ref="B88:B95" si="4">E88</f>
+        <v>S0086</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>S0086</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="6"/>
+      <c r="B89" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>P0087</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E89" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>P0087</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="6"/>
+      <c r="B90" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>S0088</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>S0088</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="6"/>
+      <c r="B91" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>P0089</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E91" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>P0089</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="6"/>
+      <c r="B92" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>S0090</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>S0090</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="6"/>
+      <c r="B93" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>P0091</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E93" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>P0091</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="6"/>
+      <c r="B94" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>S0092</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>S0092</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="6"/>
+      <c r="B95" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>S0093</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E95" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>S0093</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/MathWordProblemsConsoleApp/App_Data/MathWordProblems.xlsx
+++ b/Tools/MathWordProblemsConsoleApp/App_Data/MathWordProblems.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE25198D-438E-49D0-8EB0-1E723B15F3F4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Problems" sheetId="3" r:id="rId1"/>
@@ -13,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Problems!$B$2:$AA$109</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -214,19 +213,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -235,7 +234,7 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -244,7 +243,7 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -253,7 +252,7 @@
       <b/>
       <sz val="9"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -261,7 +260,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -269,7 +268,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -277,7 +276,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -439,7 +438,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -455,7 +454,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -497,7 +496,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -529,27 +528,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -581,24 +562,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -774,36 +737,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AA122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="2" topLeftCell="N84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q2" sqref="Q2"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:B109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="3.26953125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="7.08984375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="51.08984375" style="15" customWidth="1"/>
-    <col min="4" max="6" width="8.7265625" style="15"/>
+    <col min="1" max="1" width="3.25" style="15" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="51.125" style="15" customWidth="1"/>
+    <col min="4" max="6" width="8.75" style="15"/>
     <col min="7" max="8" width="0" style="15" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="9" max="13" width="9" style="15" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="6.26953125" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="6.26953125" style="16" customWidth="1"/>
-    <col min="16" max="16" width="9.08984375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="9.08984375" style="15" customWidth="1"/>
-    <col min="18" max="20" width="9.08984375" style="15" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="6.26953125" style="15" customWidth="1" collapsed="1"/>
-    <col min="22" max="26" width="6.26953125" style="15" customWidth="1"/>
-    <col min="27" max="27" width="6.6328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.7265625" style="15"/>
+    <col min="14" max="14" width="6.25" style="16" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="6.25" style="16" customWidth="1"/>
+    <col min="16" max="16" width="9.125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="9.125" style="15" customWidth="1"/>
+    <col min="18" max="20" width="9.125" style="15" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="6.25" style="15" customWidth="1" collapsed="1"/>
+    <col min="22" max="26" width="6.25" style="15" customWidth="1"/>
+    <col min="27" max="27" width="6.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.75" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:27">
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
@@ -883,22 +846,22 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:27">
       <c r="B3" s="7" t="str">
-        <f>IF(N3 = "", "", N3 &amp; REPT(0,4-LEN(ROW()-2)) &amp; ROW()-2)</f>
-        <v>10001</v>
+        <f>IF(N3 = "", "", REPT(0,4-LEN(ROW()-2)) &amp; ROW()-2)</f>
+        <v>0001</v>
       </c>
       <c r="C3" s="1" t="str">
         <f ca="1">"小华要给"&amp;D3&amp;"棵小树苗浇水，已经浇了"&amp;E3&amp;"棵。还有多少棵没浇？"</f>
-        <v>小华要给16棵小树苗浇水，已经浇了2棵。还有多少棵没浇？</v>
+        <v>小华要给10棵小树苗浇水，已经浇了8棵。还有多少棵没浇？</v>
       </c>
       <c r="D3" s="2">
         <f ca="1">RANDBETWEEN(U3,V3)</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2">
         <f ca="1">RANDBETWEEN(W3,X3)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -916,7 +879,7 @@
       </c>
       <c r="P3" s="3">
         <f ca="1">D3-E3</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
@@ -940,22 +903,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:27">
       <c r="B4" s="7" t="str">
-        <f t="shared" ref="B4:B67" si="0">IF(N4 = "", "", N4 &amp; REPT(0,4-LEN(ROW()-2)) &amp; ROW()-2)</f>
-        <v>10002</v>
+        <f t="shared" ref="B4:B67" si="0">IF(N4 = "", "", REPT(0,4-LEN(ROW()-2)) &amp; ROW()-2)</f>
+        <v>0002</v>
       </c>
       <c r="C4" s="1" t="str">
         <f ca="1">"白兔和黑兔共有"&amp;D4&amp;"只，黑兔有"&amp;E4&amp;"只，白兔有几只？"</f>
-        <v>白兔和黑兔共有18只，黑兔有4只，白兔有几只？</v>
+        <v>白兔和黑兔共有15只，黑兔有1只，白兔有几只？</v>
       </c>
       <c r="D4" s="2">
         <f ca="1">RANDBETWEEN(U4,V4)</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2">
         <f ca="1">RANDBETWEEN(W4,X4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -997,22 +960,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:27">
       <c r="B5" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10003</v>
+        <v>0003</v>
       </c>
       <c r="C5" s="1" t="str">
         <f ca="1">"白兔和黑兔共有"&amp;D5&amp;"只，白兔有"&amp;E5&amp;"只，黑兔有多少只？"</f>
-        <v>白兔和黑兔共有15只，白兔有4只，黑兔有多少只？</v>
+        <v>白兔和黑兔共有19只，白兔有5只，黑兔有多少只？</v>
       </c>
       <c r="D5" s="2">
         <f ca="1">RANDBETWEEN(U5,V5)</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" ref="E5:E21" ca="1" si="2">RANDBETWEEN(W5,X5)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1030,7 +993,7 @@
       </c>
       <c r="P5" s="3">
         <f ca="1">D5-E5</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
@@ -1054,14 +1017,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:27">
       <c r="B6" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10004</v>
+        <v>0004</v>
       </c>
       <c r="C6" s="1" t="str">
         <f ca="1">"桃树和梨树一共有"&amp;D6&amp;"棵。桃树有"&amp;E6&amp;"棵，梨树的多少棵？"</f>
-        <v>桃树和梨树一共有20棵。桃树有2棵，梨树的多少棵？</v>
+        <v>桃树和梨树一共有20棵。桃树有4棵，梨树的多少棵？</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" ref="D6:D21" ca="1" si="3">RANDBETWEEN(U6,V6)</f>
@@ -1069,7 +1032,7 @@
       </c>
       <c r="E6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1087,7 +1050,7 @@
       </c>
       <c r="P6" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
@@ -1111,18 +1074,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:27">
       <c r="B7" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10005</v>
+        <v>0005</v>
       </c>
       <c r="C7" s="1" t="str">
         <f ca="1">"桃树和梨树一共有"&amp;D7&amp;"棵。梨树有"&amp;E7&amp;"棵，桃树有多少棵？"</f>
-        <v>桃树和梨树一共有15棵。梨树有4棵，桃树有多少棵？</v>
+        <v>桃树和梨树一共有16棵。梨树有4棵，桃树有多少棵？</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1144,7 +1107,7 @@
       </c>
       <c r="P7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
@@ -1168,22 +1131,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:27">
       <c r="B8" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10006</v>
+        <v>0006</v>
       </c>
       <c r="C8" s="1" t="str">
         <f ca="1">"学校体育室里有"&amp;D8&amp;"个足球，借走"&amp;E8&amp;"个，还有多少个？"</f>
-        <v>学校体育室里有10个足球，借走7个，还有多少个？</v>
+        <v>学校体育室里有12个足球，借走9个，还有多少个？</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1225,22 +1188,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:27">
       <c r="B9" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10007</v>
+        <v>0007</v>
       </c>
       <c r="C9" s="1" t="str">
         <f ca="1">"一共采了"&amp;D9&amp;"筐番茄，运走"&amp;E9&amp;"筐还有多少筐没运走？"</f>
-        <v>一共采了13筐番茄，运走5筐还有多少筐没运走？</v>
+        <v>一共采了10筐番茄，运走6筐还有多少筐没运走？</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1258,7 +1221,7 @@
       </c>
       <c r="P9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -1282,22 +1245,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:27">
       <c r="B10" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10008</v>
+        <v>0008</v>
       </c>
       <c r="C10" s="1" t="str">
         <f ca="1">"一共买了"&amp;D10&amp;"个苹果已经吃掉了"&amp;E10&amp;"个，还剩多少个没吃？"</f>
-        <v>一共买了12个苹果已经吃掉了6个，还剩多少个没吃？</v>
+        <v>一共买了10个苹果已经吃掉了7个，还剩多少个没吃？</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1315,7 +1278,7 @@
       </c>
       <c r="P10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
@@ -1339,22 +1302,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:27">
       <c r="B11" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10009</v>
+        <v>0009</v>
       </c>
       <c r="C11" s="1" t="str">
         <f ca="1">"我要写"&amp;D11&amp;"个字，已经写了"&amp;E11&amp;"个，还要写多少个？"</f>
-        <v>我要写15个字，已经写了4个，还要写多少个？</v>
+        <v>我要写18个字，已经写了1个，还要写多少个？</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1372,7 +1335,7 @@
       </c>
       <c r="P11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
@@ -1396,22 +1359,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:27">
       <c r="B12" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10010</v>
+        <v>0010</v>
       </c>
       <c r="C12" s="1" t="str">
         <f ca="1">"小花有"&amp;D12&amp;"本故事书，小兰有"&amp;E12&amp;"本故事书，小花比小兰多多少本？"</f>
-        <v>小花有11本故事书，小兰有7本故事书，小花比小兰多多少本？</v>
+        <v>小花有10本故事书，小兰有3本故事书，小花比小兰多多少本？</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1429,7 +1392,7 @@
       </c>
       <c r="P12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -1453,14 +1416,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:27">
       <c r="B13" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10011</v>
+        <v>0011</v>
       </c>
       <c r="C13" s="1" t="str">
         <f ca="1">"树上原来有"&amp;D13&amp;"个苹果，摘了一些后还剩"&amp;E13&amp;"个，摘了多少个苹果？"</f>
-        <v>树上原来有18个苹果，摘了一些后还剩4个，摘了多少个苹果？</v>
+        <v>树上原来有18个苹果，摘了一些后还剩7个，摘了多少个苹果？</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -1468,7 +1431,7 @@
       </c>
       <c r="E13" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1486,7 +1449,7 @@
       </c>
       <c r="P13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -1510,22 +1473,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:27">
       <c r="B14" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10012</v>
+        <v>0012</v>
       </c>
       <c r="C14" s="1" t="str">
         <f ca="1">"这本书一共有"&amp;D14&amp;"页，我已经看了"&amp;E14&amp;"页，还剩多少没有看？ "</f>
-        <v xml:space="preserve">这本书一共有12页，我已经看了8页，还剩多少没有看？ </v>
+        <v xml:space="preserve">这本书一共有16页，我已经看了7页，还剩多少没有看？ </v>
       </c>
       <c r="D14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1543,7 +1506,7 @@
       </c>
       <c r="P14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
@@ -1567,22 +1530,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:27">
       <c r="B15" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10013</v>
+        <v>0013</v>
       </c>
       <c r="C15" s="1" t="str">
         <f ca="1">"湖边原来有"&amp;D15&amp;"只小船，划走了一些，还剩"&amp;E15&amp;"只，划走了多少只？"</f>
-        <v>湖边原来有14只小船，划走了一些，还剩3只，划走了多少只？</v>
+        <v>湖边原来有19只小船，划走了一些，还剩2只，划走了多少只？</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1600,7 +1563,7 @@
       </c>
       <c r="P15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
@@ -1624,14 +1587,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:27">
       <c r="B16" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10014</v>
+        <v>0014</v>
       </c>
       <c r="C16" s="1" t="str">
         <f ca="1">"红气球有"&amp;D16&amp;"个，黄气球有"&amp;E16&amp;"个，蓝气球有7个。黄气球比红气球少几个？"</f>
-        <v>红气球有20个，黄气球有6个，蓝气球有7个。黄气球比红气球少几个？</v>
+        <v>红气球有20个，黄气球有1个，蓝气球有7个。黄气球比红气球少几个？</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -1639,7 +1602,7 @@
       </c>
       <c r="E16" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1657,7 +1620,7 @@
       </c>
       <c r="P16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
@@ -1681,22 +1644,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:27">
       <c r="B17" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10015</v>
+        <v>0015</v>
       </c>
       <c r="C17" s="1" t="str">
         <f ca="1">"红气球有"&amp;D17&amp;"个，黄气球有8个，蓝气球有"&amp;E17&amp;"个。红气球比蓝气球多几个？"</f>
-        <v>红气球有15个，黄气球有8个，蓝气球有8个。红气球比蓝气球多几个？</v>
+        <v>红气球有12个，黄气球有8个，蓝气球有3个。红气球比蓝气球多几个？</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1714,7 +1677,7 @@
       </c>
       <c r="P17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
@@ -1738,22 +1701,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:27">
       <c r="B18" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10016</v>
+        <v>0016</v>
       </c>
       <c r="C18" s="1" t="str">
         <f ca="1">"小红今年"&amp;E18&amp;"岁，小明今年"&amp;D18&amp;"岁，小红比小明小多少岁？"</f>
-        <v>小红今年8岁，小明今年10岁，小红比小明小多少岁？</v>
+        <v>小红今年5岁，小明今年20岁，小红比小明小多少岁？</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1771,7 +1734,7 @@
       </c>
       <c r="P18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
@@ -1795,18 +1758,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:27">
       <c r="B19" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>00017</v>
+        <v>0017</v>
       </c>
       <c r="C19" s="1" t="str">
         <f ca="1">"小军拍了"&amp;D4&amp;"下球，小丽拍的数和他同样多。他们一共拍了多少下？"</f>
-        <v>小军拍了18下球，小丽拍的数和他同样多。他们一共拍了多少下？</v>
+        <v>小军拍了15下球，小丽拍的数和他同样多。他们一共拍了多少下？</v>
       </c>
       <c r="D19" s="2">
         <f ca="1">RANDBETWEEN(U19,V19)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1825,7 +1788,7 @@
       </c>
       <c r="P19" s="3">
         <f ca="1">D19+D19</f>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -1845,22 +1808,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:27">
       <c r="B20" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10018</v>
+        <v>0018</v>
       </c>
       <c r="C20" s="1" t="str">
         <f ca="1">"学校有"&amp;D20&amp;"扫帚，被一（2）班借走了"&amp;E20&amp;"把，还剩多少把？"</f>
-        <v>学校有11扫帚，被一（2）班借走了7把，还剩多少把？</v>
+        <v>学校有20扫帚，被一（2）班借走了1把，还剩多少把？</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1878,7 +1841,7 @@
       </c>
       <c r="P20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
@@ -1902,22 +1865,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:27">
       <c r="B21" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10019</v>
+        <v>0019</v>
       </c>
       <c r="C21" s="1" t="str">
         <f ca="1">"妈妈养了"&amp;D21&amp;"只鸡，卖掉"&amp;E21&amp;"只后，还剩多少只？"</f>
-        <v>妈妈养了19只鸡，卖掉9只后，还剩多少只？</v>
+        <v>妈妈养了10只鸡，卖掉8只后，还剩多少只？</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1935,7 +1898,7 @@
       </c>
       <c r="P21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
@@ -1959,18 +1922,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:27">
       <c r="B22" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>00020</v>
+        <v>0020</v>
       </c>
       <c r="C22" s="1" t="str">
         <f ca="1">"学校数学兴趣组有"&amp;D22&amp;"人，美术兴趣组人数与数学兴趣组同样多。这两个兴趣组一共有多少人？ "</f>
-        <v xml:space="preserve">学校数学兴趣组有7人，美术兴趣组人数与数学兴趣组同样多。这两个兴趣组一共有多少人？ </v>
+        <v xml:space="preserve">学校数学兴趣组有6人，美术兴趣组人数与数学兴趣组同样多。这两个兴趣组一共有多少人？ </v>
       </c>
       <c r="D22" s="2">
         <f ca="1">RANDBETWEEN(U22,V22)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -1989,7 +1952,7 @@
       </c>
       <c r="P22" s="3">
         <f ca="1">D22+D22</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
@@ -2009,18 +1972,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:27">
       <c r="B23" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10021</v>
+        <v>0021</v>
       </c>
       <c r="C23" s="1" t="str">
         <f ca="1">"今天有"&amp;D23&amp;"人来开会，椅子才搬来"&amp;E23&amp;"把。还缺多少把椅子？"</f>
-        <v>今天有14人来开会，椅子才搬来2把。还缺多少把椅子？</v>
+        <v>今天有16人来开会，椅子才搬来2把。还缺多少把椅子？</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" ref="D23:D86" ca="1" si="4">RANDBETWEEN(U23,V23)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" ref="E23:E86" ca="1" si="5">RANDBETWEEN(W23,X23)</f>
@@ -2042,7 +2005,7 @@
       </c>
       <c r="P23" s="3">
         <f t="shared" ref="P23:P85" ca="1" si="6">D23-E23</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
@@ -2066,22 +2029,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:27">
       <c r="B24" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10022</v>
+        <v>0022</v>
       </c>
       <c r="C24" s="1" t="str">
         <f ca="1">"买的苹果和梨一共有"&amp;D24&amp;"个，苹果有"&amp;E24&amp;"个。买了多少个梨？"</f>
-        <v>买的苹果和梨一共有13个，苹果有4个。买了多少个梨？</v>
+        <v>买的苹果和梨一共有20个，苹果有8个。买了多少个梨？</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2099,7 +2062,7 @@
       </c>
       <c r="P24" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
@@ -2123,18 +2086,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:27">
       <c r="B25" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10023</v>
+        <v>0023</v>
       </c>
       <c r="C25" s="1" t="str">
         <f ca="1">"白兔有"&amp;D25&amp;"只，灰兔有"&amp;E25&amp;"只，再买几只灰兔就和白兔同样多了?"</f>
-        <v>白兔有17只，灰兔有9只，再买几只灰兔就和白兔同样多了?</v>
+        <v>白兔有14只，灰兔有9只，再买几只灰兔就和白兔同样多了?</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -2156,7 +2119,7 @@
       </c>
       <c r="P25" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
@@ -2180,18 +2143,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:27">
       <c r="B26" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10024</v>
+        <v>0024</v>
       </c>
       <c r="C26" s="1" t="str">
         <f ca="1">"小弟弟上午吃了"&amp;D26&amp;"个草莓，下午吃了"&amp;E26&amp;"个草莓，他一共吃了多少个草莓？"</f>
-        <v>小弟弟上午吃了11个草莓，下午吃了5个草莓，他一共吃了多少个草莓？</v>
+        <v>小弟弟上午吃了13个草莓，下午吃了5个草莓，他一共吃了多少个草莓？</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -2213,7 +2176,7 @@
       </c>
       <c r="P26" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
@@ -2237,14 +2200,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:27">
       <c r="B27" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>00025</v>
+        <v>0025</v>
       </c>
       <c r="C27" s="1" t="str">
         <f ca="1">"小明有蝴蝶标本"&amp;D27&amp;"只蜻蜓标本"&amp;E27&amp;"只。小明一共有多少只标本？"</f>
-        <v>小明有蝴蝶标本7只蜻蜓标本8只。小明一共有多少只标本？</v>
+        <v>小明有蝴蝶标本7只蜻蜓标本5只。小明一共有多少只标本？</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -2252,7 +2215,7 @@
       </c>
       <c r="E27" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -2270,11 +2233,11 @@
       </c>
       <c r="P27" s="3">
         <f ca="1">D27+E27</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q27" s="3">
         <f ca="1">E27+D27</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
@@ -2297,22 +2260,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:27">
       <c r="B28" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10026</v>
+        <v>0026</v>
       </c>
       <c r="C28" s="1" t="str">
         <f ca="1">"小明有蝴蝶标本"&amp;D28&amp;"只蜻蜓标本"&amp;E28&amp;"只。再采集多少个蝴蝶标本就和蜻蜓标本一样多了？"</f>
-        <v>小明有蝴蝶标本13只蜻蜓标本8只。再采集多少个蝴蝶标本就和蜻蜓标本一样多了？</v>
+        <v>小明有蝴蝶标本19只蜻蜓标本4只。再采集多少个蝴蝶标本就和蜻蜓标本一样多了？</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -2330,7 +2293,7 @@
       </c>
       <c r="P28" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
@@ -2354,22 +2317,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:27">
       <c r="B29" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10027</v>
+        <v>0027</v>
       </c>
       <c r="C29" s="1" t="str">
         <f ca="1">"一辆"&amp;D29&amp;"座的客车，车内还有"&amp;E29&amp;"个座位空着，车上共坐了多少人？"</f>
-        <v>一辆12座的客车，车内还有8个座位空着，车上共坐了多少人？</v>
+        <v>一辆14座的客车，车内还有3个座位空着，车上共坐了多少人？</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -2387,7 +2350,7 @@
       </c>
       <c r="P29" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
@@ -2411,22 +2374,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:27">
       <c r="B30" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>00028</v>
+        <v>0028</v>
       </c>
       <c r="C30" s="1" t="str">
         <f ca="1">"一辆公共汽车，到和平路下车"&amp;D30&amp;"人，车上还剩"&amp;E30&amp;"人，公共汽车中原有多少人?"</f>
-        <v>一辆公共汽车，到和平路下车5人，车上还剩9人，公共汽车中原有多少人?</v>
+        <v>一辆公共汽车，到和平路下车8人，车上还剩7人，公共汽车中原有多少人?</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -2444,11 +2407,11 @@
       </c>
       <c r="P30" s="3">
         <f ca="1">D30+E30</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q30" s="3">
         <f ca="1">E30+D30</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
@@ -2471,22 +2434,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:27">
       <c r="B31" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10029</v>
+        <v>0029</v>
       </c>
       <c r="C31" s="1" t="str">
         <f ca="1">"妈妈买上衣和裤子共用去"&amp;D31&amp;"元，买上衣用去"&amp;E31&amp;"元，买裤子用去多少元? "</f>
-        <v xml:space="preserve">妈妈买上衣和裤子共用去16元，买上衣用去6元，买裤子用去多少元? </v>
+        <v xml:space="preserve">妈妈买上衣和裤子共用去12元，买上衣用去5元，买裤子用去多少元? </v>
       </c>
       <c r="D31" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -2504,7 +2467,7 @@
       </c>
       <c r="P31" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
@@ -2528,22 +2491,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:27">
       <c r="B32" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>00030</v>
+        <v>0030</v>
       </c>
       <c r="C32" s="1" t="str">
         <f ca="1">"林林已经写好"&amp;D32&amp;"个生字，还有"&amp;E32&amp;"个生字没写，他一共要写多少个生字? "</f>
-        <v xml:space="preserve">林林已经写好9个生字，还有7个生字没写，他一共要写多少个生字? </v>
+        <v xml:space="preserve">林林已经写好7个生字，还有6个生字没写，他一共要写多少个生字? </v>
       </c>
       <c r="D32" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -2561,11 +2524,11 @@
       </c>
       <c r="P32" s="3">
         <f ca="1">D32+E32</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q32" s="3">
         <f ca="1">E32+D32</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
@@ -2588,22 +2551,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:27">
       <c r="B33" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10031</v>
+        <v>0031</v>
       </c>
       <c r="C33" s="1" t="str">
         <f ca="1">"少先队员学雷锋，一班和二班共做好事"&amp;D33&amp;"件，其中一班"&amp;E33&amp;"件，二班做多少件?"</f>
-        <v>少先队员学雷锋，一班和二班共做好事17件，其中一班8件，二班做多少件?</v>
+        <v>少先队员学雷锋，一班和二班共做好事13件，其中一班3件，二班做多少件?</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -2621,7 +2584,7 @@
       </c>
       <c r="P33" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
@@ -2645,22 +2608,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:27">
       <c r="B34" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10032</v>
+        <v>0032</v>
       </c>
       <c r="C34" s="1" t="str">
         <f ca="1">D34&amp;"和"&amp;E34&amp;"相差多少?"</f>
-        <v>11和3相差多少?</v>
+        <v>16和5相差多少?</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -2676,7 +2639,7 @@
       <c r="O34" s="6"/>
       <c r="P34" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
@@ -2700,22 +2663,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:27">
       <c r="B35" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>00033</v>
+        <v>0033</v>
       </c>
       <c r="C35" s="1" t="str">
         <f ca="1">"比"&amp;D35&amp;"多"&amp;E35&amp;"的数是多少?"</f>
-        <v>比5多6的数是多少?</v>
+        <v>比6多5的数是多少?</v>
       </c>
       <c r="D35" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -2758,22 +2721,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:27">
       <c r="B36" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10034</v>
+        <v>0034</v>
       </c>
       <c r="C36" s="1" t="str">
         <f ca="1">"比"&amp;D36&amp;"少"&amp;E36&amp;"的数是多少?"</f>
-        <v>比17少7的数是多少?</v>
+        <v>比14少5的数是多少?</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -2789,7 +2752,7 @@
       <c r="O36" s="6"/>
       <c r="P36" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
@@ -2813,18 +2776,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:27">
       <c r="B37" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>00035</v>
+        <v>0035</v>
       </c>
       <c r="C37" s="1" t="str">
         <f ca="1">"两个加数都是"&amp;D37&amp;"，和是多少? "</f>
-        <v xml:space="preserve">两个加数都是8，和是多少? </v>
+        <v xml:space="preserve">两个加数都是9，和是多少? </v>
       </c>
       <c r="D37" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -2841,7 +2804,7 @@
       <c r="O37" s="6"/>
       <c r="P37" s="3">
         <f ca="1">D37+D37</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
@@ -2861,22 +2824,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:27">
       <c r="B38" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>00036</v>
+        <v>0036</v>
       </c>
       <c r="C38" s="1" t="str">
         <f ca="1">"一个加数是"&amp;D38&amp;"， 另一个加数是"&amp;E38&amp;"， 和是多少?"</f>
-        <v>一个加数是8， 另一个加数是6， 和是多少?</v>
+        <v>一个加数是9， 另一个加数是7， 和是多少?</v>
       </c>
       <c r="D38" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -2892,11 +2855,11 @@
       <c r="O38" s="6"/>
       <c r="P38" s="3">
         <f ca="1">D38+E38</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q38" s="3">
         <f ca="1">E38+D38</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
@@ -2919,22 +2882,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:27">
       <c r="B39" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10037</v>
+        <v>0037</v>
       </c>
       <c r="C39" s="1" t="str">
         <f ca="1">"从"&amp;D39&amp;"里减去"&amp;E39&amp;"， 差是多少?"</f>
-        <v>从17里减去5， 差是多少?</v>
+        <v>从16里减去4， 差是多少?</v>
       </c>
       <c r="D39" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -2974,10 +2937,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:27">
       <c r="B40" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10038</v>
+        <v>0038</v>
       </c>
       <c r="C40" s="1" t="str">
         <f ca="1">"小兰今年"&amp;E40&amp;"岁，小芳今年"&amp;D40&amp;"岁，小芳和小兰相差多少岁? "</f>
@@ -3031,22 +2994,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:27">
       <c r="B41" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>00039</v>
+        <v>0039</v>
       </c>
       <c r="C41" s="1" t="str">
         <f ca="1">"工人叔叔修路，第二天比第一天多修"&amp;E41&amp;"米，第一天修"&amp;D41&amp;"米，第二天修路多少米?"</f>
-        <v>工人叔叔修路，第二天比第一天多修7米，第一天修7米，第二天修路多少米?</v>
+        <v>工人叔叔修路，第二天比第一天多修8米，第一天修6米，第二天修路多少米?</v>
       </c>
       <c r="D41" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -3091,14 +3054,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:27">
       <c r="B42" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10040</v>
+        <v>0040</v>
       </c>
       <c r="C42" s="1" t="str">
         <f ca="1">"一双球鞋"&amp;D42&amp;"元，一双布鞋比一双球鞋便宜"&amp;E42&amp;"元，一双布鞋多少元?"</f>
-        <v>一双球鞋18元，一双布鞋比一双球鞋便宜9元，一双布鞋多少元?</v>
+        <v>一双球鞋18元，一双布鞋比一双球鞋便宜7元，一双布鞋多少元?</v>
       </c>
       <c r="D42" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3106,7 +3069,7 @@
       </c>
       <c r="E42" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -3124,7 +3087,7 @@
       </c>
       <c r="P42" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
@@ -3148,22 +3111,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:27">
       <c r="B43" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>00041</v>
+        <v>0041</v>
       </c>
       <c r="C43" s="1" t="str">
         <f ca="1">"木工组修理一批桌子，已经修好了"&amp;D43&amp;"张，还有"&amp;E43&amp;"张没修，这批桌子有多少张? "</f>
-        <v xml:space="preserve">木工组修理一批桌子，已经修好了5张，还有7张没修，这批桌子有多少张? </v>
+        <v xml:space="preserve">木工组修理一批桌子，已经修好了7张，还有8张没修，这批桌子有多少张? </v>
       </c>
       <c r="D43" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E43" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -3181,11 +3144,11 @@
       </c>
       <c r="P43" s="3">
         <f ca="1">D43+E43</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q43" s="3">
         <f ca="1">E43+D43</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
@@ -3208,22 +3171,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:27">
       <c r="B44" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10042</v>
+        <v>0042</v>
       </c>
       <c r="C44" s="1" t="str">
         <f ca="1">"小熊猫现在身高"&amp;D44&amp;"厘米，比去年长高了"&amp;E44&amp;"厘米，去年身高多少厘米?"</f>
-        <v>小熊猫现在身高14厘米，比去年长高了8厘米，去年身高多少厘米?</v>
+        <v>小熊猫现在身高19厘米，比去年长高了4厘米，去年身高多少厘米?</v>
       </c>
       <c r="D44" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -3241,7 +3204,7 @@
       </c>
       <c r="P44" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
@@ -3265,22 +3228,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:27">
       <c r="B45" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10043</v>
+        <v>0043</v>
       </c>
       <c r="C45" s="1" t="str">
         <f ca="1">"一年级(6)班图书角原来有图书"&amp;D45&amp;"本，同学们捐献了故事书"&amp;E45&amp;"本。现在图书角共有图书多少本？"</f>
-        <v>一年级(6)班图书角原来有图书13本，同学们捐献了故事书8本。现在图书角共有图书多少本？</v>
+        <v>一年级(6)班图书角原来有图书15本，同学们捐献了故事书5本。现在图书角共有图书多少本？</v>
       </c>
       <c r="D45" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E45" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -3298,7 +3261,7 @@
       </c>
       <c r="P45" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
@@ -3322,22 +3285,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:27">
       <c r="B46" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>00044</v>
+        <v>0044</v>
       </c>
       <c r="C46" s="1" t="str">
         <f ca="1">"上衣："&amp;F46&amp;"元 裤子："&amp;D46&amp;"元 鞋："&amp;E46&amp;"元   买一条裤子和一双鞋共多少钱？"</f>
-        <v>上衣：8元 裤子：9元 鞋：7元   买一条裤子和一双鞋共多少钱？</v>
+        <v>上衣：8元 裤子：8元 鞋：9元   买一条裤子和一双鞋共多少钱？</v>
       </c>
       <c r="D46" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E46" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F46" s="2">
         <f ca="1">RANDBETWEEN(W46,X46)</f>
@@ -3358,11 +3321,11 @@
       </c>
       <c r="P46" s="3">
         <f ca="1">D46+E46</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q46" s="3">
         <f ca="1">E46+D46</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
@@ -3385,26 +3348,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:27">
       <c r="B47" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>00045</v>
+        <v>0045</v>
       </c>
       <c r="C47" s="1" t="str">
         <f ca="1">"上衣："&amp;D47&amp;"元 裤子："&amp;E47&amp;"元 鞋："&amp;F47&amp;"元   买一条裤子和一件上衣共多少钱？"</f>
-        <v>上衣：8元 裤子：5元 鞋：6元   买一条裤子和一件上衣共多少钱？</v>
+        <v>上衣：9元 裤子：7元 鞋：8元   买一条裤子和一件上衣共多少钱？</v>
       </c>
       <c r="D47" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E47" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F47" s="2">
         <f ca="1">RANDBETWEEN(W47,X47)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -3421,11 +3384,11 @@
       </c>
       <c r="P47" s="3">
         <f ca="1">D47+E47</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Q47" s="3">
         <f ca="1">E47+D47</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
@@ -3448,22 +3411,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:27">
       <c r="B48" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>00046</v>
+        <v>0046</v>
       </c>
       <c r="C48" s="1" t="str">
         <f ca="1">"排练舞蹈，需要女生"&amp;D48&amp;"人，男生"&amp;E48&amp;"人。一共需要学生多少人?"</f>
-        <v>排练舞蹈，需要女生9人，男生9人。一共需要学生多少人?</v>
+        <v>排练舞蹈，需要女生8人，男生5人。一共需要学生多少人?</v>
       </c>
       <c r="D48" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E48" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -3481,11 +3444,11 @@
       </c>
       <c r="P48" s="3">
         <f ca="1">D48+E48</f>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Q48" s="3">
         <f ca="1">E48+D48</f>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
@@ -3508,22 +3471,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:27">
       <c r="B49" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>00047</v>
+        <v>0047</v>
       </c>
       <c r="C49" s="1" t="str">
         <f ca="1">"活动课上打乒乓球的有"&amp;D49&amp;"人，做操的有"&amp;E49&amp;"人。打乒乓球和做操的同学共有多少人? "</f>
-        <v xml:space="preserve">活动课上打乒乓球的有7人，做操的有7人。打乒乓球和做操的同学共有多少人? </v>
+        <v xml:space="preserve">活动课上打乒乓球的有5人，做操的有5人。打乒乓球和做操的同学共有多少人? </v>
       </c>
       <c r="D49" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E49" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -3541,11 +3504,11 @@
       </c>
       <c r="P49" s="3">
         <f ca="1">D49+E49</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="Q49" s="3">
         <f ca="1">E49+D49</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
@@ -3568,22 +3531,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:27">
       <c r="B50" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>00048</v>
+        <v>0048</v>
       </c>
       <c r="C50" s="1" t="str">
         <f ca="1">"活动课上有"&amp;D50&amp;"名同学参加体育活动，"&amp;E50&amp;"名同学参加文艺活动。参加这两种活动的共有多少人?"</f>
-        <v>活动课上有5名同学参加体育活动，6名同学参加文艺活动。参加这两种活动的共有多少人?</v>
+        <v>活动课上有7名同学参加体育活动，5名同学参加文艺活动。参加这两种活动的共有多少人?</v>
       </c>
       <c r="D50" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E50" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -3601,11 +3564,11 @@
       </c>
       <c r="P50" s="3">
         <f ca="1">D50+E50</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q50" s="3">
         <f ca="1">E50+D50</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
@@ -3628,22 +3591,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:27">
       <c r="B51" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10049</v>
+        <v>0049</v>
       </c>
       <c r="C51" s="1" t="str">
         <f ca="1">"我们班有"&amp;D51&amp;"人，男生有"&amp;E51&amp;"人，女生有多少人?"</f>
-        <v>我们班有10人，男生有7人，女生有多少人?</v>
+        <v>我们班有14人，男生有6人，女生有多少人?</v>
       </c>
       <c r="D51" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E51" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -3661,7 +3624,7 @@
       </c>
       <c r="P51" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
@@ -3685,22 +3648,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:27">
       <c r="B52" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10050</v>
+        <v>0050</v>
       </c>
       <c r="C52" s="1" t="str">
         <f ca="1">"一本书有"&amp;D52&amp;"页，小华已经看了"&amp;E52&amp;"页。还剩多少页没有看?"</f>
-        <v>一本书有17页，小华已经看了9页。还剩多少页没有看?</v>
+        <v>一本书有13页，小华已经看了3页。还剩多少页没有看?</v>
       </c>
       <c r="D52" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E52" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -3718,7 +3681,7 @@
       </c>
       <c r="P52" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
@@ -3742,22 +3705,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:27">
       <c r="B53" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10051</v>
+        <v>0051</v>
       </c>
       <c r="C53" s="1" t="str">
         <f ca="1">"一本书有"&amp;D53&amp;"页，小华看了一些后还剩"&amp;E53&amp;"页没看。小华看了多少页?"</f>
-        <v>一本书有19页，小华看了一些后还剩7页没看。小华看了多少页?</v>
+        <v>一本书有11页，小华看了一些后还剩6页没看。小华看了多少页?</v>
       </c>
       <c r="D53" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E53" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -3775,7 +3738,7 @@
       </c>
       <c r="P53" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
@@ -3799,18 +3762,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:27">
       <c r="B54" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10052</v>
+        <v>0052</v>
       </c>
       <c r="C54" s="1" t="str">
         <f ca="1">"图书室有连环画"&amp;D54&amp;"本，已经借出"&amp;E54&amp;"本。还剩多少本?"</f>
-        <v>图书室有连环画20本，已经借出2本。还剩多少本?</v>
+        <v>图书室有连环画19本，已经借出2本。还剩多少本?</v>
       </c>
       <c r="D54" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E54" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -3832,7 +3795,7 @@
       </c>
       <c r="P54" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
@@ -3856,14 +3819,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:27">
       <c r="B55" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10053</v>
+        <v>0053</v>
       </c>
       <c r="C55" s="1" t="str">
         <f ca="1">"书包："&amp;D55&amp;"元 水彩笔："&amp;E55&amp;"元 墨水："&amp;F55&amp;"元 　　书包比水彩笔贵多少钱?"</f>
-        <v>书包：16元 水彩笔：9元 墨水：2元 　　书包比水彩笔贵多少钱?</v>
+        <v>书包：16元 水彩笔：9元 墨水：7元 　　书包比水彩笔贵多少钱?</v>
       </c>
       <c r="D55" s="2">
         <f t="shared" ref="D55" ca="1" si="7">RANDBETWEEN(U55,V55)</f>
@@ -3875,7 +3838,7 @@
       </c>
       <c r="F55" s="2">
         <f ca="1">RANDBETWEEN(W55,X55)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -3916,26 +3879,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:27">
       <c r="B56" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10054</v>
+        <v>0054</v>
       </c>
       <c r="C56" s="1" t="str">
         <f ca="1">"书包："&amp;F56&amp;"元 水彩笔："&amp;D56&amp;"元 墨水："&amp;E56&amp;"元 　　墨水比水彩笔便宜多少钱?"</f>
-        <v>书包：3元 水彩笔：20元 墨水：7元 　　墨水比水彩笔便宜多少钱?</v>
+        <v>书包：2元 水彩笔：11元 墨水：4元 　　墨水比水彩笔便宜多少钱?</v>
       </c>
       <c r="D56" s="2">
         <f t="shared" ref="D56" ca="1" si="9">RANDBETWEEN(U56,V56)</f>
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E56" s="2">
         <f t="shared" ref="E56" ca="1" si="10">RANDBETWEEN(W56,X56)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F56" s="2">
         <f ca="1">RANDBETWEEN(W56,X56)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -3952,7 +3915,7 @@
       </c>
       <c r="P56" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
@@ -3976,18 +3939,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:27">
       <c r="B57" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10055</v>
+        <v>0055</v>
       </c>
       <c r="C57" s="1" t="str">
         <f ca="1">"兔妈妈：我收了"&amp;D57&amp;"根萝卜。兔宝宝：我收了"&amp;E57&amp;"根萝卜。 兔妈妈比兔宝宝多收了几根萝卜?"</f>
-        <v>兔妈妈：我收了12根萝卜。兔宝宝：我收了1根萝卜。 兔妈妈比兔宝宝多收了几根萝卜?</v>
+        <v>兔妈妈：我收了16根萝卜。兔宝宝：我收了1根萝卜。 兔妈妈比兔宝宝多收了几根萝卜?</v>
       </c>
       <c r="D57" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E57" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -4009,7 +3972,7 @@
       </c>
       <c r="P57" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
@@ -4033,22 +3996,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:27">
       <c r="B58" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10056</v>
+        <v>0056</v>
       </c>
       <c r="C58" s="1" t="str">
         <f ca="1">"兔妈妈：我收了"&amp;D58&amp;"根萝卜。兔宝宝：我收了"&amp;E58&amp;"根萝卜。 兔宝宝比兔妈妈少收了几根萝卜?"</f>
-        <v>兔妈妈：我收了17根萝卜。兔宝宝：我收了4根萝卜。 兔宝宝比兔妈妈少收了几根萝卜?</v>
+        <v>兔妈妈：我收了10根萝卜。兔宝宝：我收了5根萝卜。 兔宝宝比兔妈妈少收了几根萝卜?</v>
       </c>
       <c r="D58" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E58" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -4066,7 +4029,7 @@
       </c>
       <c r="P58" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
@@ -4090,22 +4053,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:27">
       <c r="B59" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10057</v>
+        <v>0057</v>
       </c>
       <c r="C59" s="1" t="str">
         <f ca="1">"母鸡："&amp;E59&amp;"只  小鸡："&amp;D59&amp;"只   小鸡比母鸡多几只?"</f>
-        <v>母鸡：6只  小鸡：14只   小鸡比母鸡多几只?</v>
+        <v>母鸡：7只  小鸡：18只   小鸡比母鸡多几只?</v>
       </c>
       <c r="D59" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E59" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -4123,7 +4086,7 @@
       </c>
       <c r="P59" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
@@ -4147,22 +4110,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:27">
       <c r="B60" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10058</v>
+        <v>0058</v>
       </c>
       <c r="C60" s="1" t="str">
         <f ca="1">"母鸡："&amp;E60&amp;"只  小鸡："&amp;D60&amp;"只   母鸡比小鸡少几只?"</f>
-        <v>母鸡：9只  小鸡：17只   母鸡比小鸡少几只?</v>
+        <v>母鸡：6只  小鸡：14只   母鸡比小鸡少几只?</v>
       </c>
       <c r="D60" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E60" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -4204,26 +4167,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:27">
       <c r="B61" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10059</v>
+        <v>0059</v>
       </c>
       <c r="C61" s="1" t="str">
         <f ca="1">"大客车："&amp;E61&amp;"辆  中巴："&amp;F61&amp;"辆  小轿车："&amp;D61&amp;"辆   小轿车比大客车多几辆?"</f>
-        <v>大客车：6辆  中巴：7辆  小轿车：14辆   小轿车比大客车多几辆?</v>
+        <v>大客车：8辆  中巴：4辆  小轿车：18辆   小轿车比大客车多几辆?</v>
       </c>
       <c r="D61" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E61" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F61" s="2">
         <f t="shared" ref="F61:F62" ca="1" si="11">RANDBETWEEN(W61,X61)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -4240,7 +4203,7 @@
       </c>
       <c r="P61" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
@@ -4264,26 +4227,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:27">
       <c r="B62" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10060</v>
+        <v>0060</v>
       </c>
       <c r="C62" s="1" t="str">
         <f ca="1">"大客车："&amp;E62&amp;"辆  中巴："&amp;D62&amp;"辆  小轿车："&amp;F62&amp;"辆   中巴比大客车多几辆?"</f>
-        <v>大客车：1辆  中巴：18辆  小轿车：7辆   中巴比大客车多几辆?</v>
+        <v>大客车：7辆  中巴：16辆  小轿车：8辆   中巴比大客车多几辆?</v>
       </c>
       <c r="D62" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E62" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F62" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -4300,7 +4263,7 @@
       </c>
       <c r="P62" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="Q62" s="3"/>
       <c r="R62" s="3"/>
@@ -4324,22 +4287,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:27">
       <c r="B63" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10061</v>
+        <v>0061</v>
       </c>
       <c r="C63" s="1" t="str">
         <f ca="1">"拿"&amp;D63&amp;"元去买车票，找给我"&amp;E63&amp;"元。买车票花了多少钱?"</f>
-        <v>拿17元去买车票，找给我7元。买车票花了多少钱?</v>
+        <v>拿19元去买车票，找给我2元。买车票花了多少钱?</v>
       </c>
       <c r="D63" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E63" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -4357,7 +4320,7 @@
       </c>
       <c r="P63" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
@@ -4381,22 +4344,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:27">
       <c r="B64" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10062</v>
+        <v>0062</v>
       </c>
       <c r="C64" s="1" t="str">
         <f ca="1">"飞机场上有"&amp;D64&amp;"架飞机，飞走了"&amp;E64&amp;"架，现在机场上有飞机多少架?"</f>
-        <v>飞机场上有14架飞机，飞走了1架，现在机场上有飞机多少架?</v>
+        <v>飞机场上有18架飞机，飞走了9架，现在机场上有飞机多少架?</v>
       </c>
       <c r="D64" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E64" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -4414,7 +4377,7 @@
       </c>
       <c r="P64" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Q64" s="3"/>
       <c r="R64" s="3"/>
@@ -4438,22 +4401,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:27">
       <c r="B65" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>10063</v>
+        <v>0063</v>
       </c>
       <c r="C65" s="1" t="str">
         <f ca="1">"同学们要做"&amp;D65&amp;"个灯笼,已做好"&amp;E65&amp;"个，还要做多少个? "</f>
-        <v xml:space="preserve">同学们要做18个灯笼,已做好6个，还要做多少个? </v>
+        <v xml:space="preserve">同学们要做15个灯笼,已做好9个，还要做多少个? </v>
       </c>
       <c r="D65" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E65" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -4471,7 +4434,7 @@
       </c>
       <c r="P65" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q65" s="3"/>
       <c r="R65" s="3"/>
@@ -4495,18 +4458,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:27">
       <c r="B66" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>00064</v>
+        <v>0064</v>
       </c>
       <c r="C66" s="1" t="str">
         <f ca="1">"小苹种"&amp;D66&amp;"盆红花，又种了同样多的黄花，两种花共多少盆?"</f>
-        <v>小苹种6盆红花，又种了同样多的黄花，两种花共多少盆?</v>
+        <v>小苹种9盆红花，又种了同样多的黄花，两种花共多少盆?</v>
       </c>
       <c r="D66" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -4525,7 +4488,7 @@
       </c>
       <c r="P66" s="3">
         <f ca="1">D66+D66</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q66" s="3"/>
       <c r="R66" s="3"/>
@@ -4545,18 +4508,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:27">
       <c r="B67" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>00065</v>
+        <v>0065</v>
       </c>
       <c r="C67" s="1" t="str">
         <f ca="1">"学校原有"&amp;D67&amp;"瓶胶水，又买回"&amp;E67&amp;"瓶，现在有多少瓶?"</f>
-        <v>学校原有8瓶胶水，又买回5瓶，现在有多少瓶?</v>
+        <v>学校原有9瓶胶水，又买回5瓶，现在有多少瓶?</v>
       </c>
       <c r="D67" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E67" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -4578,11 +4541,11 @@
       </c>
       <c r="P67" s="3">
         <f ca="1">D67+E67</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q67" s="3">
         <f ca="1">E67+D67</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
@@ -4605,22 +4568,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:27">
       <c r="B68" s="7" t="str">
-        <f t="shared" ref="B68:B109" si="12">IF(N68 = "", "", N68 &amp; REPT(0,4-LEN(ROW()-2)) &amp; ROW()-2)</f>
-        <v>10066</v>
+        <f t="shared" ref="B68:B109" si="12">IF(N68 = "", "", REPT(0,4-LEN(ROW()-2)) &amp; ROW()-2)</f>
+        <v>0066</v>
       </c>
       <c r="C68" s="1" t="str">
         <f ca="1">"小强家有"&amp;D68&amp;"个苹果，吃了"&amp;E68&amp;"个，还有多少个?"</f>
-        <v>小强家有15个苹果，吃了8个，还有多少个?</v>
+        <v>小强家有10个苹果，吃了5个，还有多少个?</v>
       </c>
       <c r="D68" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E68" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -4638,7 +4601,7 @@
       </c>
       <c r="P68" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q68" s="3"/>
       <c r="R68" s="3"/>
@@ -4662,22 +4625,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:27">
       <c r="B69" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>10067</v>
+        <v>0067</v>
       </c>
       <c r="C69" s="1" t="str">
         <f ca="1">"汽车总站有"&amp;D69&amp;"辆汽车，开走了"&amp;E69&amp;"辆，还有几辆?"</f>
-        <v>汽车总站有12辆汽车，开走了7辆，还有几辆?</v>
+        <v>汽车总站有14辆汽车，开走了4辆，还有几辆?</v>
       </c>
       <c r="D69" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E69" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
@@ -4695,7 +4658,7 @@
       </c>
       <c r="P69" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q69" s="3"/>
       <c r="R69" s="3"/>
@@ -4719,18 +4682,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:27">
       <c r="B70" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>00068</v>
+        <v>0068</v>
       </c>
       <c r="C70" s="1" t="str">
         <f ca="1">"小朋友做剪纸，用了"&amp;D70&amp;"张红纸，又用了同样多的黄纸，他们用了多少张纸?"</f>
-        <v>小朋友做剪纸，用了7张红纸，又用了同样多的黄纸，他们用了多少张纸?</v>
+        <v>小朋友做剪纸，用了5张红纸，又用了同样多的黄纸，他们用了多少张纸?</v>
       </c>
       <c r="D70" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -4749,7 +4712,7 @@
       </c>
       <c r="P70" s="3">
         <f ca="1">D70+D70</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="Q70" s="3"/>
       <c r="R70" s="3"/>
@@ -4769,22 +4732,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:27">
       <c r="B71" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>00069</v>
+        <v>0069</v>
       </c>
       <c r="C71" s="1" t="str">
         <f ca="1">"马场上有"&amp;D71&amp;"匹马，又来了"&amp;E71&amp;"匹，现在马场上有多少匹?"</f>
-        <v>马场上有6匹马，又来了9匹，现在马场上有多少匹?</v>
+        <v>马场上有7匹马，又来了6匹，现在马场上有多少匹?</v>
       </c>
       <c r="D71" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E71" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -4802,11 +4765,11 @@
       </c>
       <c r="P71" s="3">
         <f ca="1">D71+E71</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q71" s="3">
         <f ca="1">E71+D71</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R71" s="3"/>
       <c r="S71" s="3"/>
@@ -4829,14 +4792,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:27">
       <c r="B72" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>10070</v>
+        <v>0070</v>
       </c>
       <c r="C72" s="1" t="str">
         <f ca="1">"商店有"&amp;D72&amp;"把扇，卖去"&amp;E72&amp;"把，现在有多少把?"</f>
-        <v>商店有12把扇，卖去6把，现在有多少把?</v>
+        <v>商店有12把扇，卖去3把，现在有多少把?</v>
       </c>
       <c r="D72" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -4844,7 +4807,7 @@
       </c>
       <c r="E72" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -4862,7 +4825,7 @@
       </c>
       <c r="P72" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q72" s="3"/>
       <c r="R72" s="3"/>
@@ -4886,14 +4849,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:27">
       <c r="B73" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>10071</v>
+        <v>0071</v>
       </c>
       <c r="C73" s="1" t="str">
         <f ca="1">"学校有兰花和菊花共"&amp;D73&amp;"盆，兰花有"&amp;E73&amp;"盆，菊花有几盆?"</f>
-        <v>学校有兰花和菊花共16盆，兰花有7盆，菊花有几盆?</v>
+        <v>学校有兰花和菊花共16盆，兰花有2盆，菊花有几盆?</v>
       </c>
       <c r="D73" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -4901,7 +4864,7 @@
       </c>
       <c r="E73" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -4919,7 +4882,7 @@
       </c>
       <c r="P73" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Q73" s="3"/>
       <c r="R73" s="3"/>
@@ -4943,22 +4906,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:27">
       <c r="B74" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>10072</v>
+        <v>0072</v>
       </c>
       <c r="C74" s="1" t="str">
         <f ca="1">"小青两次画了"&amp;D74&amp;"个，第一次画了"&amp;E74&amp;"个，第二次画了多少个?"</f>
-        <v>小青两次画了17个，第一次画了3个，第二次画了多少个?</v>
+        <v>小青两次画了11个，第一次画了8个，第二次画了多少个?</v>
       </c>
       <c r="D74" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E74" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -4976,7 +4939,7 @@
       </c>
       <c r="P74" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="Q74" s="3"/>
       <c r="R74" s="3"/>
@@ -5000,22 +4963,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:27">
       <c r="B75" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>10073</v>
+        <v>0073</v>
       </c>
       <c r="C75" s="1" t="str">
         <f ca="1">"小红家有苹果和梨子共"&amp;D75&amp;"个，苹果有"&amp;E75&amp;"个，梨子有多少个? "</f>
-        <v xml:space="preserve">小红家有苹果和梨子共14个，苹果有7个，梨子有多少个? </v>
+        <v xml:space="preserve">小红家有苹果和梨子共17个，苹果有1个，梨子有多少个? </v>
       </c>
       <c r="D75" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E75" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -5033,7 +4996,7 @@
       </c>
       <c r="P75" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="Q75" s="3"/>
       <c r="R75" s="3"/>
@@ -5057,22 +5020,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:27">
       <c r="B76" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>10074</v>
+        <v>0074</v>
       </c>
       <c r="C76" s="1" t="str">
         <f ca="1">"家有"&amp;D76&amp;"棵白菜，吃了"&amp;E76&amp;"棵，还有几棵?"</f>
-        <v>家有10棵白菜，吃了5棵，还有几棵?</v>
+        <v>家有11棵白菜，吃了9棵，还有几棵?</v>
       </c>
       <c r="D76" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
@@ -5090,7 +5053,7 @@
       </c>
       <c r="P76" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q76" s="3"/>
       <c r="R76" s="3"/>
@@ -5114,22 +5077,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:27">
       <c r="B77" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>10075</v>
+        <v>0075</v>
       </c>
       <c r="C77" s="1" t="str">
         <f ca="1">"从车场开走"&amp;D77&amp;"辆汽车，还剩"&amp;E77&amp;"辆，车场原来有多少汽车?"</f>
-        <v>从车场开走19辆汽车，还剩4辆，车场原来有多少汽车?</v>
+        <v>从车场开走13辆汽车，还剩6辆，车场原来有多少汽车?</v>
       </c>
       <c r="D77" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E77" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
@@ -5147,7 +5110,7 @@
       </c>
       <c r="P77" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Q77" s="3"/>
       <c r="R77" s="3"/>
@@ -5171,14 +5134,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:27">
       <c r="B78" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>00076</v>
+        <v>0076</v>
       </c>
       <c r="C78" s="1" t="str">
         <f ca="1">"学校体育室有"&amp;D78&amp;"个足球，又买来"&amp;E78&amp;"个，现在有多少个?"</f>
-        <v>学校体育室有8个足球，又买来9个，现在有多少个?</v>
+        <v>学校体育室有8个足球，又买来8个，现在有多少个?</v>
       </c>
       <c r="D78" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -5186,7 +5149,7 @@
       </c>
       <c r="E78" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
@@ -5204,11 +5167,11 @@
       </c>
       <c r="P78" s="3">
         <f ca="1">D78+E78</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q78" s="3">
         <f ca="1">E78+D78</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R78" s="3"/>
       <c r="S78" s="3"/>
@@ -5231,22 +5194,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:27">
       <c r="B79" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>00077</v>
+        <v>0077</v>
       </c>
       <c r="C79" s="1" t="str">
         <f ca="1">"学雷锋小组上午修了"&amp;D79&amp;"张椅，下午修了"&amp;E79&amp;"张，一天修了多少张椅?"</f>
-        <v>学雷锋小组上午修了9张椅，下午修了8张，一天修了多少张椅?</v>
+        <v>学雷锋小组上午修了7张椅，下午修了7张，一天修了多少张椅?</v>
       </c>
       <c r="D79" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E79" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
@@ -5264,11 +5227,11 @@
       </c>
       <c r="P79" s="3">
         <f ca="1">D79+E79</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Q79" s="3">
         <f ca="1">E79+D79</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="R79" s="3"/>
       <c r="S79" s="3"/>
@@ -5291,22 +5254,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:27">
       <c r="B80" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>10078</v>
+        <v>0078</v>
       </c>
       <c r="C80" s="1" t="str">
         <f ca="1">"树上有"&amp;D80&amp;"只鸟，飞走了"&amp;E80&amp;"只还剩下多少只鸟？"</f>
-        <v>树上有18只鸟，飞走了4只还剩下多少只鸟？</v>
+        <v>树上有16只鸟，飞走了5只还剩下多少只鸟？</v>
       </c>
       <c r="D80" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E80" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
@@ -5324,7 +5287,7 @@
       </c>
       <c r="P80" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q80" s="3"/>
       <c r="R80" s="3"/>
@@ -5348,22 +5311,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:27">
       <c r="B81" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>00079</v>
+        <v>0079</v>
       </c>
       <c r="C81" s="1" t="str">
         <f ca="1">"小明第一天写了"&amp;D81&amp;"个字，第二天写了"&amp;E81&amp;"个字，两天一共写了多少个字？"</f>
-        <v>小明第一天写了5个字，第二天写了6个字，两天一共写了多少个字？</v>
+        <v>小明第一天写了6个字，第二天写了9个字，两天一共写了多少个字？</v>
       </c>
       <c r="D81" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E81" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -5381,11 +5344,11 @@
       </c>
       <c r="P81" s="3">
         <f ca="1">D81+E81</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q81" s="3">
         <f ca="1">E81+D81</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="R81" s="3"/>
       <c r="S81" s="3"/>
@@ -5408,22 +5371,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:27">
       <c r="B82" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>10080</v>
+        <v>0080</v>
       </c>
       <c r="C82" s="1" t="str">
         <f ca="1">"盘子里共有"&amp;D82&amp;"个苹果，小红吃了"&amp;E82&amp;"个，还剩多少个？"</f>
-        <v>盘子里共有11个苹果，小红吃了7个，还剩多少个？</v>
+        <v>盘子里共有15个苹果，小红吃了6个，还剩多少个？</v>
       </c>
       <c r="D82" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E82" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -5441,7 +5404,7 @@
       </c>
       <c r="P82" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
@@ -5465,18 +5428,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:27">
       <c r="B83" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>00081</v>
+        <v>0081</v>
       </c>
       <c r="C83" s="1" t="str">
         <f ca="1">"小云做了"&amp;D83&amp;"朵花，又拿来"&amp;E83&amp;"朵，现在有多少朵花？"</f>
-        <v>小云做了6朵花，又拿来7朵，现在有多少朵花？</v>
+        <v>小云做了8朵花，又拿来7朵，现在有多少朵花？</v>
       </c>
       <c r="D83" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E83" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -5498,11 +5461,11 @@
       </c>
       <c r="P83" s="3">
         <f ca="1">D83+E83</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q83" s="3">
         <f ca="1">E83+D83</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R83" s="3"/>
       <c r="S83" s="3"/>
@@ -5525,22 +5488,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:27">
       <c r="B84" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>10082</v>
+        <v>0082</v>
       </c>
       <c r="C84" s="1" t="str">
         <f ca="1">"小军两次用了"&amp;D84&amp;"支铅笔，第一次用了"&amp;E84&amp;"支，第二次用了几支？"</f>
-        <v>小军两次用了17支铅笔，第一次用了8支，第二次用了几支？</v>
+        <v>小军两次用了16支铅笔，第一次用了1支，第二次用了几支？</v>
       </c>
       <c r="D84" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E84" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -5558,7 +5521,7 @@
       </c>
       <c r="P84" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Q84" s="3"/>
       <c r="R84" s="3"/>
@@ -5582,22 +5545,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:27">
       <c r="B85" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>10083</v>
+        <v>0083</v>
       </c>
       <c r="C85" s="1" t="str">
         <f ca="1">"学校有"&amp;D85&amp;"个球，借走了"&amp;E85&amp;"个,还剩几个？"</f>
-        <v>学校有14个球，借走了4个,还剩几个？</v>
+        <v>学校有11个球，借走了6个,还剩几个？</v>
       </c>
       <c r="D85" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E85" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
@@ -5615,7 +5578,7 @@
       </c>
       <c r="P85" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q85" s="3"/>
       <c r="R85" s="3"/>
@@ -5639,22 +5602,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:27">
       <c r="B86" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>00084</v>
+        <v>0084</v>
       </c>
       <c r="C86" s="1" t="str">
         <f ca="1">"欢欢做了"&amp;D86&amp;"朵大红花，贝贝做了"&amp;E86&amp;"朵大红花，两人一共做了多少朵？"</f>
-        <v>欢欢做了7朵大红花，贝贝做了5朵大红花，两人一共做了多少朵？</v>
+        <v>欢欢做了6朵大红花，贝贝做了7朵大红花，两人一共做了多少朵？</v>
       </c>
       <c r="D86" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E86" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -5672,11 +5635,11 @@
       </c>
       <c r="P86" s="3">
         <f ca="1">D86+E86</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q86" s="3">
         <f ca="1">E86+D86</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R86" s="3"/>
       <c r="S86" s="3"/>
@@ -5699,22 +5662,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:27">
       <c r="B87" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>10085</v>
+        <v>0085</v>
       </c>
       <c r="C87" s="1" t="str">
         <f ca="1">"妈妈买了"&amp;D87&amp;"个犁，吃了一些，还剩"&amp;E87&amp;"个，吃了多少个？"</f>
-        <v>妈妈买了14个犁，吃了一些，还剩8个，吃了多少个？</v>
+        <v>妈妈买了20个犁，吃了一些，还剩1个，吃了多少个？</v>
       </c>
       <c r="D87" s="2">
         <f t="shared" ref="D87:D95" ca="1" si="13">RANDBETWEEN(U87,V87)</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E87" s="2">
         <f t="shared" ref="E87:E95" ca="1" si="14">RANDBETWEEN(W87,X87)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -5732,7 +5695,7 @@
       </c>
       <c r="P87" s="3">
         <f t="shared" ref="P87:P95" ca="1" si="15">D87-E87</f>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="Q87" s="3"/>
       <c r="R87" s="3"/>
@@ -5756,18 +5719,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:27">
       <c r="B88" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>10086</v>
+        <v>0086</v>
       </c>
       <c r="C88" s="1" t="str">
         <f ca="1">"同学们种花和树，一共种了"&amp;D88&amp;"棵，种了"&amp;E88&amp;"棵树，种了多少棵花？"</f>
-        <v>同学们种花和树，一共种了20棵，种了3棵树，种了多少棵花？</v>
+        <v>同学们种花和树，一共种了18棵，种了3棵树，种了多少棵花？</v>
       </c>
       <c r="D88" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E88" s="2">
         <f t="shared" ca="1" si="14"/>
@@ -5789,7 +5752,7 @@
       </c>
       <c r="P88" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q88" s="3"/>
       <c r="R88" s="3"/>
@@ -5813,10 +5776,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:27">
       <c r="B89" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>00087</v>
+        <v>0087</v>
       </c>
       <c r="C89" s="1" t="str">
         <f ca="1">"小明昨天写了"&amp;D89&amp;"个大字，今天写的和昨天一样多，两天一共写了多少个大字？"</f>
@@ -5863,22 +5826,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:27">
       <c r="B90" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>10088</v>
+        <v>0088</v>
       </c>
       <c r="C90" s="1" t="str">
         <f ca="1">"李爷爷养黑兔和白兔"&amp;D90&amp;"只。白兔有"&amp;E90&amp;"只，黑兔有多少只？"</f>
-        <v>李爷爷养黑兔和白兔19只。白兔有7只，黑兔有多少只？</v>
+        <v>李爷爷养黑兔和白兔15只。白兔有4只，黑兔有多少只？</v>
       </c>
       <c r="D90" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E90" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
@@ -5896,7 +5859,7 @@
       </c>
       <c r="P90" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
@@ -5920,22 +5883,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:27">
       <c r="B91" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>00089</v>
+        <v>0089</v>
       </c>
       <c r="C91" s="1" t="str">
         <f ca="1">"树上第一次飞走"&amp;D91&amp;"只鸟，第二次飞走"&amp;E91&amp;"只鸟，两次飞走多少只鸟？"</f>
-        <v>树上第一次飞走7只鸟，第二次飞走9只鸟，两次飞走多少只鸟？</v>
+        <v>树上第一次飞走8只鸟，第二次飞走5只鸟，两次飞走多少只鸟？</v>
       </c>
       <c r="D91" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E91" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
@@ -5953,11 +5916,11 @@
       </c>
       <c r="P91" s="3">
         <f ca="1">D91+E91</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q91" s="3">
         <f ca="1">E91+D91</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="R91" s="3"/>
       <c r="S91" s="3"/>
@@ -5980,22 +5943,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:27">
       <c r="B92" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>10090</v>
+        <v>0090</v>
       </c>
       <c r="C92" s="1" t="str">
         <f ca="1">"桌子上有菠萝"&amp;D92&amp;"个，吃了"&amp;E92&amp;"个还剩多少个？"</f>
-        <v>桌子上有菠萝14个，吃了7个还剩多少个？</v>
+        <v>桌子上有菠萝17个，吃了5个还剩多少个？</v>
       </c>
       <c r="D92" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E92" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
@@ -6013,7 +5976,7 @@
       </c>
       <c r="P92" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q92" s="3"/>
       <c r="R92" s="3"/>
@@ -6037,22 +6000,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:27">
       <c r="B93" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>00091</v>
+        <v>0091</v>
       </c>
       <c r="C93" s="1" t="str">
         <f ca="1">"河里先游走"&amp;D93&amp;"只鹅，又游走"&amp;E93&amp;"只，两次游走多少只？"</f>
-        <v>河里先游走5只鹅，又游走5只，两次游走多少只？</v>
+        <v>河里先游走7只鹅，又游走7只，两次游走多少只？</v>
       </c>
       <c r="D93" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E93" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -6070,11 +6033,11 @@
       </c>
       <c r="P93" s="3">
         <f ca="1">D93+E93</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Q93" s="3">
         <f ca="1">E93+D93</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="R93" s="3"/>
       <c r="S93" s="3"/>
@@ -6097,22 +6060,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:27">
       <c r="B94" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>10092</v>
+        <v>0092</v>
       </c>
       <c r="C94" s="1" t="str">
         <f ca="1">"明明两天看了"&amp;D94&amp;"页书，第一天看了"&amp;E94&amp;"页，第二天看了多少页？"</f>
-        <v>明明两天看了15页书，第一天看了3页，第二天看了多少页？</v>
+        <v>明明两天看了14页书，第一天看了8页，第二天看了多少页？</v>
       </c>
       <c r="D94" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E94" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
@@ -6130,7 +6093,7 @@
       </c>
       <c r="P94" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q94" s="3"/>
       <c r="R94" s="3"/>
@@ -6154,22 +6117,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:27">
       <c r="B95" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>10093</v>
+        <v>0093</v>
       </c>
       <c r="C95" s="1" t="str">
         <f ca="1">"停车场两次一共开走了"&amp;D95&amp;"辆车，第一次开走了"&amp;E95&amp;"辆，第二次开走了多少辆？"</f>
-        <v>停车场两次一共开走了17辆车，第一次开走了1辆，第二次开走了多少辆？</v>
+        <v>停车场两次一共开走了11辆车，第一次开走了7辆，第二次开走了多少辆？</v>
       </c>
       <c r="D95" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E95" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
@@ -6187,7 +6150,7 @@
       </c>
       <c r="P95" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
@@ -6211,22 +6174,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:27">
       <c r="B96" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>10094</v>
+        <v>0094</v>
       </c>
       <c r="C96" s="1" t="str">
         <f ca="1">"动物园里黄狗和花狗有"&amp;D96&amp;"只，"&amp;E96&amp;"只是黄的，有几只是花的？"</f>
-        <v>动物园里黄狗和花狗有15只，9只是黄的，有几只是花的？</v>
+        <v>动物园里黄狗和花狗有14只，1只是黄的，有几只是花的？</v>
       </c>
       <c r="D96" s="2">
         <f t="shared" ref="D96:D102" ca="1" si="16">RANDBETWEEN(U96,V96)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E96" s="2">
         <f t="shared" ref="E96:E102" ca="1" si="17">RANDBETWEEN(W96,X96)</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
@@ -6244,7 +6207,7 @@
       </c>
       <c r="P96" s="3">
         <f t="shared" ref="P96:P101" ca="1" si="18">D96-E96</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="Q96" s="3"/>
       <c r="R96" s="3"/>
@@ -6268,26 +6231,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:27">
       <c r="B97" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>10095</v>
+        <v>0095</v>
       </c>
       <c r="C97" s="1" t="str">
         <f ca="1">"小红拿"&amp;D97&amp;"元钱去买一本书"&amp;E97&amp;"元和一枝笔"&amp;F97&amp;"元，售货员应找回多少元？"</f>
-        <v>小红拿30元钱去买一本书1元和一枝笔9元，售货员应找回多少元？</v>
+        <v>小红拿25元钱去买一本书3元和一枝笔4元，售货员应找回多少元？</v>
       </c>
       <c r="D97" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E97" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F97" s="2">
         <f ca="1">RANDBETWEEN(W97,X97)</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
@@ -6304,11 +6267,11 @@
       </c>
       <c r="P97" s="3">
         <f ca="1">D97-E97-F97</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q97" s="3">
         <f ca="1">D97-F97-E97</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R97" s="3"/>
       <c r="S97" s="3"/>
@@ -6331,22 +6294,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:27">
       <c r="B98" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>10096</v>
+        <v>0096</v>
       </c>
       <c r="C98" s="1" t="str">
         <f ca="1">"小图书室有"&amp;D98&amp;"本图书，借出"&amp;E98&amp;"本书，还剩下多少本？"</f>
-        <v>小图书室有11本图书，借出6本书，还剩下多少本？</v>
+        <v>小图书室有15本图书，借出3本书，还剩下多少本？</v>
       </c>
       <c r="D98" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E98" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
@@ -6364,7 +6327,7 @@
       </c>
       <c r="P98" s="3">
         <f t="shared" ca="1" si="18"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="Q98" s="3"/>
       <c r="R98" s="3"/>
@@ -6388,22 +6351,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:27">
       <c r="B99" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>10097</v>
+        <v>0097</v>
       </c>
       <c r="C99" s="1" t="str">
         <f ca="1">"一（2）班同学共折花"&amp;D99&amp;"朵，男生折"&amp;E99&amp;"朵，女生折多少朵？"</f>
-        <v>一（2）班同学共折花16朵，男生折7朵，女生折多少朵？</v>
+        <v>一（2）班同学共折花19朵，男生折3朵，女生折多少朵？</v>
       </c>
       <c r="D99" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E99" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
@@ -6421,7 +6384,7 @@
       </c>
       <c r="P99" s="3">
         <f t="shared" ca="1" si="18"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="Q99" s="3"/>
       <c r="R99" s="3"/>
@@ -6445,22 +6408,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:27">
       <c r="B100" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>00098</v>
+        <v>0098</v>
       </c>
       <c r="C100" s="1" t="str">
         <f ca="1">"饲养员养了"&amp;D100&amp;"只白兔，又养"&amp;E100&amp;"只黑兔，共养兔多少只？"</f>
-        <v>饲养员养了8只白兔，又养5只黑兔，共养兔多少只？</v>
+        <v>饲养员养了7只白兔，又养8只黑兔，共养兔多少只？</v>
       </c>
       <c r="D100" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E100" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -6478,11 +6441,11 @@
       </c>
       <c r="P100" s="3">
         <f ca="1">D100+E100</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q100" s="3">
         <f ca="1">E100+D100</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R100" s="3"/>
       <c r="S100" s="3"/>
@@ -6505,14 +6468,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:27">
       <c r="B101" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>10099</v>
+        <v>0099</v>
       </c>
       <c r="C101" s="1" t="str">
         <f ca="1">"学校买来"&amp;D101&amp;"盒彩色粉笔，用去一些后还剩"&amp;E101&amp;"盒，用去多少盒？"</f>
-        <v>学校买来17盒彩色粉笔，用去一些后还剩4盒，用去多少盒？</v>
+        <v>学校买来17盒彩色粉笔，用去一些后还剩8盒，用去多少盒？</v>
       </c>
       <c r="D101" s="2">
         <f t="shared" ca="1" si="16"/>
@@ -6520,7 +6483,7 @@
       </c>
       <c r="E101" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
@@ -6538,7 +6501,7 @@
       </c>
       <c r="P101" s="3">
         <f t="shared" ca="1" si="18"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Q101" s="3"/>
       <c r="R101" s="3"/>
@@ -6562,14 +6525,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:27">
       <c r="B102" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>00100</v>
+        <v>0100</v>
       </c>
       <c r="C102" s="1" t="str">
         <f ca="1">"学校有男老师"&amp;D102&amp;"人，女老师比男老师多"&amp;E102&amp;"人，女老师有多少人？"</f>
-        <v>学校有男老师5人，女老师比男老师多9人，女老师有多少人？</v>
+        <v>学校有男老师5人，女老师比男老师多7人，女老师有多少人？</v>
       </c>
       <c r="D102" s="2">
         <f t="shared" ca="1" si="16"/>
@@ -6577,7 +6540,7 @@
       </c>
       <c r="E102" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
@@ -6595,11 +6558,11 @@
       </c>
       <c r="P102" s="3">
         <f ca="1">D102+E102</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q102" s="3">
         <f ca="1">E102+D102</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="R102" s="3"/>
       <c r="S102" s="3"/>
@@ -6622,18 +6585,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:27">
       <c r="B103" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>10101</v>
+        <v>0101</v>
       </c>
       <c r="C103" s="1" t="str">
         <f ca="1">"小玲买一本字典用了"&amp;E103&amp;"元钱，她付给营业员"&amp;D103&amp;"元，应找回多少钱？"</f>
-        <v>小玲买一本字典用了3元钱，她付给营业员19元，应找回多少钱？</v>
+        <v>小玲买一本字典用了3元钱，她付给营业员13元，应找回多少钱？</v>
       </c>
       <c r="D103" s="2">
         <f t="shared" ref="D103:D105" ca="1" si="19">RANDBETWEEN(U103,V103)</f>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E103" s="2">
         <f t="shared" ref="E103:E104" ca="1" si="20">RANDBETWEEN(W103,X103)</f>
@@ -6655,7 +6618,7 @@
       </c>
       <c r="P103" s="3">
         <f t="shared" ref="P103" ca="1" si="21">D103-E103</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Q103" s="3"/>
       <c r="R103" s="3"/>
@@ -6679,26 +6642,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:27">
       <c r="B104" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>10102</v>
+        <v>0102</v>
       </c>
       <c r="C104" s="1" t="str">
         <f ca="1">"亮亮有"&amp;D104&amp;"张纸，折纸飞机先用去"&amp;E104&amp;"张，又用去"&amp;F104&amp;"张，共用去多少张纸？"</f>
-        <v>亮亮有23张纸，折纸飞机先用去3张，又用去8张，共用去多少张纸？</v>
+        <v>亮亮有30张纸，折纸飞机先用去4张，又用去1张，共用去多少张纸？</v>
       </c>
       <c r="D104" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E104" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F104" s="2">
         <f ca="1">RANDBETWEEN(W104,X104)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
@@ -6715,11 +6678,11 @@
       </c>
       <c r="P104" s="3">
         <f ca="1">D104-E104-F104</f>
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="Q104" s="3">
         <f ca="1">D104-F104-E104</f>
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R104" s="3"/>
       <c r="S104" s="3"/>
@@ -6742,18 +6705,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:27">
       <c r="B105" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>00103</v>
+        <v>0103</v>
       </c>
       <c r="C105" s="1" t="str">
         <f ca="1">"学校图书馆有一些故事书，借出一半后，还剩"&amp;D105&amp;"本，学校原来有故事书多少本？"</f>
-        <v>学校图书馆有一些故事书，借出一半后，还剩7本，学校原来有故事书多少本？</v>
+        <v>学校图书馆有一些故事书，借出一半后，还剩6本，学校原来有故事书多少本？</v>
       </c>
       <c r="D105" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
@@ -6772,7 +6735,7 @@
       </c>
       <c r="P105" s="3">
         <f ca="1">D105+D105</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q105" s="3"/>
       <c r="R105" s="3"/>
@@ -6792,22 +6755,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:27">
       <c r="B106" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>10104</v>
+        <v>0104</v>
       </c>
       <c r="C106" s="1" t="str">
         <f ca="1">"动物园里有熊猫4只，猴子"&amp;D106&amp;"只，小狗30只，小兔"&amp;E106&amp;"只，小兔比猴子少多少只？"</f>
-        <v>动物园里有熊猫4只，猴子16只，小狗30只，小兔9只，小兔比猴子少多少只？</v>
+        <v>动物园里有熊猫4只，猴子18只，小狗30只，小兔6只，小兔比猴子少多少只？</v>
       </c>
       <c r="D106" s="2">
         <f t="shared" ref="D106:D108" ca="1" si="22">RANDBETWEEN(U106,V106)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E106" s="2">
         <f t="shared" ref="E106:E108" ca="1" si="23">RANDBETWEEN(W106,X106)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
@@ -6825,7 +6788,7 @@
       </c>
       <c r="P106" s="3">
         <f t="shared" ref="P106:P107" ca="1" si="24">D106-E106</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q106" s="3"/>
       <c r="R106" s="3"/>
@@ -6849,22 +6812,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:27">
       <c r="B107" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>10105</v>
+        <v>0105</v>
       </c>
       <c r="C107" s="1" t="str">
         <f ca="1">"动物园里有熊猫"&amp;E107&amp;"只，猴子24只，小狗"&amp;D107&amp;"只，小兔7只，再来多少只熊猫就能和小狗同样多了？"</f>
-        <v>动物园里有熊猫3只，猴子24只，小狗19只，小兔7只，再来多少只熊猫就能和小狗同样多了？</v>
+        <v>动物园里有熊猫7只，猴子24只，小狗11只，小兔7只，再来多少只熊猫就能和小狗同样多了？</v>
       </c>
       <c r="D107" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E107" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
@@ -6882,7 +6845,7 @@
       </c>
       <c r="P107" s="3">
         <f t="shared" ca="1" si="24"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="Q107" s="3"/>
       <c r="R107" s="3"/>
@@ -6906,22 +6869,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:27">
       <c r="B108" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>00106</v>
+        <v>0106</v>
       </c>
       <c r="C108" s="1" t="str">
         <f ca="1">"动物园里有熊猫4只，猴子"&amp;D108&amp;"只，小狗"&amp;E108&amp;"只，小兔7只，猴子和小狗一共有多少只？"</f>
-        <v>动物园里有熊猫4只，猴子9只，小狗7只，小兔7只，猴子和小狗一共有多少只？</v>
+        <v>动物园里有熊猫4只，猴子5只，小狗6只，小兔7只，猴子和小狗一共有多少只？</v>
       </c>
       <c r="D108" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E108" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
@@ -6939,11 +6902,11 @@
       </c>
       <c r="P108" s="3">
         <f ca="1">D108+E108</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Q108" s="3">
         <f ca="1">E108+D108</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="R108" s="3"/>
       <c r="S108" s="3"/>
@@ -6966,22 +6929,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:27">
       <c r="B109" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>00107</v>
+        <v>0107</v>
       </c>
       <c r="C109" s="1" t="str">
         <f ca="1">"姐妹两人做花，姐姐做了"&amp;D109&amp;"朵，比妹妹多做"&amp;E109&amp;"朵，姐妹两人一共做花多少朵？"</f>
-        <v>姐妹两人做花，姐姐做了16朵，比妹妹多做6朵，姐妹两人一共做花多少朵？</v>
+        <v>姐妹两人做花，姐姐做了18朵，比妹妹多做7朵，姐妹两人一共做花多少朵？</v>
       </c>
       <c r="D109" s="2">
         <f t="shared" ref="D109" ca="1" si="25">RANDBETWEEN(U109,V109)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E109" s="2">
         <f t="shared" ref="E109" ca="1" si="26">RANDBETWEEN(W109,X109)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
@@ -6999,11 +6962,11 @@
       </c>
       <c r="P109" s="3">
         <f ca="1">D109+D109-E109</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Q109" s="3">
         <f ca="1">D109-E109+D109</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R109" s="3"/>
       <c r="S109" s="3"/>
@@ -7026,7 +6989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:27">
       <c r="B110" s="7"/>
       <c r="C110" s="1"/>
       <c r="D110" s="2"/>
@@ -7054,7 +7017,7 @@
       <c r="Z110" s="4"/>
       <c r="AA110" s="5"/>
     </row>
-    <row r="111" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:27">
       <c r="B111" s="7"/>
       <c r="C111" s="1"/>
       <c r="D111" s="2"/>
@@ -7082,7 +7045,7 @@
       <c r="Z111" s="4"/>
       <c r="AA111" s="5"/>
     </row>
-    <row r="112" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:27">
       <c r="B112" s="7"/>
       <c r="C112" s="1"/>
       <c r="D112" s="2"/>
@@ -7110,7 +7073,7 @@
       <c r="Z112" s="4"/>
       <c r="AA112" s="5"/>
     </row>
-    <row r="113" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:27">
       <c r="B113" s="7"/>
       <c r="C113" s="1"/>
       <c r="D113" s="2"/>
@@ -7138,7 +7101,7 @@
       <c r="Z113" s="4"/>
       <c r="AA113" s="5"/>
     </row>
-    <row r="114" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:27">
       <c r="B114" s="7"/>
       <c r="C114" s="1"/>
       <c r="D114" s="2"/>
@@ -7166,7 +7129,7 @@
       <c r="Z114" s="4"/>
       <c r="AA114" s="5"/>
     </row>
-    <row r="115" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:27">
       <c r="B115" s="7"/>
       <c r="C115" s="1"/>
       <c r="D115" s="2"/>
@@ -7194,7 +7157,7 @@
       <c r="Z115" s="4"/>
       <c r="AA115" s="5"/>
     </row>
-    <row r="116" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:27">
       <c r="B116" s="7"/>
       <c r="C116" s="1"/>
       <c r="D116" s="2"/>
@@ -7222,7 +7185,7 @@
       <c r="Z116" s="4"/>
       <c r="AA116" s="5"/>
     </row>
-    <row r="117" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:27">
       <c r="B117" s="7"/>
       <c r="C117" s="1"/>
       <c r="D117" s="2"/>
@@ -7250,7 +7213,7 @@
       <c r="Z117" s="4"/>
       <c r="AA117" s="5"/>
     </row>
-    <row r="118" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:27">
       <c r="B118" s="7"/>
       <c r="C118" s="1"/>
       <c r="D118" s="2"/>
@@ -7278,7 +7241,7 @@
       <c r="Z118" s="4"/>
       <c r="AA118" s="5"/>
     </row>
-    <row r="119" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:27">
       <c r="B119" s="7"/>
       <c r="C119" s="1"/>
       <c r="D119" s="2"/>
@@ -7306,7 +7269,7 @@
       <c r="Z119" s="4"/>
       <c r="AA119" s="5"/>
     </row>
-    <row r="120" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:27">
       <c r="B120" s="7"/>
       <c r="C120" s="1"/>
       <c r="D120" s="2"/>
@@ -7334,7 +7297,7 @@
       <c r="Z120" s="4"/>
       <c r="AA120" s="5"/>
     </row>
-    <row r="121" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:27">
       <c r="B121" s="7"/>
       <c r="C121" s="1"/>
       <c r="D121" s="2"/>
@@ -7362,7 +7325,7 @@
       <c r="Z121" s="4"/>
       <c r="AA121" s="5"/>
     </row>
-    <row r="122" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:27">
       <c r="B122" s="7"/>
       <c r="C122" s="1"/>
       <c r="D122" s="2"/>
@@ -7391,8 +7354,9 @@
       <c r="AA122" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:AA109" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="B2:AA109"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tools/MathWordProblemsConsoleApp/App_Data/MathWordProblems.xlsx
+++ b/Tools/MathWordProblemsConsoleApp/App_Data/MathWordProblems.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="60">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -207,6 +207,42 @@
   </si>
   <si>
     <t>盒</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>把</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>位</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盆</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>只</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>元</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岁</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>棵</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>页</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -738,13 +774,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:AA122"/>
+  <dimension ref="B2:AA137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="2" topLeftCell="N32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B109"/>
+      <selection pane="bottomRight" activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -759,9 +795,8 @@
     <col min="15" max="15" width="6.25" style="16" customWidth="1"/>
     <col min="16" max="16" width="9.125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="9.125" style="15" customWidth="1"/>
-    <col min="18" max="20" width="9.125" style="15" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="6.25" style="15" customWidth="1" collapsed="1"/>
-    <col min="22" max="26" width="6.25" style="15" customWidth="1"/>
+    <col min="18" max="20" width="9.125" style="15" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="26" width="6.25" style="15" customWidth="1"/>
     <col min="27" max="27" width="6.625" style="15" bestFit="1" customWidth="1"/>
     <col min="28" max="16384" width="8.75" style="15"/>
   </cols>
@@ -853,15 +888,15 @@
       </c>
       <c r="C3" s="1" t="str">
         <f ca="1">"小华要给"&amp;D3&amp;"棵小树苗浇水，已经浇了"&amp;E3&amp;"棵。还有多少棵没浇？"</f>
-        <v>小华要给10棵小树苗浇水，已经浇了8棵。还有多少棵没浇？</v>
+        <v>小华要给12棵小树苗浇水，已经浇了2棵。还有多少棵没浇？</v>
       </c>
       <c r="D3" s="2">
         <f ca="1">RANDBETWEEN(U3,V3)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2">
         <f ca="1">RANDBETWEEN(W3,X3)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -879,7 +914,7 @@
       </c>
       <c r="P3" s="3">
         <f ca="1">D3-E3</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
@@ -910,15 +945,15 @@
       </c>
       <c r="C4" s="1" t="str">
         <f ca="1">"白兔和黑兔共有"&amp;D4&amp;"只，黑兔有"&amp;E4&amp;"只，白兔有几只？"</f>
-        <v>白兔和黑兔共有15只，黑兔有1只，白兔有几只？</v>
+        <v>白兔和黑兔共有17只，黑兔有2只，白兔有几只？</v>
       </c>
       <c r="D4" s="2">
         <f ca="1">RANDBETWEEN(U4,V4)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2">
         <f ca="1">RANDBETWEEN(W4,X4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -936,7 +971,7 @@
       </c>
       <c r="P4" s="3">
         <f t="shared" ref="P4:P21" ca="1" si="1">D4-E4</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
@@ -967,7 +1002,7 @@
       </c>
       <c r="C5" s="1" t="str">
         <f ca="1">"白兔和黑兔共有"&amp;D5&amp;"只，白兔有"&amp;E5&amp;"只，黑兔有多少只？"</f>
-        <v>白兔和黑兔共有19只，白兔有5只，黑兔有多少只？</v>
+        <v>白兔和黑兔共有19只，白兔有1只，黑兔有多少只？</v>
       </c>
       <c r="D5" s="2">
         <f ca="1">RANDBETWEEN(U5,V5)</f>
@@ -975,7 +1010,7 @@
       </c>
       <c r="E5" s="2">
         <f t="shared" ref="E5:E21" ca="1" si="2">RANDBETWEEN(W5,X5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -993,7 +1028,7 @@
       </c>
       <c r="P5" s="3">
         <f ca="1">D5-E5</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
@@ -1024,15 +1059,15 @@
       </c>
       <c r="C6" s="1" t="str">
         <f ca="1">"桃树和梨树一共有"&amp;D6&amp;"棵。桃树有"&amp;E6&amp;"棵，梨树的多少棵？"</f>
-        <v>桃树和梨树一共有20棵。桃树有4棵，梨树的多少棵？</v>
+        <v>桃树和梨树一共有16棵。桃树有5棵，梨树的多少棵？</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" ref="D6:D21" ca="1" si="3">RANDBETWEEN(U6,V6)</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1050,7 +1085,7 @@
       </c>
       <c r="P6" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
@@ -1081,15 +1116,15 @@
       </c>
       <c r="C7" s="1" t="str">
         <f ca="1">"桃树和梨树一共有"&amp;D7&amp;"棵。梨树有"&amp;E7&amp;"棵，桃树有多少棵？"</f>
-        <v>桃树和梨树一共有16棵。梨树有4棵，桃树有多少棵？</v>
+        <v>桃树和梨树一共有12棵。梨树有3棵，桃树有多少棵？</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1107,7 +1142,7 @@
       </c>
       <c r="P7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
@@ -1138,7 +1173,7 @@
       </c>
       <c r="C8" s="1" t="str">
         <f ca="1">"学校体育室里有"&amp;D8&amp;"个足球，借走"&amp;E8&amp;"个，还有多少个？"</f>
-        <v>学校体育室里有12个足球，借走9个，还有多少个？</v>
+        <v>学校体育室里有12个足球，借走5个，还有多少个？</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -1146,7 +1181,7 @@
       </c>
       <c r="E8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1164,7 +1199,7 @@
       </c>
       <c r="P8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -1195,7 +1230,7 @@
       </c>
       <c r="C9" s="1" t="str">
         <f ca="1">"一共采了"&amp;D9&amp;"筐番茄，运走"&amp;E9&amp;"筐还有多少筐没运走？"</f>
-        <v>一共采了10筐番茄，运走6筐还有多少筐没运走？</v>
+        <v>一共采了10筐番茄，运走7筐还有多少筐没运走？</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -1203,7 +1238,7 @@
       </c>
       <c r="E9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1221,7 +1256,7 @@
       </c>
       <c r="P9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -1252,15 +1287,15 @@
       </c>
       <c r="C10" s="1" t="str">
         <f ca="1">"一共买了"&amp;D10&amp;"个苹果已经吃掉了"&amp;E10&amp;"个，还剩多少个没吃？"</f>
-        <v>一共买了10个苹果已经吃掉了7个，还剩多少个没吃？</v>
+        <v>一共买了19个苹果已经吃掉了4个，还剩多少个没吃？</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1278,7 +1313,7 @@
       </c>
       <c r="P10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
@@ -1309,15 +1344,15 @@
       </c>
       <c r="C11" s="1" t="str">
         <f ca="1">"我要写"&amp;D11&amp;"个字，已经写了"&amp;E11&amp;"个，还要写多少个？"</f>
-        <v>我要写18个字，已经写了1个，还要写多少个？</v>
+        <v>我要写15个字，已经写了8个，还要写多少个？</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1335,7 +1370,7 @@
       </c>
       <c r="P11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
@@ -1366,7 +1401,7 @@
       </c>
       <c r="C12" s="1" t="str">
         <f ca="1">"小花有"&amp;D12&amp;"本故事书，小兰有"&amp;E12&amp;"本故事书，小花比小兰多多少本？"</f>
-        <v>小花有10本故事书，小兰有3本故事书，小花比小兰多多少本？</v>
+        <v>小花有10本故事书，小兰有8本故事书，小花比小兰多多少本？</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -1374,7 +1409,7 @@
       </c>
       <c r="E12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1392,7 +1427,7 @@
       </c>
       <c r="P12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -1423,15 +1458,15 @@
       </c>
       <c r="C13" s="1" t="str">
         <f ca="1">"树上原来有"&amp;D13&amp;"个苹果，摘了一些后还剩"&amp;E13&amp;"个，摘了多少个苹果？"</f>
-        <v>树上原来有18个苹果，摘了一些后还剩7个，摘了多少个苹果？</v>
+        <v>树上原来有19个苹果，摘了一些后还剩1个，摘了多少个苹果？</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1449,7 +1484,7 @@
       </c>
       <c r="P13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -1480,15 +1515,15 @@
       </c>
       <c r="C14" s="1" t="str">
         <f ca="1">"这本书一共有"&amp;D14&amp;"页，我已经看了"&amp;E14&amp;"页，还剩多少没有看？ "</f>
-        <v xml:space="preserve">这本书一共有16页，我已经看了7页，还剩多少没有看？ </v>
+        <v xml:space="preserve">这本书一共有15页，我已经看了2页，还剩多少没有看？ </v>
       </c>
       <c r="D14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1506,7 +1541,7 @@
       </c>
       <c r="P14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
@@ -1537,7 +1572,7 @@
       </c>
       <c r="C15" s="1" t="str">
         <f ca="1">"湖边原来有"&amp;D15&amp;"只小船，划走了一些，还剩"&amp;E15&amp;"只，划走了多少只？"</f>
-        <v>湖边原来有19只小船，划走了一些，还剩2只，划走了多少只？</v>
+        <v>湖边原来有19只小船，划走了一些，还剩9只，划走了多少只？</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -1545,7 +1580,7 @@
       </c>
       <c r="E15" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1563,7 +1598,7 @@
       </c>
       <c r="P15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
@@ -1594,15 +1629,15 @@
       </c>
       <c r="C16" s="1" t="str">
         <f ca="1">"红气球有"&amp;D16&amp;"个，黄气球有"&amp;E16&amp;"个，蓝气球有7个。黄气球比红气球少几个？"</f>
-        <v>红气球有20个，黄气球有1个，蓝气球有7个。黄气球比红气球少几个？</v>
+        <v>红气球有19个，黄气球有2个，蓝气球有7个。黄气球比红气球少几个？</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1620,7 +1655,7 @@
       </c>
       <c r="P16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
@@ -1651,15 +1686,15 @@
       </c>
       <c r="C17" s="1" t="str">
         <f ca="1">"红气球有"&amp;D17&amp;"个，黄气球有8个，蓝气球有"&amp;E17&amp;"个。红气球比蓝气球多几个？"</f>
-        <v>红气球有12个，黄气球有8个，蓝气球有3个。红气球比蓝气球多几个？</v>
+        <v>红气球有10个，黄气球有8个，蓝气球有5个。红气球比蓝气球多几个？</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1677,7 +1712,7 @@
       </c>
       <c r="P17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
@@ -1708,7 +1743,7 @@
       </c>
       <c r="C18" s="1" t="str">
         <f ca="1">"小红今年"&amp;E18&amp;"岁，小明今年"&amp;D18&amp;"岁，小红比小明小多少岁？"</f>
-        <v>小红今年5岁，小明今年20岁，小红比小明小多少岁？</v>
+        <v>小红今年2岁，小明今年20岁，小红比小明小多少岁？</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -1716,7 +1751,7 @@
       </c>
       <c r="E18" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1734,7 +1769,7 @@
       </c>
       <c r="P18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
@@ -1765,11 +1800,11 @@
       </c>
       <c r="C19" s="1" t="str">
         <f ca="1">"小军拍了"&amp;D4&amp;"下球，小丽拍的数和他同样多。他们一共拍了多少下？"</f>
-        <v>小军拍了15下球，小丽拍的数和他同样多。他们一共拍了多少下？</v>
+        <v>小军拍了17下球，小丽拍的数和他同样多。他们一共拍了多少下？</v>
       </c>
       <c r="D19" s="2">
         <f ca="1">RANDBETWEEN(U19,V19)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1788,7 +1823,7 @@
       </c>
       <c r="P19" s="3">
         <f ca="1">D19+D19</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -1815,15 +1850,15 @@
       </c>
       <c r="C20" s="1" t="str">
         <f ca="1">"学校有"&amp;D20&amp;"扫帚，被一（2）班借走了"&amp;E20&amp;"把，还剩多少把？"</f>
-        <v>学校有20扫帚，被一（2）班借走了1把，还剩多少把？</v>
+        <v>学校有12扫帚，被一（2）班借走了5把，还剩多少把？</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1841,7 +1876,7 @@
       </c>
       <c r="P20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
@@ -1872,11 +1907,11 @@
       </c>
       <c r="C21" s="1" t="str">
         <f ca="1">"妈妈养了"&amp;D21&amp;"只鸡，卖掉"&amp;E21&amp;"只后，还剩多少只？"</f>
-        <v>妈妈养了10只鸡，卖掉8只后，还剩多少只？</v>
+        <v>妈妈养了20只鸡，卖掉8只后，还剩多少只？</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1898,7 +1933,7 @@
       </c>
       <c r="P21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
@@ -1929,11 +1964,11 @@
       </c>
       <c r="C22" s="1" t="str">
         <f ca="1">"学校数学兴趣组有"&amp;D22&amp;"人，美术兴趣组人数与数学兴趣组同样多。这两个兴趣组一共有多少人？ "</f>
-        <v xml:space="preserve">学校数学兴趣组有6人，美术兴趣组人数与数学兴趣组同样多。这两个兴趣组一共有多少人？ </v>
+        <v xml:space="preserve">学校数学兴趣组有7人，美术兴趣组人数与数学兴趣组同样多。这两个兴趣组一共有多少人？ </v>
       </c>
       <c r="D22" s="2">
         <f ca="1">RANDBETWEEN(U22,V22)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -1952,7 +1987,7 @@
       </c>
       <c r="P22" s="3">
         <f ca="1">D22+D22</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
@@ -1979,15 +2014,15 @@
       </c>
       <c r="C23" s="1" t="str">
         <f ca="1">"今天有"&amp;D23&amp;"人来开会，椅子才搬来"&amp;E23&amp;"把。还缺多少把椅子？"</f>
-        <v>今天有16人来开会，椅子才搬来2把。还缺多少把椅子？</v>
+        <v>今天有19人来开会，椅子才搬来4把。还缺多少把椅子？</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" ref="D23:D86" ca="1" si="4">RANDBETWEEN(U23,V23)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" ref="E23:E86" ca="1" si="5">RANDBETWEEN(W23,X23)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -2005,7 +2040,7 @@
       </c>
       <c r="P23" s="3">
         <f t="shared" ref="P23:P85" ca="1" si="6">D23-E23</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
@@ -2036,15 +2071,15 @@
       </c>
       <c r="C24" s="1" t="str">
         <f ca="1">"买的苹果和梨一共有"&amp;D24&amp;"个，苹果有"&amp;E24&amp;"个。买了多少个梨？"</f>
-        <v>买的苹果和梨一共有20个，苹果有8个。买了多少个梨？</v>
+        <v>买的苹果和梨一共有12个，苹果有3个。买了多少个梨？</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2062,7 +2097,7 @@
       </c>
       <c r="P24" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
@@ -2093,15 +2128,15 @@
       </c>
       <c r="C25" s="1" t="str">
         <f ca="1">"白兔有"&amp;D25&amp;"只，灰兔有"&amp;E25&amp;"只，再买几只灰兔就和白兔同样多了?"</f>
-        <v>白兔有14只，灰兔有9只，再买几只灰兔就和白兔同样多了?</v>
+        <v>白兔有17只，灰兔有7只，再买几只灰兔就和白兔同样多了?</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -2119,7 +2154,7 @@
       </c>
       <c r="P25" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
@@ -2150,15 +2185,15 @@
       </c>
       <c r="C26" s="1" t="str">
         <f ca="1">"小弟弟上午吃了"&amp;D26&amp;"个草莓，下午吃了"&amp;E26&amp;"个草莓，他一共吃了多少个草莓？"</f>
-        <v>小弟弟上午吃了13个草莓，下午吃了5个草莓，他一共吃了多少个草莓？</v>
+        <v>小弟弟上午吃了10个草莓，下午吃了3个草莓，他一共吃了多少个草莓？</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -2176,7 +2211,7 @@
       </c>
       <c r="P26" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
@@ -2207,15 +2242,15 @@
       </c>
       <c r="C27" s="1" t="str">
         <f ca="1">"小明有蝴蝶标本"&amp;D27&amp;"只蜻蜓标本"&amp;E27&amp;"只。小明一共有多少只标本？"</f>
-        <v>小明有蝴蝶标本7只蜻蜓标本5只。小明一共有多少只标本？</v>
+        <v>小明有蝴蝶标本6只蜻蜓标本7只。小明一共有多少只标本？</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -2233,11 +2268,11 @@
       </c>
       <c r="P27" s="3">
         <f ca="1">D27+E27</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q27" s="3">
         <f ca="1">E27+D27</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
@@ -2267,15 +2302,15 @@
       </c>
       <c r="C28" s="1" t="str">
         <f ca="1">"小明有蝴蝶标本"&amp;D28&amp;"只蜻蜓标本"&amp;E28&amp;"只。再采集多少个蝴蝶标本就和蜻蜓标本一样多了？"</f>
-        <v>小明有蝴蝶标本19只蜻蜓标本4只。再采集多少个蝴蝶标本就和蜻蜓标本一样多了？</v>
+        <v>小明有蝴蝶标本16只蜻蜓标本5只。再采集多少个蝴蝶标本就和蜻蜓标本一样多了？</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -2293,7 +2328,7 @@
       </c>
       <c r="P28" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
@@ -2324,11 +2359,11 @@
       </c>
       <c r="C29" s="1" t="str">
         <f ca="1">"一辆"&amp;D29&amp;"座的客车，车内还有"&amp;E29&amp;"个座位空着，车上共坐了多少人？"</f>
-        <v>一辆14座的客车，车内还有3个座位空着，车上共坐了多少人？</v>
+        <v>一辆11座的客车，车内还有3个座位空着，车上共坐了多少人？</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -2350,7 +2385,7 @@
       </c>
       <c r="P29" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
@@ -2381,15 +2416,15 @@
       </c>
       <c r="C30" s="1" t="str">
         <f ca="1">"一辆公共汽车，到和平路下车"&amp;D30&amp;"人，车上还剩"&amp;E30&amp;"人，公共汽车中原有多少人?"</f>
-        <v>一辆公共汽车，到和平路下车8人，车上还剩7人，公共汽车中原有多少人?</v>
+        <v>一辆公共汽车，到和平路下车6人，车上还剩9人，公共汽车中原有多少人?</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -2441,15 +2476,15 @@
       </c>
       <c r="C31" s="1" t="str">
         <f ca="1">"妈妈买上衣和裤子共用去"&amp;D31&amp;"元，买上衣用去"&amp;E31&amp;"元，买裤子用去多少元? "</f>
-        <v xml:space="preserve">妈妈买上衣和裤子共用去12元，买上衣用去5元，买裤子用去多少元? </v>
+        <v xml:space="preserve">妈妈买上衣和裤子共用去17元，买上衣用去3元，买裤子用去多少元? </v>
       </c>
       <c r="D31" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -2467,7 +2502,7 @@
       </c>
       <c r="P31" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
@@ -2498,7 +2533,7 @@
       </c>
       <c r="C32" s="1" t="str">
         <f ca="1">"林林已经写好"&amp;D32&amp;"个生字，还有"&amp;E32&amp;"个生字没写，他一共要写多少个生字? "</f>
-        <v xml:space="preserve">林林已经写好7个生字，还有6个生字没写，他一共要写多少个生字? </v>
+        <v xml:space="preserve">林林已经写好7个生字，还有8个生字没写，他一共要写多少个生字? </v>
       </c>
       <c r="D32" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -2506,7 +2541,7 @@
       </c>
       <c r="E32" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -2524,11 +2559,11 @@
       </c>
       <c r="P32" s="3">
         <f ca="1">D32+E32</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q32" s="3">
         <f ca="1">E32+D32</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
@@ -2558,15 +2593,15 @@
       </c>
       <c r="C33" s="1" t="str">
         <f ca="1">"少先队员学雷锋，一班和二班共做好事"&amp;D33&amp;"件，其中一班"&amp;E33&amp;"件，二班做多少件?"</f>
-        <v>少先队员学雷锋，一班和二班共做好事13件，其中一班3件，二班做多少件?</v>
+        <v>少先队员学雷锋，一班和二班共做好事18件，其中一班8件，二班做多少件?</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -2615,15 +2650,15 @@
       </c>
       <c r="C34" s="1" t="str">
         <f ca="1">D34&amp;"和"&amp;E34&amp;"相差多少?"</f>
-        <v>16和5相差多少?</v>
+        <v>13和2相差多少?</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -2670,15 +2705,15 @@
       </c>
       <c r="C35" s="1" t="str">
         <f ca="1">"比"&amp;D35&amp;"多"&amp;E35&amp;"的数是多少?"</f>
-        <v>比6多5的数是多少?</v>
+        <v>比9多8的数是多少?</v>
       </c>
       <c r="D35" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -2694,11 +2729,11 @@
       <c r="O35" s="6"/>
       <c r="P35" s="3">
         <f ca="1">D35+E35</f>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q35" s="3">
         <f ca="1">E35+D35</f>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
@@ -2728,15 +2763,15 @@
       </c>
       <c r="C36" s="1" t="str">
         <f ca="1">"比"&amp;D36&amp;"少"&amp;E36&amp;"的数是多少?"</f>
-        <v>比14少5的数是多少?</v>
+        <v>比11少7的数是多少?</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -2752,7 +2787,7 @@
       <c r="O36" s="6"/>
       <c r="P36" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
@@ -2831,15 +2866,15 @@
       </c>
       <c r="C38" s="1" t="str">
         <f ca="1">"一个加数是"&amp;D38&amp;"， 另一个加数是"&amp;E38&amp;"， 和是多少?"</f>
-        <v>一个加数是9， 另一个加数是7， 和是多少?</v>
+        <v>一个加数是6， 另一个加数是9， 和是多少?</v>
       </c>
       <c r="D38" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -2855,11 +2890,11 @@
       <c r="O38" s="6"/>
       <c r="P38" s="3">
         <f ca="1">D38+E38</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q38" s="3">
         <f ca="1">E38+D38</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
@@ -2889,15 +2924,15 @@
       </c>
       <c r="C39" s="1" t="str">
         <f ca="1">"从"&amp;D39&amp;"里减去"&amp;E39&amp;"， 差是多少?"</f>
-        <v>从16里减去4， 差是多少?</v>
+        <v>从11里减去3， 差是多少?</v>
       </c>
       <c r="D39" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -2913,7 +2948,7 @@
       <c r="O39" s="6"/>
       <c r="P39" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
@@ -3001,15 +3036,15 @@
       </c>
       <c r="C41" s="1" t="str">
         <f ca="1">"工人叔叔修路，第二天比第一天多修"&amp;E41&amp;"米，第一天修"&amp;D41&amp;"米，第二天修路多少米?"</f>
-        <v>工人叔叔修路，第二天比第一天多修8米，第一天修6米，第二天修路多少米?</v>
+        <v>工人叔叔修路，第二天比第一天多修5米，第一天修8米，第二天修路多少米?</v>
       </c>
       <c r="D41" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -3027,11 +3062,11 @@
       </c>
       <c r="P41" s="3">
         <f ca="1">D41+E41</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q41" s="3">
         <f ca="1">E41+D41</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
@@ -3061,15 +3096,15 @@
       </c>
       <c r="C42" s="1" t="str">
         <f ca="1">"一双球鞋"&amp;D42&amp;"元，一双布鞋比一双球鞋便宜"&amp;E42&amp;"元，一双布鞋多少元?"</f>
-        <v>一双球鞋18元，一双布鞋比一双球鞋便宜7元，一双布鞋多少元?</v>
+        <v>一双球鞋16元，一双布鞋比一双球鞋便宜1元，一双布鞋多少元?</v>
       </c>
       <c r="D42" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -3087,7 +3122,7 @@
       </c>
       <c r="P42" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
@@ -3118,7 +3153,7 @@
       </c>
       <c r="C43" s="1" t="str">
         <f ca="1">"木工组修理一批桌子，已经修好了"&amp;D43&amp;"张，还有"&amp;E43&amp;"张没修，这批桌子有多少张? "</f>
-        <v xml:space="preserve">木工组修理一批桌子，已经修好了7张，还有8张没修，这批桌子有多少张? </v>
+        <v xml:space="preserve">木工组修理一批桌子，已经修好了7张，还有7张没修，这批桌子有多少张? </v>
       </c>
       <c r="D43" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3126,7 +3161,7 @@
       </c>
       <c r="E43" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -3144,11 +3179,11 @@
       </c>
       <c r="P43" s="3">
         <f ca="1">D43+E43</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q43" s="3">
         <f ca="1">E43+D43</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
@@ -3178,15 +3213,15 @@
       </c>
       <c r="C44" s="1" t="str">
         <f ca="1">"小熊猫现在身高"&amp;D44&amp;"厘米，比去年长高了"&amp;E44&amp;"厘米，去年身高多少厘米?"</f>
-        <v>小熊猫现在身高19厘米，比去年长高了4厘米，去年身高多少厘米?</v>
+        <v>小熊猫现在身高13厘米，比去年长高了5厘米，去年身高多少厘米?</v>
       </c>
       <c r="D44" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -3204,7 +3239,7 @@
       </c>
       <c r="P44" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
@@ -3235,15 +3270,15 @@
       </c>
       <c r="C45" s="1" t="str">
         <f ca="1">"一年级(6)班图书角原来有图书"&amp;D45&amp;"本，同学们捐献了故事书"&amp;E45&amp;"本。现在图书角共有图书多少本？"</f>
-        <v>一年级(6)班图书角原来有图书15本，同学们捐献了故事书5本。现在图书角共有图书多少本？</v>
+        <v>一年级(6)班图书角原来有图书14本，同学们捐献了故事书7本。现在图书角共有图书多少本？</v>
       </c>
       <c r="D45" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E45" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -3261,7 +3296,7 @@
       </c>
       <c r="P45" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
@@ -3292,19 +3327,19 @@
       </c>
       <c r="C46" s="1" t="str">
         <f ca="1">"上衣："&amp;F46&amp;"元 裤子："&amp;D46&amp;"元 鞋："&amp;E46&amp;"元   买一条裤子和一双鞋共多少钱？"</f>
-        <v>上衣：8元 裤子：8元 鞋：9元   买一条裤子和一双鞋共多少钱？</v>
+        <v>上衣：9元 裤子：5元 鞋：6元   买一条裤子和一双鞋共多少钱？</v>
       </c>
       <c r="D46" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E46" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F46" s="2">
         <f ca="1">RANDBETWEEN(W46,X46)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -3321,11 +3356,11 @@
       </c>
       <c r="P46" s="3">
         <f ca="1">D46+E46</f>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q46" s="3">
         <f ca="1">E46+D46</f>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
@@ -3355,7 +3390,7 @@
       </c>
       <c r="C47" s="1" t="str">
         <f ca="1">"上衣："&amp;D47&amp;"元 裤子："&amp;E47&amp;"元 鞋："&amp;F47&amp;"元   买一条裤子和一件上衣共多少钱？"</f>
-        <v>上衣：9元 裤子：7元 鞋：8元   买一条裤子和一件上衣共多少钱？</v>
+        <v>上衣：9元 裤子：6元 鞋：6元   买一条裤子和一件上衣共多少钱？</v>
       </c>
       <c r="D47" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3363,11 +3398,11 @@
       </c>
       <c r="E47" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F47" s="2">
         <f ca="1">RANDBETWEEN(W47,X47)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -3384,11 +3419,11 @@
       </c>
       <c r="P47" s="3">
         <f ca="1">D47+E47</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q47" s="3">
         <f ca="1">E47+D47</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
@@ -3418,15 +3453,15 @@
       </c>
       <c r="C48" s="1" t="str">
         <f ca="1">"排练舞蹈，需要女生"&amp;D48&amp;"人，男生"&amp;E48&amp;"人。一共需要学生多少人?"</f>
-        <v>排练舞蹈，需要女生8人，男生5人。一共需要学生多少人?</v>
+        <v>排练舞蹈，需要女生5人，男生8人。一共需要学生多少人?</v>
       </c>
       <c r="D48" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E48" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -3478,15 +3513,15 @@
       </c>
       <c r="C49" s="1" t="str">
         <f ca="1">"活动课上打乒乓球的有"&amp;D49&amp;"人，做操的有"&amp;E49&amp;"人。打乒乓球和做操的同学共有多少人? "</f>
-        <v xml:space="preserve">活动课上打乒乓球的有5人，做操的有5人。打乒乓球和做操的同学共有多少人? </v>
+        <v xml:space="preserve">活动课上打乒乓球的有7人，做操的有9人。打乒乓球和做操的同学共有多少人? </v>
       </c>
       <c r="D49" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E49" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -3504,11 +3539,11 @@
       </c>
       <c r="P49" s="3">
         <f ca="1">D49+E49</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Q49" s="3">
         <f ca="1">E49+D49</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
@@ -3538,15 +3573,15 @@
       </c>
       <c r="C50" s="1" t="str">
         <f ca="1">"活动课上有"&amp;D50&amp;"名同学参加体育活动，"&amp;E50&amp;"名同学参加文艺活动。参加这两种活动的共有多少人?"</f>
-        <v>活动课上有7名同学参加体育活动，5名同学参加文艺活动。参加这两种活动的共有多少人?</v>
+        <v>活动课上有6名同学参加体育活动，8名同学参加文艺活动。参加这两种活动的共有多少人?</v>
       </c>
       <c r="D50" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E50" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -3564,11 +3599,11 @@
       </c>
       <c r="P50" s="3">
         <f ca="1">D50+E50</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q50" s="3">
         <f ca="1">E50+D50</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
@@ -3598,15 +3633,15 @@
       </c>
       <c r="C51" s="1" t="str">
         <f ca="1">"我们班有"&amp;D51&amp;"人，男生有"&amp;E51&amp;"人，女生有多少人?"</f>
-        <v>我们班有14人，男生有6人，女生有多少人?</v>
+        <v>我们班有11人，男生有9人，女生有多少人?</v>
       </c>
       <c r="D51" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E51" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -3624,7 +3659,7 @@
       </c>
       <c r="P51" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
@@ -3655,15 +3690,15 @@
       </c>
       <c r="C52" s="1" t="str">
         <f ca="1">"一本书有"&amp;D52&amp;"页，小华已经看了"&amp;E52&amp;"页。还剩多少页没有看?"</f>
-        <v>一本书有13页，小华已经看了3页。还剩多少页没有看?</v>
+        <v>一本书有19页，小华已经看了1页。还剩多少页没有看?</v>
       </c>
       <c r="D52" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E52" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -3681,7 +3716,7 @@
       </c>
       <c r="P52" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
@@ -3712,15 +3747,15 @@
       </c>
       <c r="C53" s="1" t="str">
         <f ca="1">"一本书有"&amp;D53&amp;"页，小华看了一些后还剩"&amp;E53&amp;"页没看。小华看了多少页?"</f>
-        <v>一本书有11页，小华看了一些后还剩6页没看。小华看了多少页?</v>
+        <v>一本书有18页，小华看了一些后还剩4页没看。小华看了多少页?</v>
       </c>
       <c r="D53" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E53" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -3738,7 +3773,7 @@
       </c>
       <c r="P53" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
@@ -3769,11 +3804,11 @@
       </c>
       <c r="C54" s="1" t="str">
         <f ca="1">"图书室有连环画"&amp;D54&amp;"本，已经借出"&amp;E54&amp;"本。还剩多少本?"</f>
-        <v>图书室有连环画19本，已经借出2本。还剩多少本?</v>
+        <v>图书室有连环画12本，已经借出2本。还剩多少本?</v>
       </c>
       <c r="D54" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E54" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -3795,7 +3830,7 @@
       </c>
       <c r="P54" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
@@ -3826,19 +3861,19 @@
       </c>
       <c r="C55" s="1" t="str">
         <f ca="1">"书包："&amp;D55&amp;"元 水彩笔："&amp;E55&amp;"元 墨水："&amp;F55&amp;"元 　　书包比水彩笔贵多少钱?"</f>
-        <v>书包：16元 水彩笔：9元 墨水：7元 　　书包比水彩笔贵多少钱?</v>
+        <v>书包：17元 水彩笔：3元 墨水：6元 　　书包比水彩笔贵多少钱?</v>
       </c>
       <c r="D55" s="2">
         <f t="shared" ref="D55" ca="1" si="7">RANDBETWEEN(U55,V55)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E55" s="2">
         <f t="shared" ref="E55" ca="1" si="8">RANDBETWEEN(W55,X55)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F55" s="2">
         <f ca="1">RANDBETWEEN(W55,X55)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -3855,7 +3890,7 @@
       </c>
       <c r="P55" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
@@ -3886,19 +3921,19 @@
       </c>
       <c r="C56" s="1" t="str">
         <f ca="1">"书包："&amp;F56&amp;"元 水彩笔："&amp;D56&amp;"元 墨水："&amp;E56&amp;"元 　　墨水比水彩笔便宜多少钱?"</f>
-        <v>书包：2元 水彩笔：11元 墨水：4元 　　墨水比水彩笔便宜多少钱?</v>
+        <v>书包：8元 水彩笔：19元 墨水：2元 　　墨水比水彩笔便宜多少钱?</v>
       </c>
       <c r="D56" s="2">
         <f t="shared" ref="D56" ca="1" si="9">RANDBETWEEN(U56,V56)</f>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E56" s="2">
         <f t="shared" ref="E56" ca="1" si="10">RANDBETWEEN(W56,X56)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F56" s="2">
         <f ca="1">RANDBETWEEN(W56,X56)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -3915,7 +3950,7 @@
       </c>
       <c r="P56" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
@@ -3946,15 +3981,15 @@
       </c>
       <c r="C57" s="1" t="str">
         <f ca="1">"兔妈妈：我收了"&amp;D57&amp;"根萝卜。兔宝宝：我收了"&amp;E57&amp;"根萝卜。 兔妈妈比兔宝宝多收了几根萝卜?"</f>
-        <v>兔妈妈：我收了16根萝卜。兔宝宝：我收了1根萝卜。 兔妈妈比兔宝宝多收了几根萝卜?</v>
+        <v>兔妈妈：我收了17根萝卜。兔宝宝：我收了5根萝卜。 兔妈妈比兔宝宝多收了几根萝卜?</v>
       </c>
       <c r="D57" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E57" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -3972,7 +4007,7 @@
       </c>
       <c r="P57" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
@@ -4003,15 +4038,15 @@
       </c>
       <c r="C58" s="1" t="str">
         <f ca="1">"兔妈妈：我收了"&amp;D58&amp;"根萝卜。兔宝宝：我收了"&amp;E58&amp;"根萝卜。 兔宝宝比兔妈妈少收了几根萝卜?"</f>
-        <v>兔妈妈：我收了10根萝卜。兔宝宝：我收了5根萝卜。 兔宝宝比兔妈妈少收了几根萝卜?</v>
+        <v>兔妈妈：我收了17根萝卜。兔宝宝：我收了9根萝卜。 兔宝宝比兔妈妈少收了几根萝卜?</v>
       </c>
       <c r="D58" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E58" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -4029,7 +4064,7 @@
       </c>
       <c r="P58" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
@@ -4060,15 +4095,15 @@
       </c>
       <c r="C59" s="1" t="str">
         <f ca="1">"母鸡："&amp;E59&amp;"只  小鸡："&amp;D59&amp;"只   小鸡比母鸡多几只?"</f>
-        <v>母鸡：7只  小鸡：18只   小鸡比母鸡多几只?</v>
+        <v>母鸡：2只  小鸡：14只   小鸡比母鸡多几只?</v>
       </c>
       <c r="D59" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E59" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -4086,7 +4121,7 @@
       </c>
       <c r="P59" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
@@ -4117,15 +4152,15 @@
       </c>
       <c r="C60" s="1" t="str">
         <f ca="1">"母鸡："&amp;E60&amp;"只  小鸡："&amp;D60&amp;"只   母鸡比小鸡少几只?"</f>
-        <v>母鸡：6只  小鸡：14只   母鸡比小鸡少几只?</v>
+        <v>母鸡：2只  小鸡：15只   母鸡比小鸡少几只?</v>
       </c>
       <c r="D60" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E60" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -4143,7 +4178,7 @@
       </c>
       <c r="P60" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
@@ -4174,19 +4209,19 @@
       </c>
       <c r="C61" s="1" t="str">
         <f ca="1">"大客车："&amp;E61&amp;"辆  中巴："&amp;F61&amp;"辆  小轿车："&amp;D61&amp;"辆   小轿车比大客车多几辆?"</f>
-        <v>大客车：8辆  中巴：4辆  小轿车：18辆   小轿车比大客车多几辆?</v>
+        <v>大客车：5辆  中巴：2辆  小轿车：19辆   小轿车比大客车多几辆?</v>
       </c>
       <c r="D61" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E61" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F61" s="2">
         <f t="shared" ref="F61:F62" ca="1" si="11">RANDBETWEEN(W61,X61)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -4203,7 +4238,7 @@
       </c>
       <c r="P61" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
@@ -4234,19 +4269,19 @@
       </c>
       <c r="C62" s="1" t="str">
         <f ca="1">"大客车："&amp;E62&amp;"辆  中巴："&amp;D62&amp;"辆  小轿车："&amp;F62&amp;"辆   中巴比大客车多几辆?"</f>
-        <v>大客车：7辆  中巴：16辆  小轿车：8辆   中巴比大客车多几辆?</v>
+        <v>大客车：1辆  中巴：13辆  小轿车：1辆   中巴比大客车多几辆?</v>
       </c>
       <c r="D62" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E62" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F62" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -4263,7 +4298,7 @@
       </c>
       <c r="P62" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q62" s="3"/>
       <c r="R62" s="3"/>
@@ -4294,11 +4329,11 @@
       </c>
       <c r="C63" s="1" t="str">
         <f ca="1">"拿"&amp;D63&amp;"元去买车票，找给我"&amp;E63&amp;"元。买车票花了多少钱?"</f>
-        <v>拿19元去买车票，找给我2元。买车票花了多少钱?</v>
+        <v>拿12元去买车票，找给我2元。买车票花了多少钱?</v>
       </c>
       <c r="D63" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E63" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -4320,7 +4355,7 @@
       </c>
       <c r="P63" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
@@ -4351,7 +4386,7 @@
       </c>
       <c r="C64" s="1" t="str">
         <f ca="1">"飞机场上有"&amp;D64&amp;"架飞机，飞走了"&amp;E64&amp;"架，现在机场上有飞机多少架?"</f>
-        <v>飞机场上有18架飞机，飞走了9架，现在机场上有飞机多少架?</v>
+        <v>飞机场上有18架飞机，飞走了6架，现在机场上有飞机多少架?</v>
       </c>
       <c r="D64" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -4359,7 +4394,7 @@
       </c>
       <c r="E64" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -4377,7 +4412,7 @@
       </c>
       <c r="P64" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q64" s="3"/>
       <c r="R64" s="3"/>
@@ -4408,15 +4443,15 @@
       </c>
       <c r="C65" s="1" t="str">
         <f ca="1">"同学们要做"&amp;D65&amp;"个灯笼,已做好"&amp;E65&amp;"个，还要做多少个? "</f>
-        <v xml:space="preserve">同学们要做15个灯笼,已做好9个，还要做多少个? </v>
+        <v xml:space="preserve">同学们要做19个灯笼,已做好8个，还要做多少个? </v>
       </c>
       <c r="D65" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E65" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -4434,7 +4469,7 @@
       </c>
       <c r="P65" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Q65" s="3"/>
       <c r="R65" s="3"/>
@@ -4515,11 +4550,11 @@
       </c>
       <c r="C67" s="1" t="str">
         <f ca="1">"学校原有"&amp;D67&amp;"瓶胶水，又买回"&amp;E67&amp;"瓶，现在有多少瓶?"</f>
-        <v>学校原有9瓶胶水，又买回5瓶，现在有多少瓶?</v>
+        <v>学校原有8瓶胶水，又买回5瓶，现在有多少瓶?</v>
       </c>
       <c r="D67" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E67" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -4541,11 +4576,11 @@
       </c>
       <c r="P67" s="3">
         <f ca="1">D67+E67</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q67" s="3">
         <f ca="1">E67+D67</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
@@ -4570,20 +4605,20 @@
     </row>
     <row r="68" spans="2:27">
       <c r="B68" s="7" t="str">
-        <f t="shared" ref="B68:B109" si="12">IF(N68 = "", "", REPT(0,4-LEN(ROW()-2)) &amp; ROW()-2)</f>
+        <f t="shared" ref="B68:B131" si="12">IF(N68 = "", "", REPT(0,4-LEN(ROW()-2)) &amp; ROW()-2)</f>
         <v>0066</v>
       </c>
       <c r="C68" s="1" t="str">
         <f ca="1">"小强家有"&amp;D68&amp;"个苹果，吃了"&amp;E68&amp;"个，还有多少个?"</f>
-        <v>小强家有10个苹果，吃了5个，还有多少个?</v>
+        <v>小强家有13个苹果，吃了3个，还有多少个?</v>
       </c>
       <c r="D68" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E68" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -4601,7 +4636,7 @@
       </c>
       <c r="P68" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q68" s="3"/>
       <c r="R68" s="3"/>
@@ -4689,11 +4724,11 @@
       </c>
       <c r="C70" s="1" t="str">
         <f ca="1">"小朋友做剪纸，用了"&amp;D70&amp;"张红纸，又用了同样多的黄纸，他们用了多少张纸?"</f>
-        <v>小朋友做剪纸，用了5张红纸，又用了同样多的黄纸，他们用了多少张纸?</v>
+        <v>小朋友做剪纸，用了8张红纸，又用了同样多的黄纸，他们用了多少张纸?</v>
       </c>
       <c r="D70" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -4712,7 +4747,7 @@
       </c>
       <c r="P70" s="3">
         <f ca="1">D70+D70</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Q70" s="3"/>
       <c r="R70" s="3"/>
@@ -4739,15 +4774,15 @@
       </c>
       <c r="C71" s="1" t="str">
         <f ca="1">"马场上有"&amp;D71&amp;"匹马，又来了"&amp;E71&amp;"匹，现在马场上有多少匹?"</f>
-        <v>马场上有7匹马，又来了6匹，现在马场上有多少匹?</v>
+        <v>马场上有6匹马，又来了8匹，现在马场上有多少匹?</v>
       </c>
       <c r="D71" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E71" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -4765,11 +4800,11 @@
       </c>
       <c r="P71" s="3">
         <f ca="1">D71+E71</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q71" s="3">
         <f ca="1">E71+D71</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R71" s="3"/>
       <c r="S71" s="3"/>
@@ -4799,15 +4834,15 @@
       </c>
       <c r="C72" s="1" t="str">
         <f ca="1">"商店有"&amp;D72&amp;"把扇，卖去"&amp;E72&amp;"把，现在有多少把?"</f>
-        <v>商店有12把扇，卖去3把，现在有多少把?</v>
+        <v>商店有19把扇，卖去7把，现在有多少把?</v>
       </c>
       <c r="D72" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E72" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -4825,7 +4860,7 @@
       </c>
       <c r="P72" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q72" s="3"/>
       <c r="R72" s="3"/>
@@ -4856,15 +4891,15 @@
       </c>
       <c r="C73" s="1" t="str">
         <f ca="1">"学校有兰花和菊花共"&amp;D73&amp;"盆，兰花有"&amp;E73&amp;"盆，菊花有几盆?"</f>
-        <v>学校有兰花和菊花共16盆，兰花有2盆，菊花有几盆?</v>
+        <v>学校有兰花和菊花共13盆，兰花有8盆，菊花有几盆?</v>
       </c>
       <c r="D73" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E73" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -4882,7 +4917,7 @@
       </c>
       <c r="P73" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="Q73" s="3"/>
       <c r="R73" s="3"/>
@@ -4913,15 +4948,15 @@
       </c>
       <c r="C74" s="1" t="str">
         <f ca="1">"小青两次画了"&amp;D74&amp;"个，第一次画了"&amp;E74&amp;"个，第二次画了多少个?"</f>
-        <v>小青两次画了11个，第一次画了8个，第二次画了多少个?</v>
+        <v>小青两次画了10个，第一次画了3个，第二次画了多少个?</v>
       </c>
       <c r="D74" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E74" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -4939,7 +4974,7 @@
       </c>
       <c r="P74" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q74" s="3"/>
       <c r="R74" s="3"/>
@@ -4970,15 +5005,15 @@
       </c>
       <c r="C75" s="1" t="str">
         <f ca="1">"小红家有苹果和梨子共"&amp;D75&amp;"个，苹果有"&amp;E75&amp;"个，梨子有多少个? "</f>
-        <v xml:space="preserve">小红家有苹果和梨子共17个，苹果有1个，梨子有多少个? </v>
+        <v xml:space="preserve">小红家有苹果和梨子共19个，苹果有9个，梨子有多少个? </v>
       </c>
       <c r="D75" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E75" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -4996,7 +5031,7 @@
       </c>
       <c r="P75" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Q75" s="3"/>
       <c r="R75" s="3"/>
@@ -5027,15 +5062,15 @@
       </c>
       <c r="C76" s="1" t="str">
         <f ca="1">"家有"&amp;D76&amp;"棵白菜，吃了"&amp;E76&amp;"棵，还有几棵?"</f>
-        <v>家有11棵白菜，吃了9棵，还有几棵?</v>
+        <v>家有10棵白菜，吃了5棵，还有几棵?</v>
       </c>
       <c r="D76" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E76" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
@@ -5053,7 +5088,7 @@
       </c>
       <c r="P76" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q76" s="3"/>
       <c r="R76" s="3"/>
@@ -5084,15 +5119,15 @@
       </c>
       <c r="C77" s="1" t="str">
         <f ca="1">"从车场开走"&amp;D77&amp;"辆汽车，还剩"&amp;E77&amp;"辆，车场原来有多少汽车?"</f>
-        <v>从车场开走13辆汽车，还剩6辆，车场原来有多少汽车?</v>
+        <v>从车场开走12辆汽车，还剩9辆，车场原来有多少汽车?</v>
       </c>
       <c r="D77" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E77" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
@@ -5110,7 +5145,7 @@
       </c>
       <c r="P77" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q77" s="3"/>
       <c r="R77" s="3"/>
@@ -5141,7 +5176,7 @@
       </c>
       <c r="C78" s="1" t="str">
         <f ca="1">"学校体育室有"&amp;D78&amp;"个足球，又买来"&amp;E78&amp;"个，现在有多少个?"</f>
-        <v>学校体育室有8个足球，又买来8个，现在有多少个?</v>
+        <v>学校体育室有8个足球，又买来7个，现在有多少个?</v>
       </c>
       <c r="D78" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -5149,7 +5184,7 @@
       </c>
       <c r="E78" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
@@ -5167,11 +5202,11 @@
       </c>
       <c r="P78" s="3">
         <f ca="1">D78+E78</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q78" s="3">
         <f ca="1">E78+D78</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R78" s="3"/>
       <c r="S78" s="3"/>
@@ -5201,15 +5236,15 @@
       </c>
       <c r="C79" s="1" t="str">
         <f ca="1">"学雷锋小组上午修了"&amp;D79&amp;"张椅，下午修了"&amp;E79&amp;"张，一天修了多少张椅?"</f>
-        <v>学雷锋小组上午修了7张椅，下午修了7张，一天修了多少张椅?</v>
+        <v>学雷锋小组上午修了6张椅，下午修了8张，一天修了多少张椅?</v>
       </c>
       <c r="D79" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E79" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
@@ -5261,15 +5296,15 @@
       </c>
       <c r="C80" s="1" t="str">
         <f ca="1">"树上有"&amp;D80&amp;"只鸟，飞走了"&amp;E80&amp;"只还剩下多少只鸟？"</f>
-        <v>树上有16只鸟，飞走了5只还剩下多少只鸟？</v>
+        <v>树上有14只鸟，飞走了9只还剩下多少只鸟？</v>
       </c>
       <c r="D80" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E80" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
@@ -5287,7 +5322,7 @@
       </c>
       <c r="P80" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="Q80" s="3"/>
       <c r="R80" s="3"/>
@@ -5318,15 +5353,15 @@
       </c>
       <c r="C81" s="1" t="str">
         <f ca="1">"小明第一天写了"&amp;D81&amp;"个字，第二天写了"&amp;E81&amp;"个字，两天一共写了多少个字？"</f>
-        <v>小明第一天写了6个字，第二天写了9个字，两天一共写了多少个字？</v>
+        <v>小明第一天写了9个字，第二天写了5个字，两天一共写了多少个字？</v>
       </c>
       <c r="D81" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E81" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -5344,11 +5379,11 @@
       </c>
       <c r="P81" s="3">
         <f ca="1">D81+E81</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q81" s="3">
         <f ca="1">E81+D81</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R81" s="3"/>
       <c r="S81" s="3"/>
@@ -5378,15 +5413,15 @@
       </c>
       <c r="C82" s="1" t="str">
         <f ca="1">"盘子里共有"&amp;D82&amp;"个苹果，小红吃了"&amp;E82&amp;"个，还剩多少个？"</f>
-        <v>盘子里共有15个苹果，小红吃了6个，还剩多少个？</v>
+        <v>盘子里共有16个苹果，小红吃了1个，还剩多少个？</v>
       </c>
       <c r="D82" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E82" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -5404,7 +5439,7 @@
       </c>
       <c r="P82" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
@@ -5435,15 +5470,15 @@
       </c>
       <c r="C83" s="1" t="str">
         <f ca="1">"小云做了"&amp;D83&amp;"朵花，又拿来"&amp;E83&amp;"朵，现在有多少朵花？"</f>
-        <v>小云做了8朵花，又拿来7朵，现在有多少朵花？</v>
+        <v>小云做了6朵花，又拿来5朵，现在有多少朵花？</v>
       </c>
       <c r="D83" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E83" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -5461,11 +5496,11 @@
       </c>
       <c r="P83" s="3">
         <f ca="1">D83+E83</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q83" s="3">
         <f ca="1">E83+D83</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="R83" s="3"/>
       <c r="S83" s="3"/>
@@ -5495,15 +5530,15 @@
       </c>
       <c r="C84" s="1" t="str">
         <f ca="1">"小军两次用了"&amp;D84&amp;"支铅笔，第一次用了"&amp;E84&amp;"支，第二次用了几支？"</f>
-        <v>小军两次用了16支铅笔，第一次用了1支，第二次用了几支？</v>
+        <v>小军两次用了17支铅笔，第一次用了3支，第二次用了几支？</v>
       </c>
       <c r="D84" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E84" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -5521,7 +5556,7 @@
       </c>
       <c r="P84" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q84" s="3"/>
       <c r="R84" s="3"/>
@@ -5552,15 +5587,15 @@
       </c>
       <c r="C85" s="1" t="str">
         <f ca="1">"学校有"&amp;D85&amp;"个球，借走了"&amp;E85&amp;"个,还剩几个？"</f>
-        <v>学校有11个球，借走了6个,还剩几个？</v>
+        <v>学校有14个球，借走了5个,还剩几个？</v>
       </c>
       <c r="D85" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E85" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
@@ -5578,7 +5613,7 @@
       </c>
       <c r="P85" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q85" s="3"/>
       <c r="R85" s="3"/>
@@ -5609,15 +5644,15 @@
       </c>
       <c r="C86" s="1" t="str">
         <f ca="1">"欢欢做了"&amp;D86&amp;"朵大红花，贝贝做了"&amp;E86&amp;"朵大红花，两人一共做了多少朵？"</f>
-        <v>欢欢做了6朵大红花，贝贝做了7朵大红花，两人一共做了多少朵？</v>
+        <v>欢欢做了7朵大红花，贝贝做了9朵大红花，两人一共做了多少朵？</v>
       </c>
       <c r="D86" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E86" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -5635,11 +5670,11 @@
       </c>
       <c r="P86" s="3">
         <f ca="1">D86+E86</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Q86" s="3">
         <f ca="1">E86+D86</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="R86" s="3"/>
       <c r="S86" s="3"/>
@@ -5669,15 +5704,15 @@
       </c>
       <c r="C87" s="1" t="str">
         <f ca="1">"妈妈买了"&amp;D87&amp;"个犁，吃了一些，还剩"&amp;E87&amp;"个，吃了多少个？"</f>
-        <v>妈妈买了20个犁，吃了一些，还剩1个，吃了多少个？</v>
+        <v>妈妈买了13个犁，吃了一些，还剩6个，吃了多少个？</v>
       </c>
       <c r="D87" s="2">
         <f t="shared" ref="D87:D95" ca="1" si="13">RANDBETWEEN(U87,V87)</f>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E87" s="2">
         <f t="shared" ref="E87:E95" ca="1" si="14">RANDBETWEEN(W87,X87)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -5695,7 +5730,7 @@
       </c>
       <c r="P87" s="3">
         <f t="shared" ref="P87:P95" ca="1" si="15">D87-E87</f>
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="Q87" s="3"/>
       <c r="R87" s="3"/>
@@ -5726,15 +5761,15 @@
       </c>
       <c r="C88" s="1" t="str">
         <f ca="1">"同学们种花和树，一共种了"&amp;D88&amp;"棵，种了"&amp;E88&amp;"棵树，种了多少棵花？"</f>
-        <v>同学们种花和树，一共种了18棵，种了3棵树，种了多少棵花？</v>
+        <v>同学们种花和树，一共种了19棵，种了7棵树，种了多少棵花？</v>
       </c>
       <c r="D88" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E88" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
@@ -5752,7 +5787,7 @@
       </c>
       <c r="P88" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q88" s="3"/>
       <c r="R88" s="3"/>
@@ -5783,11 +5818,11 @@
       </c>
       <c r="C89" s="1" t="str">
         <f ca="1">"小明昨天写了"&amp;D89&amp;"个大字，今天写的和昨天一样多，两天一共写了多少个大字？"</f>
-        <v>小明昨天写了7个大字，今天写的和昨天一样多，两天一共写了多少个大字？</v>
+        <v>小明昨天写了9个大字，今天写的和昨天一样多，两天一共写了多少个大字？</v>
       </c>
       <c r="D89" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
@@ -5806,7 +5841,7 @@
       </c>
       <c r="P89" s="3">
         <f ca="1">D89+D89</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Q89" s="3"/>
       <c r="R89" s="3"/>
@@ -5833,15 +5868,15 @@
       </c>
       <c r="C90" s="1" t="str">
         <f ca="1">"李爷爷养黑兔和白兔"&amp;D90&amp;"只。白兔有"&amp;E90&amp;"只，黑兔有多少只？"</f>
-        <v>李爷爷养黑兔和白兔15只。白兔有4只，黑兔有多少只？</v>
+        <v>李爷爷养黑兔和白兔11只。白兔有1只，黑兔有多少只？</v>
       </c>
       <c r="D90" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E90" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
@@ -5859,7 +5894,7 @@
       </c>
       <c r="P90" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
@@ -5890,11 +5925,11 @@
       </c>
       <c r="C91" s="1" t="str">
         <f ca="1">"树上第一次飞走"&amp;D91&amp;"只鸟，第二次飞走"&amp;E91&amp;"只鸟，两次飞走多少只鸟？"</f>
-        <v>树上第一次飞走8只鸟，第二次飞走5只鸟，两次飞走多少只鸟？</v>
+        <v>树上第一次飞走5只鸟，第二次飞走5只鸟，两次飞走多少只鸟？</v>
       </c>
       <c r="D91" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E91" s="2">
         <f t="shared" ca="1" si="14"/>
@@ -5916,11 +5951,11 @@
       </c>
       <c r="P91" s="3">
         <f ca="1">D91+E91</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Q91" s="3">
         <f ca="1">E91+D91</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R91" s="3"/>
       <c r="S91" s="3"/>
@@ -5950,15 +5985,15 @@
       </c>
       <c r="C92" s="1" t="str">
         <f ca="1">"桌子上有菠萝"&amp;D92&amp;"个，吃了"&amp;E92&amp;"个还剩多少个？"</f>
-        <v>桌子上有菠萝17个，吃了5个还剩多少个？</v>
+        <v>桌子上有菠萝14个，吃了2个还剩多少个？</v>
       </c>
       <c r="D92" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E92" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
@@ -6007,15 +6042,15 @@
       </c>
       <c r="C93" s="1" t="str">
         <f ca="1">"河里先游走"&amp;D93&amp;"只鹅，又游走"&amp;E93&amp;"只，两次游走多少只？"</f>
-        <v>河里先游走7只鹅，又游走7只，两次游走多少只？</v>
+        <v>河里先游走8只鹅，又游走9只，两次游走多少只？</v>
       </c>
       <c r="D93" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E93" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -6033,11 +6068,11 @@
       </c>
       <c r="P93" s="3">
         <f ca="1">D93+E93</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Q93" s="3">
         <f ca="1">E93+D93</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="R93" s="3"/>
       <c r="S93" s="3"/>
@@ -6067,15 +6102,15 @@
       </c>
       <c r="C94" s="1" t="str">
         <f ca="1">"明明两天看了"&amp;D94&amp;"页书，第一天看了"&amp;E94&amp;"页，第二天看了多少页？"</f>
-        <v>明明两天看了14页书，第一天看了8页，第二天看了多少页？</v>
+        <v>明明两天看了16页书，第一天看了1页，第二天看了多少页？</v>
       </c>
       <c r="D94" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E94" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
@@ -6093,7 +6128,7 @@
       </c>
       <c r="P94" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="Q94" s="3"/>
       <c r="R94" s="3"/>
@@ -6124,7 +6159,7 @@
       </c>
       <c r="C95" s="1" t="str">
         <f ca="1">"停车场两次一共开走了"&amp;D95&amp;"辆车，第一次开走了"&amp;E95&amp;"辆，第二次开走了多少辆？"</f>
-        <v>停车场两次一共开走了11辆车，第一次开走了7辆，第二次开走了多少辆？</v>
+        <v>停车场两次一共开走了11辆车，第一次开走了4辆，第二次开走了多少辆？</v>
       </c>
       <c r="D95" s="2">
         <f t="shared" ca="1" si="13"/>
@@ -6132,7 +6167,7 @@
       </c>
       <c r="E95" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
@@ -6150,7 +6185,7 @@
       </c>
       <c r="P95" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
@@ -6181,15 +6216,15 @@
       </c>
       <c r="C96" s="1" t="str">
         <f ca="1">"动物园里黄狗和花狗有"&amp;D96&amp;"只，"&amp;E96&amp;"只是黄的，有几只是花的？"</f>
-        <v>动物园里黄狗和花狗有14只，1只是黄的，有几只是花的？</v>
+        <v>动物园里黄狗和花狗有16只，9只是黄的，有几只是花的？</v>
       </c>
       <c r="D96" s="2">
         <f t="shared" ref="D96:D102" ca="1" si="16">RANDBETWEEN(U96,V96)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E96" s="2">
         <f t="shared" ref="E96:E102" ca="1" si="17">RANDBETWEEN(W96,X96)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
@@ -6207,7 +6242,7 @@
       </c>
       <c r="P96" s="3">
         <f t="shared" ref="P96:P101" ca="1" si="18">D96-E96</f>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Q96" s="3"/>
       <c r="R96" s="3"/>
@@ -6238,19 +6273,19 @@
       </c>
       <c r="C97" s="1" t="str">
         <f ca="1">"小红拿"&amp;D97&amp;"元钱去买一本书"&amp;E97&amp;"元和一枝笔"&amp;F97&amp;"元，售货员应找回多少元？"</f>
-        <v>小红拿25元钱去买一本书3元和一枝笔4元，售货员应找回多少元？</v>
+        <v>小红拿20元钱去买一本书1元和一枝笔1元，售货员应找回多少元？</v>
       </c>
       <c r="D97" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E97" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F97" s="2">
         <f ca="1">RANDBETWEEN(W97,X97)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
@@ -6301,15 +6336,15 @@
       </c>
       <c r="C98" s="1" t="str">
         <f ca="1">"小图书室有"&amp;D98&amp;"本图书，借出"&amp;E98&amp;"本书，还剩下多少本？"</f>
-        <v>小图书室有15本图书，借出3本书，还剩下多少本？</v>
+        <v>小图书室有14本图书，借出2本书，还剩下多少本？</v>
       </c>
       <c r="D98" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E98" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
@@ -6358,15 +6393,15 @@
       </c>
       <c r="C99" s="1" t="str">
         <f ca="1">"一（2）班同学共折花"&amp;D99&amp;"朵，男生折"&amp;E99&amp;"朵，女生折多少朵？"</f>
-        <v>一（2）班同学共折花19朵，男生折3朵，女生折多少朵？</v>
+        <v>一（2）班同学共折花10朵，男生折9朵，女生折多少朵？</v>
       </c>
       <c r="D99" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E99" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
@@ -6384,7 +6419,7 @@
       </c>
       <c r="P99" s="3">
         <f t="shared" ca="1" si="18"/>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q99" s="3"/>
       <c r="R99" s="3"/>
@@ -6415,15 +6450,15 @@
       </c>
       <c r="C100" s="1" t="str">
         <f ca="1">"饲养员养了"&amp;D100&amp;"只白兔，又养"&amp;E100&amp;"只黑兔，共养兔多少只？"</f>
-        <v>饲养员养了7只白兔，又养8只黑兔，共养兔多少只？</v>
+        <v>饲养员养了6只白兔，又养9只黑兔，共养兔多少只？</v>
       </c>
       <c r="D100" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E100" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -6475,15 +6510,15 @@
       </c>
       <c r="C101" s="1" t="str">
         <f ca="1">"学校买来"&amp;D101&amp;"盒彩色粉笔，用去一些后还剩"&amp;E101&amp;"盒，用去多少盒？"</f>
-        <v>学校买来17盒彩色粉笔，用去一些后还剩8盒，用去多少盒？</v>
+        <v>学校买来11盒彩色粉笔，用去一些后还剩5盒，用去多少盒？</v>
       </c>
       <c r="D101" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E101" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
@@ -6501,7 +6536,7 @@
       </c>
       <c r="P101" s="3">
         <f t="shared" ca="1" si="18"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Q101" s="3"/>
       <c r="R101" s="3"/>
@@ -6532,7 +6567,7 @@
       </c>
       <c r="C102" s="1" t="str">
         <f ca="1">"学校有男老师"&amp;D102&amp;"人，女老师比男老师多"&amp;E102&amp;"人，女老师有多少人？"</f>
-        <v>学校有男老师5人，女老师比男老师多7人，女老师有多少人？</v>
+        <v>学校有男老师5人，女老师比男老师多8人，女老师有多少人？</v>
       </c>
       <c r="D102" s="2">
         <f t="shared" ca="1" si="16"/>
@@ -6540,7 +6575,7 @@
       </c>
       <c r="E102" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
@@ -6558,11 +6593,11 @@
       </c>
       <c r="P102" s="3">
         <f ca="1">D102+E102</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q102" s="3">
         <f ca="1">E102+D102</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R102" s="3"/>
       <c r="S102" s="3"/>
@@ -6592,15 +6627,15 @@
       </c>
       <c r="C103" s="1" t="str">
         <f ca="1">"小玲买一本字典用了"&amp;E103&amp;"元钱，她付给营业员"&amp;D103&amp;"元，应找回多少钱？"</f>
-        <v>小玲买一本字典用了3元钱，她付给营业员13元，应找回多少钱？</v>
+        <v>小玲买一本字典用了1元钱，她付给营业员11元，应找回多少钱？</v>
       </c>
       <c r="D103" s="2">
         <f t="shared" ref="D103:D105" ca="1" si="19">RANDBETWEEN(U103,V103)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E103" s="2">
         <f t="shared" ref="E103:E104" ca="1" si="20">RANDBETWEEN(W103,X103)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
@@ -6649,19 +6684,19 @@
       </c>
       <c r="C104" s="1" t="str">
         <f ca="1">"亮亮有"&amp;D104&amp;"张纸，折纸飞机先用去"&amp;E104&amp;"张，又用去"&amp;F104&amp;"张，共用去多少张纸？"</f>
-        <v>亮亮有30张纸，折纸飞机先用去4张，又用去1张，共用去多少张纸？</v>
+        <v>亮亮有26张纸，折纸飞机先用去6张，又用去5张，共用去多少张纸？</v>
       </c>
       <c r="D104" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E104" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F104" s="2">
         <f ca="1">RANDBETWEEN(W104,X104)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
@@ -6678,11 +6713,11 @@
       </c>
       <c r="P104" s="3">
         <f ca="1">D104-E104-F104</f>
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="Q104" s="3">
         <f ca="1">D104-F104-E104</f>
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R104" s="3"/>
       <c r="S104" s="3"/>
@@ -6712,11 +6747,11 @@
       </c>
       <c r="C105" s="1" t="str">
         <f ca="1">"学校图书馆有一些故事书，借出一半后，还剩"&amp;D105&amp;"本，学校原来有故事书多少本？"</f>
-        <v>学校图书馆有一些故事书，借出一半后，还剩6本，学校原来有故事书多少本？</v>
+        <v>学校图书馆有一些故事书，借出一半后，还剩5本，学校原来有故事书多少本？</v>
       </c>
       <c r="D105" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
@@ -6735,7 +6770,7 @@
       </c>
       <c r="P105" s="3">
         <f ca="1">D105+D105</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q105" s="3"/>
       <c r="R105" s="3"/>
@@ -6762,15 +6797,15 @@
       </c>
       <c r="C106" s="1" t="str">
         <f ca="1">"动物园里有熊猫4只，猴子"&amp;D106&amp;"只，小狗30只，小兔"&amp;E106&amp;"只，小兔比猴子少多少只？"</f>
-        <v>动物园里有熊猫4只，猴子18只，小狗30只，小兔6只，小兔比猴子少多少只？</v>
+        <v>动物园里有熊猫4只，猴子16只，小狗30只，小兔1只，小兔比猴子少多少只？</v>
       </c>
       <c r="D106" s="2">
         <f t="shared" ref="D106:D108" ca="1" si="22">RANDBETWEEN(U106,V106)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E106" s="2">
         <f t="shared" ref="E106:E108" ca="1" si="23">RANDBETWEEN(W106,X106)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
@@ -6788,7 +6823,7 @@
       </c>
       <c r="P106" s="3">
         <f t="shared" ref="P106:P107" ca="1" si="24">D106-E106</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q106" s="3"/>
       <c r="R106" s="3"/>
@@ -6819,7 +6854,7 @@
       </c>
       <c r="C107" s="1" t="str">
         <f ca="1">"动物园里有熊猫"&amp;E107&amp;"只，猴子24只，小狗"&amp;D107&amp;"只，小兔7只，再来多少只熊猫就能和小狗同样多了？"</f>
-        <v>动物园里有熊猫7只，猴子24只，小狗11只，小兔7只，再来多少只熊猫就能和小狗同样多了？</v>
+        <v>动物园里有熊猫2只，猴子24只，小狗11只，小兔7只，再来多少只熊猫就能和小狗同样多了？</v>
       </c>
       <c r="D107" s="2">
         <f t="shared" ca="1" si="22"/>
@@ -6827,7 +6862,7 @@
       </c>
       <c r="E107" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
@@ -6845,7 +6880,7 @@
       </c>
       <c r="P107" s="3">
         <f t="shared" ca="1" si="24"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q107" s="3"/>
       <c r="R107" s="3"/>
@@ -6876,15 +6911,15 @@
       </c>
       <c r="C108" s="1" t="str">
         <f ca="1">"动物园里有熊猫4只，猴子"&amp;D108&amp;"只，小狗"&amp;E108&amp;"只，小兔7只，猴子和小狗一共有多少只？"</f>
-        <v>动物园里有熊猫4只，猴子5只，小狗6只，小兔7只，猴子和小狗一共有多少只？</v>
+        <v>动物园里有熊猫4只，猴子9只，小狗9只，小兔7只，猴子和小狗一共有多少只？</v>
       </c>
       <c r="D108" s="2">
         <f t="shared" ca="1" si="22"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E108" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
@@ -6902,11 +6937,11 @@
       </c>
       <c r="P108" s="3">
         <f ca="1">D108+E108</f>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q108" s="3">
         <f ca="1">E108+D108</f>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="R108" s="3"/>
       <c r="S108" s="3"/>
@@ -6936,15 +6971,15 @@
       </c>
       <c r="C109" s="1" t="str">
         <f ca="1">"姐妹两人做花，姐姐做了"&amp;D109&amp;"朵，比妹妹多做"&amp;E109&amp;"朵，姐妹两人一共做花多少朵？"</f>
-        <v>姐妹两人做花，姐姐做了18朵，比妹妹多做7朵，姐妹两人一共做花多少朵？</v>
+        <v>姐妹两人做花，姐姐做了17朵，比妹妹多做8朵，姐妹两人一共做花多少朵？</v>
       </c>
       <c r="D109" s="2">
         <f t="shared" ref="D109" ca="1" si="25">RANDBETWEEN(U109,V109)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E109" s="2">
         <f t="shared" ref="E109" ca="1" si="26">RANDBETWEEN(W109,X109)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
@@ -6962,11 +6997,11 @@
       </c>
       <c r="P109" s="3">
         <f ca="1">D109+D109-E109</f>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q109" s="3">
         <f ca="1">D109-E109+D109</f>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="R109" s="3"/>
       <c r="S109" s="3"/>
@@ -6990,11 +7025,25 @@
       </c>
     </row>
     <row r="110" spans="2:27">
-      <c r="B110" s="7"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
+      <c r="B110" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>0108</v>
+      </c>
+      <c r="C110" s="1" t="str">
+        <f ca="1">D110&amp;"个小朋友排成一排，小明的右边有"&amp;E110&amp;"人，小明的左边有几人？"</f>
+        <v>20个小朋友排成一排，小明的右边有9人，小明的左边有几人？</v>
+      </c>
+      <c r="D110" s="2">
+        <f t="shared" ref="D110:D113" ca="1" si="27">RANDBETWEEN(U110,V110)</f>
+        <v>20</v>
+      </c>
+      <c r="E110" s="2">
+        <f t="shared" ref="E110:E113" ca="1" si="28">RANDBETWEEN(W110,X110)</f>
+        <v>9</v>
+      </c>
+      <c r="F110" s="2">
+        <v>1</v>
+      </c>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
@@ -7002,27 +7051,62 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
-      <c r="N110" s="6"/>
-      <c r="O110" s="6"/>
-      <c r="P110" s="3"/>
-      <c r="Q110" s="3"/>
+      <c r="N110" s="6">
+        <v>1</v>
+      </c>
+      <c r="O110" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P110" s="3">
+        <f ca="1">D110-E110-F110</f>
+        <v>10</v>
+      </c>
+      <c r="Q110" s="3">
+        <f ca="1">D110-F110-E110</f>
+        <v>10</v>
+      </c>
       <c r="R110" s="3"/>
       <c r="S110" s="3"/>
       <c r="T110" s="3"/>
-      <c r="U110" s="4"/>
-      <c r="V110" s="4"/>
-      <c r="W110" s="4"/>
-      <c r="X110" s="4"/>
+      <c r="U110" s="4">
+        <v>11</v>
+      </c>
+      <c r="V110" s="4">
+        <v>20</v>
+      </c>
+      <c r="W110" s="4">
+        <v>5</v>
+      </c>
+      <c r="X110" s="4">
+        <v>9</v>
+      </c>
       <c r="Y110" s="4"/>
       <c r="Z110" s="4"/>
-      <c r="AA110" s="5"/>
+      <c r="AA110" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="111" spans="2:27">
-      <c r="B111" s="7"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
+      <c r="B111" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>0109</v>
+      </c>
+      <c r="C111" s="1" t="str">
+        <f ca="1">"小明有"&amp;D111&amp;"张邮票，送给小华"&amp;E111&amp;"张，又买来"&amp;F111&amp;"张，现在小明有几张邮票？"</f>
+        <v>小明有12张邮票，送给小华3张，又买来6张，现在小明有几张邮票？</v>
+      </c>
+      <c r="D111" s="2">
+        <f t="shared" ca="1" si="27"/>
+        <v>12</v>
+      </c>
+      <c r="E111" s="2">
+        <f t="shared" ca="1" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="F111" s="2">
+        <f ca="1">RANDBETWEEN(Y111,Z111)</f>
+        <v>6</v>
+      </c>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
@@ -7030,26 +7114,62 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
-      <c r="N111" s="6"/>
-      <c r="O111" s="6"/>
-      <c r="P111" s="3"/>
-      <c r="Q111" s="3"/>
+      <c r="N111" s="6">
+        <v>1</v>
+      </c>
+      <c r="O111" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P111" s="3">
+        <f ca="1">D111-E111+F111</f>
+        <v>15</v>
+      </c>
+      <c r="Q111" s="3">
+        <f ca="1">D111+F111-E111</f>
+        <v>15</v>
+      </c>
       <c r="R111" s="3"/>
       <c r="S111" s="3"/>
       <c r="T111" s="3"/>
-      <c r="U111" s="4"/>
-      <c r="V111" s="4"/>
-      <c r="W111" s="4"/>
-      <c r="X111" s="4"/>
-      <c r="Y111" s="4"/>
-      <c r="Z111" s="4"/>
-      <c r="AA111" s="5"/>
+      <c r="U111" s="4">
+        <v>10</v>
+      </c>
+      <c r="V111" s="4">
+        <v>15</v>
+      </c>
+      <c r="W111" s="4">
+        <v>3</v>
+      </c>
+      <c r="X111" s="4">
+        <v>5</v>
+      </c>
+      <c r="Y111" s="4">
+        <v>6</v>
+      </c>
+      <c r="Z111" s="4">
+        <v>9</v>
+      </c>
+      <c r="AA111" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="112" spans="2:27">
-      <c r="B112" s="7"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
+      <c r="B112" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>0110</v>
+      </c>
+      <c r="C112" s="1" t="str">
+        <f ca="1">"有"&amp;D112&amp;"位家长参加家长会，现在有"&amp;E112&amp;"把椅子，每人坐一把，还差几把？"</f>
+        <v>有10位家长参加家长会，现在有7把椅子，每人坐一把，还差几把？</v>
+      </c>
+      <c r="D112" s="2">
+        <f t="shared" ca="1" si="27"/>
+        <v>10</v>
+      </c>
+      <c r="E112" s="2">
+        <f t="shared" ca="1" si="28"/>
+        <v>7</v>
+      </c>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
@@ -7058,26 +7178,55 @@
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
-      <c r="N112" s="6"/>
-      <c r="O112" s="6"/>
-      <c r="P112" s="3"/>
+      <c r="N112" s="6">
+        <v>1</v>
+      </c>
+      <c r="O112" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P112" s="3">
+        <f t="shared" ref="P112:P113" ca="1" si="29">D112-E112</f>
+        <v>3</v>
+      </c>
       <c r="Q112" s="3"/>
       <c r="R112" s="3"/>
       <c r="S112" s="3"/>
       <c r="T112" s="3"/>
-      <c r="U112" s="4"/>
-      <c r="V112" s="4"/>
-      <c r="W112" s="4"/>
-      <c r="X112" s="4"/>
+      <c r="U112" s="4">
+        <v>10</v>
+      </c>
+      <c r="V112" s="4">
+        <v>20</v>
+      </c>
+      <c r="W112" s="4">
+        <v>1</v>
+      </c>
+      <c r="X112" s="4">
+        <v>9</v>
+      </c>
       <c r="Y112" s="4"/>
       <c r="Z112" s="4"/>
-      <c r="AA112" s="5"/>
+      <c r="AA112" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="113" spans="2:27">
-      <c r="B113" s="7"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
+      <c r="B113" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>0111</v>
+      </c>
+      <c r="C113" s="1" t="str">
+        <f ca="1">"停车场停有"&amp;D113&amp;"辆汽车，后来又开走了"&amp;E113&amp;"辆，停车场现在停有多少辆汽车？"</f>
+        <v>停车场停有20辆汽车，后来又开走了7辆，停车场现在停有多少辆汽车？</v>
+      </c>
+      <c r="D113" s="2">
+        <f t="shared" ca="1" si="27"/>
+        <v>20</v>
+      </c>
+      <c r="E113" s="2">
+        <f t="shared" ca="1" si="28"/>
+        <v>7</v>
+      </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
@@ -7086,26 +7235,55 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
-      <c r="N113" s="6"/>
-      <c r="O113" s="6"/>
-      <c r="P113" s="3"/>
+      <c r="N113" s="6">
+        <v>1</v>
+      </c>
+      <c r="O113" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P113" s="3">
+        <f t="shared" ca="1" si="29"/>
+        <v>13</v>
+      </c>
       <c r="Q113" s="3"/>
       <c r="R113" s="3"/>
       <c r="S113" s="3"/>
       <c r="T113" s="3"/>
-      <c r="U113" s="4"/>
-      <c r="V113" s="4"/>
-      <c r="W113" s="4"/>
-      <c r="X113" s="4"/>
+      <c r="U113" s="4">
+        <v>10</v>
+      </c>
+      <c r="V113" s="4">
+        <v>20</v>
+      </c>
+      <c r="W113" s="4">
+        <v>1</v>
+      </c>
+      <c r="X113" s="4">
+        <v>9</v>
+      </c>
       <c r="Y113" s="4"/>
       <c r="Z113" s="4"/>
-      <c r="AA113" s="5"/>
+      <c r="AA113" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="114" spans="2:27">
-      <c r="B114" s="7"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
+      <c r="B114" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>0112</v>
+      </c>
+      <c r="C114" s="1" t="str">
+        <f ca="1">"明明说：我有"&amp;D114&amp;"张邮票。 红红说：我比你少"&amp;E114&amp;"张。 红红原来有几张邮票？"</f>
+        <v>明明说：我有12张邮票。 红红说：我比你少8张。 红红原来有几张邮票？</v>
+      </c>
+      <c r="D114" s="2">
+        <f t="shared" ref="D114:D115" ca="1" si="30">RANDBETWEEN(U114,V114)</f>
+        <v>12</v>
+      </c>
+      <c r="E114" s="2">
+        <f t="shared" ref="E114:E115" ca="1" si="31">RANDBETWEEN(W114,X114)</f>
+        <v>8</v>
+      </c>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
@@ -7114,27 +7292,58 @@
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
       <c r="M114" s="2"/>
-      <c r="N114" s="6"/>
-      <c r="O114" s="6"/>
-      <c r="P114" s="3"/>
+      <c r="N114" s="6">
+        <v>1</v>
+      </c>
+      <c r="O114" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P114" s="3">
+        <f t="shared" ref="P114" ca="1" si="32">D114-E114</f>
+        <v>4</v>
+      </c>
       <c r="Q114" s="3"/>
       <c r="R114" s="3"/>
       <c r="S114" s="3"/>
       <c r="T114" s="3"/>
-      <c r="U114" s="4"/>
-      <c r="V114" s="4"/>
-      <c r="W114" s="4"/>
-      <c r="X114" s="4"/>
+      <c r="U114" s="4">
+        <v>10</v>
+      </c>
+      <c r="V114" s="4">
+        <v>20</v>
+      </c>
+      <c r="W114" s="4">
+        <v>1</v>
+      </c>
+      <c r="X114" s="4">
+        <v>9</v>
+      </c>
       <c r="Y114" s="4"/>
       <c r="Z114" s="4"/>
-      <c r="AA114" s="5"/>
+      <c r="AA114" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="115" spans="2:27">
-      <c r="B115" s="7"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
+      <c r="B115" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>0113</v>
+      </c>
+      <c r="C115" s="1" t="str">
+        <f ca="1">"课间操，小丽的后面有"&amp;D115&amp;"位同学，前面有"&amp;E115&amp;"位同学，小丽站的这一队一共有多少位同学？"</f>
+        <v>课间操，小丽的后面有6位同学，前面有9位同学，小丽站的这一队一共有多少位同学？</v>
+      </c>
+      <c r="D115" s="2">
+        <f t="shared" ca="1" si="30"/>
+        <v>6</v>
+      </c>
+      <c r="E115" s="2">
+        <f t="shared" ca="1" si="31"/>
+        <v>9</v>
+      </c>
+      <c r="F115" s="2">
+        <v>1</v>
+      </c>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
@@ -7142,27 +7351,67 @@
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
-      <c r="N115" s="6"/>
-      <c r="O115" s="6"/>
-      <c r="P115" s="3"/>
-      <c r="Q115" s="3"/>
-      <c r="R115" s="3"/>
-      <c r="S115" s="3"/>
-      <c r="T115" s="3"/>
-      <c r="U115" s="4"/>
-      <c r="V115" s="4"/>
-      <c r="W115" s="4"/>
-      <c r="X115" s="4"/>
+      <c r="N115" s="6">
+        <v>0</v>
+      </c>
+      <c r="O115" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P115" s="3">
+        <f ca="1">D115+E115+F115</f>
+        <v>16</v>
+      </c>
+      <c r="Q115" s="3">
+        <f ca="1">E115+D115+F115</f>
+        <v>16</v>
+      </c>
+      <c r="R115" s="3">
+        <f ca="1">F115+E115+D115</f>
+        <v>16</v>
+      </c>
+      <c r="S115" s="3">
+        <f ca="1">F115+D115+E115</f>
+        <v>16</v>
+      </c>
+      <c r="T115" s="3">
+        <f ca="1">D115+F115+E115</f>
+        <v>16</v>
+      </c>
+      <c r="U115" s="4">
+        <v>5</v>
+      </c>
+      <c r="V115" s="4">
+        <v>9</v>
+      </c>
+      <c r="W115" s="4">
+        <v>5</v>
+      </c>
+      <c r="X115" s="4">
+        <v>9</v>
+      </c>
       <c r="Y115" s="4"/>
       <c r="Z115" s="4"/>
-      <c r="AA115" s="5"/>
+      <c r="AA115" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="116" spans="2:27">
-      <c r="B116" s="7"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="2"/>
+      <c r="B116" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>0114</v>
+      </c>
+      <c r="C116" s="1" t="str">
+        <f ca="1">"有"&amp;D116&amp;"盆红花，两盆之间放入一盆黄花，一共可以放入多少盆黄花？"</f>
+        <v>有5盆红花，两盆之间放入一盆黄花，一共可以放入多少盆黄花？</v>
+      </c>
+      <c r="D116" s="2">
+        <f ca="1">INT(RAND()*5)*2+1+4</f>
+        <v>5</v>
+      </c>
       <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
+      <c r="F116" s="2">
+        <v>1</v>
+      </c>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
@@ -7170,10 +7419,20 @@
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
-      <c r="N116" s="6"/>
-      <c r="O116" s="6"/>
-      <c r="P116" s="3"/>
-      <c r="Q116" s="3"/>
+      <c r="N116" s="6">
+        <v>0</v>
+      </c>
+      <c r="O116" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P116" s="3">
+        <f ca="1">D116+D116-F116</f>
+        <v>9</v>
+      </c>
+      <c r="Q116" s="3">
+        <f ca="1">D116-F116+D116</f>
+        <v>9</v>
+      </c>
       <c r="R116" s="3"/>
       <c r="S116" s="3"/>
       <c r="T116" s="3"/>
@@ -7183,14 +7442,31 @@
       <c r="X116" s="4"/>
       <c r="Y116" s="4"/>
       <c r="Z116" s="4"/>
-      <c r="AA116" s="5"/>
+      <c r="AA116" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="117" spans="2:27">
-      <c r="B117" s="7"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
+      <c r="B117" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>0115</v>
+      </c>
+      <c r="C117" s="1" t="str">
+        <f ca="1">"树上有"&amp;D117&amp;"只小鸟，飞走"&amp;E117&amp;"只后，又飞来"&amp;F117&amp;"只。现在树上一共有多少只小鸟？"</f>
+        <v>树上有12只小鸟，飞走5只后，又飞来9只。现在树上一共有多少只小鸟？</v>
+      </c>
+      <c r="D117" s="2">
+        <f t="shared" ref="D117" ca="1" si="33">RANDBETWEEN(U117,V117)</f>
+        <v>12</v>
+      </c>
+      <c r="E117" s="2">
+        <f t="shared" ref="E117" ca="1" si="34">RANDBETWEEN(W117,X117)</f>
+        <v>5</v>
+      </c>
+      <c r="F117" s="2">
+        <f ca="1">RANDBETWEEN(Y117,Z117)</f>
+        <v>9</v>
+      </c>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
@@ -7198,27 +7474,66 @@
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
-      <c r="N117" s="6"/>
-      <c r="O117" s="6"/>
-      <c r="P117" s="3"/>
-      <c r="Q117" s="3"/>
+      <c r="N117" s="6">
+        <v>1</v>
+      </c>
+      <c r="O117" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P117" s="3">
+        <f ca="1">D117-E117+F117</f>
+        <v>16</v>
+      </c>
+      <c r="Q117" s="3">
+        <f ca="1">D117+F117-E117</f>
+        <v>16</v>
+      </c>
       <c r="R117" s="3"/>
       <c r="S117" s="3"/>
       <c r="T117" s="3"/>
-      <c r="U117" s="4"/>
-      <c r="V117" s="4"/>
-      <c r="W117" s="4"/>
-      <c r="X117" s="4"/>
-      <c r="Y117" s="4"/>
-      <c r="Z117" s="4"/>
-      <c r="AA117" s="5"/>
+      <c r="U117" s="4">
+        <v>10</v>
+      </c>
+      <c r="V117" s="4">
+        <v>15</v>
+      </c>
+      <c r="W117" s="4">
+        <v>3</v>
+      </c>
+      <c r="X117" s="4">
+        <v>5</v>
+      </c>
+      <c r="Y117" s="4">
+        <v>6</v>
+      </c>
+      <c r="Z117" s="4">
+        <v>9</v>
+      </c>
+      <c r="AA117" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="118" spans="2:27">
-      <c r="B118" s="7"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
+      <c r="B118" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>0116</v>
+      </c>
+      <c r="C118" s="1" t="str">
+        <f ca="1">"妈妈买来"&amp;D118&amp;"个梨，上午吃了"&amp;E118&amp;"个，下午吃了"&amp;F118&amp;"个。还剩几个？"</f>
+        <v>妈妈买来12个梨，上午吃了3个，下午吃了5个。还剩几个？</v>
+      </c>
+      <c r="D118" s="2">
+        <f t="shared" ref="D118" ca="1" si="35">RANDBETWEEN(U118,V118)</f>
+        <v>12</v>
+      </c>
+      <c r="E118" s="2">
+        <f t="shared" ref="E118" ca="1" si="36">RANDBETWEEN(W118,X118)</f>
+        <v>3</v>
+      </c>
+      <c r="F118" s="2">
+        <f ca="1">RANDBETWEEN(Y118,Z118)</f>
+        <v>5</v>
+      </c>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
@@ -7226,27 +7541,66 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
-      <c r="N118" s="6"/>
-      <c r="O118" s="6"/>
-      <c r="P118" s="3"/>
-      <c r="Q118" s="3"/>
+      <c r="N118" s="6">
+        <v>1</v>
+      </c>
+      <c r="O118" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="P118" s="3">
+        <f ca="1">D118-E118-F118</f>
+        <v>4</v>
+      </c>
+      <c r="Q118" s="3">
+        <f ca="1">D118-F118-E118</f>
+        <v>4</v>
+      </c>
       <c r="R118" s="3"/>
       <c r="S118" s="3"/>
       <c r="T118" s="3"/>
-      <c r="U118" s="4"/>
-      <c r="V118" s="4"/>
-      <c r="W118" s="4"/>
-      <c r="X118" s="4"/>
-      <c r="Y118" s="4"/>
-      <c r="Z118" s="4"/>
-      <c r="AA118" s="5"/>
+      <c r="U118" s="4">
+        <v>10</v>
+      </c>
+      <c r="V118" s="4">
+        <v>15</v>
+      </c>
+      <c r="W118" s="4">
+        <v>1</v>
+      </c>
+      <c r="X118" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y118" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z118" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA118" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="119" spans="2:27">
-      <c r="B119" s="7"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
+      <c r="B119" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>0117</v>
+      </c>
+      <c r="C119" s="1" t="str">
+        <f ca="1">"小明用"&amp;D119&amp;"元钱买了下面两种商品后，还剩多少元？其中皮球："&amp;E119&amp;"元，文具盒："&amp;F119&amp;"元。"</f>
+        <v>小明用12元钱买了下面两种商品后，还剩多少元？其中皮球：2元，文具盒：1元。</v>
+      </c>
+      <c r="D119" s="2">
+        <f t="shared" ref="D119:D120" ca="1" si="37">RANDBETWEEN(U119,V119)</f>
+        <v>12</v>
+      </c>
+      <c r="E119" s="2">
+        <f t="shared" ref="E119:E120" ca="1" si="38">RANDBETWEEN(W119,X119)</f>
+        <v>2</v>
+      </c>
+      <c r="F119" s="2">
+        <f ca="1">RANDBETWEEN(Y119,Z119)</f>
+        <v>1</v>
+      </c>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
@@ -7254,26 +7608,62 @@
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
-      <c r="N119" s="6"/>
-      <c r="O119" s="6"/>
-      <c r="P119" s="3"/>
-      <c r="Q119" s="3"/>
+      <c r="N119" s="6">
+        <v>1</v>
+      </c>
+      <c r="O119" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P119" s="3">
+        <f ca="1">D119-E119-F119</f>
+        <v>9</v>
+      </c>
+      <c r="Q119" s="3">
+        <f ca="1">D119-F119-E119</f>
+        <v>9</v>
+      </c>
       <c r="R119" s="3"/>
       <c r="S119" s="3"/>
       <c r="T119" s="3"/>
-      <c r="U119" s="4"/>
-      <c r="V119" s="4"/>
-      <c r="W119" s="4"/>
-      <c r="X119" s="4"/>
-      <c r="Y119" s="4"/>
-      <c r="Z119" s="4"/>
-      <c r="AA119" s="5"/>
+      <c r="U119" s="4">
+        <v>10</v>
+      </c>
+      <c r="V119" s="4">
+        <v>15</v>
+      </c>
+      <c r="W119" s="4">
+        <v>1</v>
+      </c>
+      <c r="X119" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y119" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z119" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA119" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="120" spans="2:27">
-      <c r="B120" s="7"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
+      <c r="B120" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>0118</v>
+      </c>
+      <c r="C120" s="1" t="str">
+        <f ca="1">"儿子今年"&amp;E120&amp;"岁，爸爸今年"&amp;D120&amp;"岁，明年爸爸比儿子大多少岁？"</f>
+        <v>儿子今年4岁，爸爸今年35岁，明年爸爸比儿子大多少岁？</v>
+      </c>
+      <c r="D120" s="2">
+        <f t="shared" ca="1" si="37"/>
+        <v>35</v>
+      </c>
+      <c r="E120" s="2">
+        <f t="shared" ca="1" si="38"/>
+        <v>4</v>
+      </c>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
@@ -7282,26 +7672,55 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
-      <c r="N120" s="6"/>
-      <c r="O120" s="6"/>
-      <c r="P120" s="3"/>
+      <c r="N120" s="6">
+        <v>1</v>
+      </c>
+      <c r="O120" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="P120" s="3">
+        <f t="shared" ref="P120" ca="1" si="39">D120-E120</f>
+        <v>31</v>
+      </c>
       <c r="Q120" s="3"/>
       <c r="R120" s="3"/>
       <c r="S120" s="3"/>
       <c r="T120" s="3"/>
-      <c r="U120" s="4"/>
-      <c r="V120" s="4"/>
-      <c r="W120" s="4"/>
-      <c r="X120" s="4"/>
+      <c r="U120" s="4">
+        <v>30</v>
+      </c>
+      <c r="V120" s="4">
+        <v>40</v>
+      </c>
+      <c r="W120" s="4">
+        <v>1</v>
+      </c>
+      <c r="X120" s="4">
+        <v>9</v>
+      </c>
       <c r="Y120" s="4"/>
       <c r="Z120" s="4"/>
-      <c r="AA120" s="5"/>
+      <c r="AA120" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="121" spans="2:27">
-      <c r="B121" s="7"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
+      <c r="B121" s="7" t="str">
+        <f t="shared" ref="B121" si="40">IF(N121 = "", "", REPT(0,4-LEN(ROW()-2)) &amp; ROW()-2)</f>
+        <v>0119</v>
+      </c>
+      <c r="C121" s="1" t="str">
+        <f ca="1">"儿子今年"&amp;E121&amp;"岁，爸爸今年"&amp;D121&amp;"岁，3年后爸爸比儿子大多少岁？"</f>
+        <v>儿子今年5岁，爸爸今年30岁，3年后爸爸比儿子大多少岁？</v>
+      </c>
+      <c r="D121" s="2">
+        <f t="shared" ref="D121:D125" ca="1" si="41">RANDBETWEEN(U121,V121)</f>
+        <v>30</v>
+      </c>
+      <c r="E121" s="2">
+        <f t="shared" ref="E121:E124" ca="1" si="42">RANDBETWEEN(W121,X121)</f>
+        <v>5</v>
+      </c>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
@@ -7310,26 +7729,55 @@
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
       <c r="M121" s="2"/>
-      <c r="N121" s="6"/>
-      <c r="O121" s="6"/>
-      <c r="P121" s="3"/>
+      <c r="N121" s="6">
+        <v>1</v>
+      </c>
+      <c r="O121" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="P121" s="3">
+        <f t="shared" ref="P121" ca="1" si="43">D121-E121</f>
+        <v>25</v>
+      </c>
       <c r="Q121" s="3"/>
       <c r="R121" s="3"/>
       <c r="S121" s="3"/>
       <c r="T121" s="3"/>
-      <c r="U121" s="4"/>
-      <c r="V121" s="4"/>
-      <c r="W121" s="4"/>
-      <c r="X121" s="4"/>
+      <c r="U121" s="4">
+        <v>30</v>
+      </c>
+      <c r="V121" s="4">
+        <v>40</v>
+      </c>
+      <c r="W121" s="4">
+        <v>1</v>
+      </c>
+      <c r="X121" s="4">
+        <v>9</v>
+      </c>
       <c r="Y121" s="4"/>
       <c r="Z121" s="4"/>
-      <c r="AA121" s="5"/>
+      <c r="AA121" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="122" spans="2:27">
-      <c r="B122" s="7"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
+      <c r="B122" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>0120</v>
+      </c>
+      <c r="C122" s="1" t="str">
+        <f ca="1">"小明买一双鞋，付给售货员"&amp;D122&amp;"元，找回"&amp;E122&amp;"元，这双鞋多少元？"</f>
+        <v>小明买一双鞋，付给售货员12元，找回9元，这双鞋多少元？</v>
+      </c>
+      <c r="D122" s="2">
+        <f t="shared" ca="1" si="41"/>
+        <v>12</v>
+      </c>
+      <c r="E122" s="2">
+        <f t="shared" ca="1" si="42"/>
+        <v>9</v>
+      </c>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
@@ -7338,20 +7786,628 @@
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
-      <c r="N122" s="6"/>
-      <c r="O122" s="6"/>
-      <c r="P122" s="3"/>
+      <c r="N122" s="6">
+        <v>1</v>
+      </c>
+      <c r="O122" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P122" s="3">
+        <f ca="1">D122-E122</f>
+        <v>3</v>
+      </c>
       <c r="Q122" s="3"/>
       <c r="R122" s="3"/>
       <c r="S122" s="3"/>
       <c r="T122" s="3"/>
-      <c r="U122" s="4"/>
-      <c r="V122" s="4"/>
-      <c r="W122" s="4"/>
-      <c r="X122" s="4"/>
+      <c r="U122" s="4">
+        <v>10</v>
+      </c>
+      <c r="V122" s="4">
+        <v>20</v>
+      </c>
+      <c r="W122" s="4">
+        <v>1</v>
+      </c>
+      <c r="X122" s="4">
+        <v>9</v>
+      </c>
       <c r="Y122" s="4"/>
       <c r="Z122" s="4"/>
-      <c r="AA122" s="5"/>
+      <c r="AA122" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="2:27">
+      <c r="B123" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>0121</v>
+      </c>
+      <c r="C123" s="1" t="str">
+        <f ca="1">"三个班共植树多少棵？ 一班植树"&amp;D123&amp;"棵；二班植树"&amp;E123&amp;"棵；三班植树"&amp;F123&amp;"棵。"</f>
+        <v>三个班共植树多少棵？ 一班植树8棵；二班植树6棵；三班植树6棵。</v>
+      </c>
+      <c r="D123" s="2">
+        <f t="shared" ca="1" si="41"/>
+        <v>8</v>
+      </c>
+      <c r="E123" s="2">
+        <f t="shared" ca="1" si="42"/>
+        <v>6</v>
+      </c>
+      <c r="F123" s="2">
+        <f ca="1">RANDBETWEEN(Y123,Z123)</f>
+        <v>6</v>
+      </c>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
+      <c r="L123" s="2"/>
+      <c r="M123" s="2"/>
+      <c r="N123" s="6">
+        <v>0</v>
+      </c>
+      <c r="O123" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="P123" s="3">
+        <f ca="1">D123+E123+F123</f>
+        <v>20</v>
+      </c>
+      <c r="Q123" s="3">
+        <f ca="1">D123+F123+E123</f>
+        <v>20</v>
+      </c>
+      <c r="R123" s="3">
+        <f ca="1">F123+E123+D123</f>
+        <v>20</v>
+      </c>
+      <c r="S123" s="3">
+        <f ca="1">F123+D123+E123</f>
+        <v>20</v>
+      </c>
+      <c r="T123" s="3">
+        <f ca="1">E123+F123+D123</f>
+        <v>20</v>
+      </c>
+      <c r="U123" s="4">
+        <v>5</v>
+      </c>
+      <c r="V123" s="4">
+        <v>9</v>
+      </c>
+      <c r="W123" s="4">
+        <v>5</v>
+      </c>
+      <c r="X123" s="4">
+        <v>9</v>
+      </c>
+      <c r="Y123" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z123" s="4">
+        <v>9</v>
+      </c>
+      <c r="AA123" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="2:27">
+      <c r="B124" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>0122</v>
+      </c>
+      <c r="C124" s="1" t="str">
+        <f ca="1">"树上有"&amp;D124&amp;"个桃子，一只小猴摘了"&amp;E124&amp;"个，另一只小猴摘了"&amp;F124&amp;"个，还剩多少个？"</f>
+        <v>树上有14个桃子，一只小猴摘了1个，另一只小猴摘了5个，还剩多少个？</v>
+      </c>
+      <c r="D124" s="2">
+        <f t="shared" ca="1" si="41"/>
+        <v>14</v>
+      </c>
+      <c r="E124" s="2">
+        <f t="shared" ca="1" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="F124" s="2">
+        <f ca="1">RANDBETWEEN(Y124,Z124)</f>
+        <v>5</v>
+      </c>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="2"/>
+      <c r="L124" s="2"/>
+      <c r="M124" s="2"/>
+      <c r="N124" s="6">
+        <v>1</v>
+      </c>
+      <c r="O124" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="P124" s="3">
+        <f ca="1">D124-E124-F124</f>
+        <v>8</v>
+      </c>
+      <c r="Q124" s="3">
+        <f ca="1">D124-F124-E124</f>
+        <v>8</v>
+      </c>
+      <c r="R124" s="3"/>
+      <c r="S124" s="3"/>
+      <c r="T124" s="3"/>
+      <c r="U124" s="4">
+        <v>10</v>
+      </c>
+      <c r="V124" s="4">
+        <v>15</v>
+      </c>
+      <c r="W124" s="4">
+        <v>1</v>
+      </c>
+      <c r="X124" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y124" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z124" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA124" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="2:27">
+      <c r="B125" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>0123</v>
+      </c>
+      <c r="C125" s="1" t="str">
+        <f ca="1">"一本故事书"&amp;D125&amp;"页，第一天看了"&amp;E125&amp;"页，第二天和第一天看的同样多。 两天共看了多少页？"</f>
+        <v>一本故事书7页，第一天看了页，第二天和第一天看的同样多。 两天共看了多少页？</v>
+      </c>
+      <c r="D125" s="2">
+        <f t="shared" ca="1" si="41"/>
+        <v>7</v>
+      </c>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+      <c r="L125" s="2"/>
+      <c r="M125" s="2"/>
+      <c r="N125" s="6">
+        <v>0</v>
+      </c>
+      <c r="O125" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P125" s="3">
+        <f ca="1">D125+D125</f>
+        <v>14</v>
+      </c>
+      <c r="Q125" s="3"/>
+      <c r="R125" s="3"/>
+      <c r="S125" s="3"/>
+      <c r="T125" s="3"/>
+      <c r="U125" s="4">
+        <v>5</v>
+      </c>
+      <c r="V125" s="4">
+        <v>9</v>
+      </c>
+      <c r="W125" s="4"/>
+      <c r="X125" s="4"/>
+      <c r="Y125" s="4"/>
+      <c r="Z125" s="4"/>
+      <c r="AA125" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="2:27">
+      <c r="B126" s="7" t="str">
+        <f t="shared" ref="B126" si="44">IF(N126 = "", "", REPT(0,4-LEN(ROW()-2)) &amp; ROW()-2)</f>
+        <v>0124</v>
+      </c>
+      <c r="C126" s="1" t="str">
+        <f ca="1">"一本故事书"&amp;D126&amp;"页，第一天看了"&amp;E126&amp;"页，第二天和第一天看的同样多。 还剩多少页没看？"</f>
+        <v>一本故事书22页，第一天看了8页，第二天和第一天看的同样多。 还剩多少页没看？</v>
+      </c>
+      <c r="D126" s="2">
+        <f t="shared" ref="D126" ca="1" si="45">RANDBETWEEN(U126,V126)</f>
+        <v>22</v>
+      </c>
+      <c r="E126" s="2">
+        <f t="shared" ref="E126" ca="1" si="46">RANDBETWEEN(W126,X126)</f>
+        <v>8</v>
+      </c>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
+      <c r="L126" s="2"/>
+      <c r="M126" s="2"/>
+      <c r="N126" s="6">
+        <v>1</v>
+      </c>
+      <c r="O126" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P126" s="3">
+        <f ca="1">D126-E126-E126</f>
+        <v>6</v>
+      </c>
+      <c r="Q126" s="3"/>
+      <c r="R126" s="3"/>
+      <c r="S126" s="3"/>
+      <c r="T126" s="3"/>
+      <c r="U126" s="4">
+        <v>20</v>
+      </c>
+      <c r="V126" s="4">
+        <v>25</v>
+      </c>
+      <c r="W126" s="4">
+        <v>5</v>
+      </c>
+      <c r="X126" s="4">
+        <v>9</v>
+      </c>
+      <c r="Y126" s="4"/>
+      <c r="Z126" s="4"/>
+      <c r="AA126" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="2:27">
+      <c r="B127" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C127" s="1"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+      <c r="L127" s="2"/>
+      <c r="M127" s="2"/>
+      <c r="N127" s="6"/>
+      <c r="O127" s="6"/>
+      <c r="P127" s="3"/>
+      <c r="Q127" s="3"/>
+      <c r="R127" s="3"/>
+      <c r="S127" s="3"/>
+      <c r="T127" s="3"/>
+      <c r="U127" s="4"/>
+      <c r="V127" s="4"/>
+      <c r="W127" s="4"/>
+      <c r="X127" s="4"/>
+      <c r="Y127" s="4"/>
+      <c r="Z127" s="4"/>
+      <c r="AA127" s="5"/>
+    </row>
+    <row r="128" spans="2:27">
+      <c r="B128" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C128" s="1"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2"/>
+      <c r="L128" s="2"/>
+      <c r="M128" s="2"/>
+      <c r="N128" s="6"/>
+      <c r="O128" s="6"/>
+      <c r="P128" s="3"/>
+      <c r="Q128" s="3"/>
+      <c r="R128" s="3"/>
+      <c r="S128" s="3"/>
+      <c r="T128" s="3"/>
+      <c r="U128" s="4"/>
+      <c r="V128" s="4"/>
+      <c r="W128" s="4"/>
+      <c r="X128" s="4"/>
+      <c r="Y128" s="4"/>
+      <c r="Z128" s="4"/>
+      <c r="AA128" s="5"/>
+    </row>
+    <row r="129" spans="2:27">
+      <c r="B129" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C129" s="1"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2"/>
+      <c r="L129" s="2"/>
+      <c r="M129" s="2"/>
+      <c r="N129" s="6"/>
+      <c r="O129" s="6"/>
+      <c r="P129" s="3"/>
+      <c r="Q129" s="3"/>
+      <c r="R129" s="3"/>
+      <c r="S129" s="3"/>
+      <c r="T129" s="3"/>
+      <c r="U129" s="4"/>
+      <c r="V129" s="4"/>
+      <c r="W129" s="4"/>
+      <c r="X129" s="4"/>
+      <c r="Y129" s="4"/>
+      <c r="Z129" s="4"/>
+      <c r="AA129" s="5"/>
+    </row>
+    <row r="130" spans="2:27">
+      <c r="B130" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C130" s="1"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
+      <c r="M130" s="2"/>
+      <c r="N130" s="6"/>
+      <c r="O130" s="6"/>
+      <c r="P130" s="3"/>
+      <c r="Q130" s="3"/>
+      <c r="R130" s="3"/>
+      <c r="S130" s="3"/>
+      <c r="T130" s="3"/>
+      <c r="U130" s="4"/>
+      <c r="V130" s="4"/>
+      <c r="W130" s="4"/>
+      <c r="X130" s="4"/>
+      <c r="Y130" s="4"/>
+      <c r="Z130" s="4"/>
+      <c r="AA130" s="5"/>
+    </row>
+    <row r="131" spans="2:27">
+      <c r="B131" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C131" s="1"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+      <c r="K131" s="2"/>
+      <c r="L131" s="2"/>
+      <c r="M131" s="2"/>
+      <c r="N131" s="6"/>
+      <c r="O131" s="6"/>
+      <c r="P131" s="3"/>
+      <c r="Q131" s="3"/>
+      <c r="R131" s="3"/>
+      <c r="S131" s="3"/>
+      <c r="T131" s="3"/>
+      <c r="U131" s="4"/>
+      <c r="V131" s="4"/>
+      <c r="W131" s="4"/>
+      <c r="X131" s="4"/>
+      <c r="Y131" s="4"/>
+      <c r="Z131" s="4"/>
+      <c r="AA131" s="5"/>
+    </row>
+    <row r="132" spans="2:27">
+      <c r="B132" s="7" t="str">
+        <f t="shared" ref="B132:B137" si="47">IF(N132 = "", "", REPT(0,4-LEN(ROW()-2)) &amp; ROW()-2)</f>
+        <v/>
+      </c>
+      <c r="C132" s="1"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="2"/>
+      <c r="L132" s="2"/>
+      <c r="M132" s="2"/>
+      <c r="N132" s="6"/>
+      <c r="O132" s="6"/>
+      <c r="P132" s="3"/>
+      <c r="Q132" s="3"/>
+      <c r="R132" s="3"/>
+      <c r="S132" s="3"/>
+      <c r="T132" s="3"/>
+      <c r="U132" s="4"/>
+      <c r="V132" s="4"/>
+      <c r="W132" s="4"/>
+      <c r="X132" s="4"/>
+      <c r="Y132" s="4"/>
+      <c r="Z132" s="4"/>
+      <c r="AA132" s="5"/>
+    </row>
+    <row r="133" spans="2:27">
+      <c r="B133" s="7" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="C133" s="1"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
+      <c r="K133" s="2"/>
+      <c r="L133" s="2"/>
+      <c r="M133" s="2"/>
+      <c r="N133" s="6"/>
+      <c r="O133" s="6"/>
+      <c r="P133" s="3"/>
+      <c r="Q133" s="3"/>
+      <c r="R133" s="3"/>
+      <c r="S133" s="3"/>
+      <c r="T133" s="3"/>
+      <c r="U133" s="4"/>
+      <c r="V133" s="4"/>
+      <c r="W133" s="4"/>
+      <c r="X133" s="4"/>
+      <c r="Y133" s="4"/>
+      <c r="Z133" s="4"/>
+      <c r="AA133" s="5"/>
+    </row>
+    <row r="134" spans="2:27">
+      <c r="B134" s="7" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="C134" s="1"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2"/>
+      <c r="K134" s="2"/>
+      <c r="L134" s="2"/>
+      <c r="M134" s="2"/>
+      <c r="N134" s="6"/>
+      <c r="O134" s="6"/>
+      <c r="P134" s="3"/>
+      <c r="Q134" s="3"/>
+      <c r="R134" s="3"/>
+      <c r="S134" s="3"/>
+      <c r="T134" s="3"/>
+      <c r="U134" s="4"/>
+      <c r="V134" s="4"/>
+      <c r="W134" s="4"/>
+      <c r="X134" s="4"/>
+      <c r="Y134" s="4"/>
+      <c r="Z134" s="4"/>
+      <c r="AA134" s="5"/>
+    </row>
+    <row r="135" spans="2:27">
+      <c r="B135" s="7" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="C135" s="1"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2"/>
+      <c r="K135" s="2"/>
+      <c r="L135" s="2"/>
+      <c r="M135" s="2"/>
+      <c r="N135" s="6"/>
+      <c r="O135" s="6"/>
+      <c r="P135" s="3"/>
+      <c r="Q135" s="3"/>
+      <c r="R135" s="3"/>
+      <c r="S135" s="3"/>
+      <c r="T135" s="3"/>
+      <c r="U135" s="4"/>
+      <c r="V135" s="4"/>
+      <c r="W135" s="4"/>
+      <c r="X135" s="4"/>
+      <c r="Y135" s="4"/>
+      <c r="Z135" s="4"/>
+      <c r="AA135" s="5"/>
+    </row>
+    <row r="136" spans="2:27">
+      <c r="B136" s="7" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="C136" s="1"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2"/>
+      <c r="K136" s="2"/>
+      <c r="L136" s="2"/>
+      <c r="M136" s="2"/>
+      <c r="N136" s="6"/>
+      <c r="O136" s="6"/>
+      <c r="P136" s="3"/>
+      <c r="Q136" s="3"/>
+      <c r="R136" s="3"/>
+      <c r="S136" s="3"/>
+      <c r="T136" s="3"/>
+      <c r="U136" s="4"/>
+      <c r="V136" s="4"/>
+      <c r="W136" s="4"/>
+      <c r="X136" s="4"/>
+      <c r="Y136" s="4"/>
+      <c r="Z136" s="4"/>
+      <c r="AA136" s="5"/>
+    </row>
+    <row r="137" spans="2:27">
+      <c r="B137" s="7" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="C137" s="1"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2"/>
+      <c r="K137" s="2"/>
+      <c r="L137" s="2"/>
+      <c r="M137" s="2"/>
+      <c r="N137" s="6"/>
+      <c r="O137" s="6"/>
+      <c r="P137" s="3"/>
+      <c r="Q137" s="3"/>
+      <c r="R137" s="3"/>
+      <c r="S137" s="3"/>
+      <c r="T137" s="3"/>
+      <c r="U137" s="4"/>
+      <c r="V137" s="4"/>
+      <c r="W137" s="4"/>
+      <c r="X137" s="4"/>
+      <c r="Y137" s="4"/>
+      <c r="Z137" s="4"/>
+      <c r="AA137" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:AA109"/>
